--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,12 @@
     <t>['19', '76']</t>
   </si>
   <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -617,6 +623,12 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1249,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1443,7 +1455,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1855,7 +1867,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1936,7 +1948,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2061,7 +2073,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2139,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>1.63</v>
@@ -2267,7 +2279,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2345,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
         <v>1.57</v>
@@ -2473,7 +2485,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2554,7 +2566,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2885,7 +2897,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2963,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ10">
         <v>1.29</v>
@@ -3091,7 +3103,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3297,7 +3309,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3584,7 +3596,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ13">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3709,7 +3721,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3790,7 +3802,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ14">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3915,7 +3927,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3993,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
         <v>1.63</v>
@@ -4405,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4533,7 +4545,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4611,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
         <v>1.14</v>
@@ -4739,7 +4751,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5232,7 +5244,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ21">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR21">
         <v>1.73</v>
@@ -5357,7 +5369,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5438,7 +5450,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ22">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>0.55</v>
@@ -5769,7 +5781,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5975,7 +5987,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6465,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR27">
         <v>1.37</v>
@@ -6593,7 +6605,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6671,10 +6683,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -7005,7 +7017,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7211,7 +7223,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7829,7 +7841,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8241,7 +8253,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8319,7 +8331,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ36">
         <v>1.29</v>
@@ -8447,7 +8459,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8525,7 +8537,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ37">
         <v>1.57</v>
@@ -8653,7 +8665,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8859,7 +8871,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9065,7 +9077,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9143,7 +9155,7 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40">
         <v>0.71</v>
@@ -9477,7 +9489,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9558,7 +9570,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ42">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>1.16</v>
@@ -9683,7 +9695,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10301,7 +10313,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10588,7 +10600,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR47">
         <v>1.94</v>
@@ -10791,7 +10803,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>1.63</v>
@@ -10919,7 +10931,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11000,7 +11012,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ49">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR49">
         <v>1.86</v>
@@ -11125,7 +11137,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11203,7 +11215,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
         <v>0.71</v>
@@ -11331,7 +11343,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -12030,7 +12042,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR54">
         <v>1.74</v>
@@ -12155,7 +12167,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12361,7 +12373,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12439,7 +12451,7 @@
         <v>1.75</v>
       </c>
       <c r="AP56">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12854,7 +12866,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -12979,7 +12991,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13263,10 +13275,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ60">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR60">
         <v>1.68</v>
@@ -13675,7 +13687,7 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ62">
         <v>0.43</v>
@@ -13803,7 +13815,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14009,7 +14021,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14087,7 +14099,7 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64">
         <v>0.71</v>
@@ -14215,7 +14227,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14502,7 +14514,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ66">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR66">
         <v>1.86</v>
@@ -14627,7 +14639,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14833,7 +14845,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15039,7 +15051,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15245,7 +15257,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15326,7 +15338,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ70">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -15451,7 +15463,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15735,7 +15747,7 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ72">
         <v>1.29</v>
@@ -15863,7 +15875,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -16150,7 +16162,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
         <v>1.51</v>
@@ -16356,7 +16368,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR75">
         <v>1.69</v>
@@ -16481,7 +16493,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16562,7 +16574,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ76">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -16765,7 +16777,7 @@
         <v>1.83</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
         <v>1.57</v>
@@ -17177,7 +17189,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79">
         <v>0.43</v>
@@ -17511,7 +17523,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17717,7 +17729,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -17923,7 +17935,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18129,7 +18141,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18207,7 +18219,7 @@
         <v>0.83</v>
       </c>
       <c r="AP84">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ84">
         <v>1.14</v>
@@ -18335,7 +18347,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q85">
         <v>2.7</v>
@@ -18492,6 +18504,624 @@
       </c>
       <c r="BP85">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7487110</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45619.58333333334</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s">
+        <v>72</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>120</v>
+      </c>
+      <c r="P86" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q86">
+        <v>2.1</v>
+      </c>
+      <c r="R86">
+        <v>2.38</v>
+      </c>
+      <c r="S86">
+        <v>5.5</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3.25</v>
+      </c>
+      <c r="V86">
+        <v>2.5</v>
+      </c>
+      <c r="W86">
+        <v>1.5</v>
+      </c>
+      <c r="X86">
+        <v>6.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.11</v>
+      </c>
+      <c r="Z86">
+        <v>1.53</v>
+      </c>
+      <c r="AA86">
+        <v>3.92</v>
+      </c>
+      <c r="AB86">
+        <v>5</v>
+      </c>
+      <c r="AC86">
+        <v>1.04</v>
+      </c>
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>1.2</v>
+      </c>
+      <c r="AF86">
+        <v>4.2</v>
+      </c>
+      <c r="AG86">
+        <v>1.65</v>
+      </c>
+      <c r="AH86">
+        <v>2.1</v>
+      </c>
+      <c r="AI86">
+        <v>1.73</v>
+      </c>
+      <c r="AJ86">
+        <v>2</v>
+      </c>
+      <c r="AK86">
+        <v>1.11</v>
+      </c>
+      <c r="AL86">
+        <v>1.18</v>
+      </c>
+      <c r="AM86">
+        <v>2.3</v>
+      </c>
+      <c r="AN86">
+        <v>0.86</v>
+      </c>
+      <c r="AO86">
+        <v>0.14</v>
+      </c>
+      <c r="AP86">
+        <v>0.88</v>
+      </c>
+      <c r="AQ86">
+        <v>0.25</v>
+      </c>
+      <c r="AR86">
+        <v>1.52</v>
+      </c>
+      <c r="AS86">
+        <v>1.1</v>
+      </c>
+      <c r="AT86">
+        <v>2.62</v>
+      </c>
+      <c r="AU86">
+        <v>7</v>
+      </c>
+      <c r="AV86">
+        <v>6</v>
+      </c>
+      <c r="AW86">
+        <v>10</v>
+      </c>
+      <c r="AX86">
+        <v>3</v>
+      </c>
+      <c r="AY86">
+        <v>21</v>
+      </c>
+      <c r="AZ86">
+        <v>12</v>
+      </c>
+      <c r="BA86">
+        <v>10</v>
+      </c>
+      <c r="BB86">
+        <v>3</v>
+      </c>
+      <c r="BC86">
+        <v>13</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>0</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>0</v>
+      </c>
+      <c r="BJ86">
+        <v>0</v>
+      </c>
+      <c r="BK86">
+        <v>1.65</v>
+      </c>
+      <c r="BL86">
+        <v>2.19</v>
+      </c>
+      <c r="BM86">
+        <v>2.07</v>
+      </c>
+      <c r="BN86">
+        <v>1.73</v>
+      </c>
+      <c r="BO86">
+        <v>0</v>
+      </c>
+      <c r="BP86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7487113</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45619.58333333334</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s">
+        <v>73</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>152</v>
+      </c>
+      <c r="P87" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q87">
+        <v>3</v>
+      </c>
+      <c r="R87">
+        <v>2.3</v>
+      </c>
+      <c r="S87">
+        <v>3.1</v>
+      </c>
+      <c r="T87">
+        <v>1.3</v>
+      </c>
+      <c r="U87">
+        <v>3.4</v>
+      </c>
+      <c r="V87">
+        <v>2.5</v>
+      </c>
+      <c r="W87">
+        <v>1.5</v>
+      </c>
+      <c r="X87">
+        <v>6</v>
+      </c>
+      <c r="Y87">
+        <v>1.13</v>
+      </c>
+      <c r="Z87">
+        <v>6.31</v>
+      </c>
+      <c r="AA87">
+        <v>3.21</v>
+      </c>
+      <c r="AB87">
+        <v>1.56</v>
+      </c>
+      <c r="AC87">
+        <v>1.03</v>
+      </c>
+      <c r="AD87">
+        <v>11</v>
+      </c>
+      <c r="AE87">
+        <v>1.18</v>
+      </c>
+      <c r="AF87">
+        <v>4.5</v>
+      </c>
+      <c r="AG87">
+        <v>1.55</v>
+      </c>
+      <c r="AH87">
+        <v>2.3</v>
+      </c>
+      <c r="AI87">
+        <v>1.53</v>
+      </c>
+      <c r="AJ87">
+        <v>2.38</v>
+      </c>
+      <c r="AK87">
+        <v>1.47</v>
+      </c>
+      <c r="AL87">
+        <v>1.22</v>
+      </c>
+      <c r="AM87">
+        <v>1.55</v>
+      </c>
+      <c r="AN87">
+        <v>1.86</v>
+      </c>
+      <c r="AO87">
+        <v>0.71</v>
+      </c>
+      <c r="AP87">
+        <v>1.75</v>
+      </c>
+      <c r="AQ87">
+        <v>0.75</v>
+      </c>
+      <c r="AR87">
+        <v>1.7</v>
+      </c>
+      <c r="AS87">
+        <v>1.68</v>
+      </c>
+      <c r="AT87">
+        <v>3.38</v>
+      </c>
+      <c r="AU87">
+        <v>4</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
+        <v>4</v>
+      </c>
+      <c r="AX87">
+        <v>5</v>
+      </c>
+      <c r="AY87">
+        <v>9</v>
+      </c>
+      <c r="AZ87">
+        <v>15</v>
+      </c>
+      <c r="BA87">
+        <v>8</v>
+      </c>
+      <c r="BB87">
+        <v>12</v>
+      </c>
+      <c r="BC87">
+        <v>20</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>1.47</v>
+      </c>
+      <c r="BL87">
+        <v>2.58</v>
+      </c>
+      <c r="BM87">
+        <v>1.98</v>
+      </c>
+      <c r="BN87">
+        <v>1.82</v>
+      </c>
+      <c r="BO87">
+        <v>2.17</v>
+      </c>
+      <c r="BP87">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7487111</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45619.6875</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s">
+        <v>77</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>153</v>
+      </c>
+      <c r="P88" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q88">
+        <v>2.5</v>
+      </c>
+      <c r="R88">
+        <v>2.25</v>
+      </c>
+      <c r="S88">
+        <v>4.33</v>
+      </c>
+      <c r="T88">
+        <v>1.36</v>
+      </c>
+      <c r="U88">
+        <v>3</v>
+      </c>
+      <c r="V88">
+        <v>2.63</v>
+      </c>
+      <c r="W88">
+        <v>1.44</v>
+      </c>
+      <c r="X88">
+        <v>7</v>
+      </c>
+      <c r="Y88">
+        <v>1.1</v>
+      </c>
+      <c r="Z88">
+        <v>1.98</v>
+      </c>
+      <c r="AA88">
+        <v>3.6</v>
+      </c>
+      <c r="AB88">
+        <v>3.35</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>9.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.25</v>
+      </c>
+      <c r="AF88">
+        <v>3.75</v>
+      </c>
+      <c r="AG88">
+        <v>1.72</v>
+      </c>
+      <c r="AH88">
+        <v>2.06</v>
+      </c>
+      <c r="AI88">
+        <v>1.67</v>
+      </c>
+      <c r="AJ88">
+        <v>2.1</v>
+      </c>
+      <c r="AK88">
+        <v>1.18</v>
+      </c>
+      <c r="AL88">
+        <v>1.2</v>
+      </c>
+      <c r="AM88">
+        <v>1.95</v>
+      </c>
+      <c r="AN88">
+        <v>2.14</v>
+      </c>
+      <c r="AO88">
+        <v>0.67</v>
+      </c>
+      <c r="AP88">
+        <v>2.25</v>
+      </c>
+      <c r="AQ88">
+        <v>0.57</v>
+      </c>
+      <c r="AR88">
+        <v>1.77</v>
+      </c>
+      <c r="AS88">
+        <v>1.36</v>
+      </c>
+      <c r="AT88">
+        <v>3.13</v>
+      </c>
+      <c r="AU88">
+        <v>7</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>6</v>
+      </c>
+      <c r="AX88">
+        <v>1</v>
+      </c>
+      <c r="AY88">
+        <v>15</v>
+      </c>
+      <c r="AZ88">
+        <v>5</v>
+      </c>
+      <c r="BA88">
+        <v>5</v>
+      </c>
+      <c r="BB88">
+        <v>1</v>
+      </c>
+      <c r="BC88">
+        <v>6</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>1.7</v>
+      </c>
+      <c r="BL88">
+        <v>2.11</v>
+      </c>
+      <c r="BM88">
+        <v>2.1</v>
+      </c>
+      <c r="BN88">
+        <v>1.71</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,10 +472,13 @@
     <t>['19', '76']</t>
   </si>
   <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
-    <t>['80']</t>
+    <t>['40', '90+1', '90+2']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -629,6 +632,9 @@
   </si>
   <si>
     <t>['34']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1255,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1455,7 +1461,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1867,7 +1873,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2073,7 +2079,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2279,7 +2285,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2360,7 +2366,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2485,7 +2491,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2897,7 +2903,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3103,7 +3109,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3181,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ11">
         <v>1.29</v>
@@ -3309,7 +3315,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3721,7 +3727,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3927,7 +3933,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4214,7 +4220,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ16">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR16">
         <v>2.11</v>
@@ -4545,7 +4551,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4751,7 +4757,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5369,7 +5375,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5781,7 +5787,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5987,7 +5993,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6605,7 +6611,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6889,7 +6895,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ29">
         <v>0.71</v>
@@ -7017,7 +7023,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7223,7 +7229,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7716,7 +7722,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ33">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -7841,7 +7847,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8253,7 +8259,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8459,7 +8465,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8540,7 +8546,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ37">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR37">
         <v>1.38</v>
@@ -8665,7 +8671,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8871,7 +8877,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -8949,7 +8955,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9077,7 +9083,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9489,7 +9495,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9695,7 +9701,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10313,7 +10319,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10931,7 +10937,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11137,7 +11143,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11343,7 +11349,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -12039,7 +12045,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ54">
         <v>0.75</v>
@@ -12167,7 +12173,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12248,7 +12254,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ55">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR55">
         <v>1.62</v>
@@ -12373,7 +12379,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12991,7 +12997,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13069,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ59">
         <v>1.14</v>
@@ -13815,7 +13821,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14021,7 +14027,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14227,7 +14233,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14639,7 +14645,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14720,7 +14726,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ67">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.55</v>
@@ -14845,7 +14851,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15051,7 +15057,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15257,7 +15263,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15463,7 +15469,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15875,7 +15881,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -16365,7 +16371,7 @@
         <v>0.17</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ75">
         <v>0.25</v>
@@ -16493,7 +16499,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16780,7 +16786,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
         <v>1.84</v>
@@ -17523,7 +17529,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17729,7 +17735,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -17935,7 +17941,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18141,7 +18147,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18347,7 +18353,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q85">
         <v>2.7</v>
@@ -18520,7 +18526,7 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45619.58333333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F86">
         <v>15</v>
@@ -18553,7 +18559,7 @@
         <v>120</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -18717,7 +18723,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7487113</v>
+        <v>7487111</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18726,157 +18732,157 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45619.58333333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F87">
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H87" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O87" t="s">
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="Q87">
+        <v>2.5</v>
+      </c>
+      <c r="R87">
+        <v>2.25</v>
+      </c>
+      <c r="S87">
+        <v>4.33</v>
+      </c>
+      <c r="T87">
+        <v>1.36</v>
+      </c>
+      <c r="U87">
         <v>3</v>
       </c>
-      <c r="R87">
-        <v>2.3</v>
-      </c>
-      <c r="S87">
-        <v>3.1</v>
-      </c>
-      <c r="T87">
-        <v>1.3</v>
-      </c>
-      <c r="U87">
-        <v>3.4</v>
-      </c>
       <c r="V87">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W87">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X87">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y87">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z87">
-        <v>6.31</v>
+        <v>1.98</v>
       </c>
       <c r="AA87">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="AB87">
-        <v>1.56</v>
+        <v>3.35</v>
       </c>
       <c r="AC87">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD87">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE87">
+        <v>1.25</v>
+      </c>
+      <c r="AF87">
+        <v>3.75</v>
+      </c>
+      <c r="AG87">
+        <v>1.72</v>
+      </c>
+      <c r="AH87">
+        <v>2.06</v>
+      </c>
+      <c r="AI87">
+        <v>1.67</v>
+      </c>
+      <c r="AJ87">
+        <v>2.1</v>
+      </c>
+      <c r="AK87">
         <v>1.18</v>
       </c>
-      <c r="AF87">
-        <v>4.5</v>
-      </c>
-      <c r="AG87">
-        <v>1.55</v>
-      </c>
-      <c r="AH87">
-        <v>2.3</v>
-      </c>
-      <c r="AI87">
-        <v>1.53</v>
-      </c>
-      <c r="AJ87">
-        <v>2.38</v>
-      </c>
-      <c r="AK87">
-        <v>1.47</v>
-      </c>
       <c r="AL87">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM87">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AN87">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="AO87">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="AR87">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="AS87">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="AT87">
-        <v>3.38</v>
+        <v>3.13</v>
       </c>
       <c r="AU87">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV87">
         <v>4</v>
       </c>
       <c r="AW87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX87">
+        <v>1</v>
+      </c>
+      <c r="AY87">
+        <v>15</v>
+      </c>
+      <c r="AZ87">
         <v>5</v>
       </c>
-      <c r="AY87">
-        <v>9</v>
-      </c>
-      <c r="AZ87">
-        <v>15</v>
-      </c>
       <c r="BA87">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BB87">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BC87">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="BD87">
         <v>0</v>
@@ -18900,22 +18906,22 @@
         <v>0</v>
       </c>
       <c r="BK87">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="BL87">
-        <v>2.58</v>
+        <v>2.11</v>
       </c>
       <c r="BM87">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="BN87">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="BO87">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="BP87">
-        <v>1.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18923,7 +18929,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7487111</v>
+        <v>7487113</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18932,196 +18938,402 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45619.6875</v>
+        <v>45618.875</v>
       </c>
       <c r="F88">
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O88" t="s">
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="Q88">
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <v>2.3</v>
+      </c>
+      <c r="S88">
+        <v>3.1</v>
+      </c>
+      <c r="T88">
+        <v>1.3</v>
+      </c>
+      <c r="U88">
+        <v>3.4</v>
+      </c>
+      <c r="V88">
         <v>2.5</v>
       </c>
-      <c r="R88">
-        <v>2.25</v>
-      </c>
-      <c r="S88">
-        <v>4.33</v>
-      </c>
-      <c r="T88">
-        <v>1.36</v>
-      </c>
-      <c r="U88">
-        <v>3</v>
-      </c>
-      <c r="V88">
-        <v>2.63</v>
-      </c>
       <c r="W88">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y88">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z88">
-        <v>1.98</v>
+        <v>6.31</v>
       </c>
       <c r="AA88">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="AB88">
-        <v>3.35</v>
+        <v>1.56</v>
       </c>
       <c r="AC88">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD88">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE88">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AF88">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AG88">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="AH88">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="AI88">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AJ88">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AK88">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AL88">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM88">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AN88">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="AO88">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AP88">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ88">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="AR88">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AS88">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="AT88">
-        <v>3.13</v>
+        <v>3.38</v>
       </c>
       <c r="AU88">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV88">
         <v>4</v>
       </c>
       <c r="AW88">
+        <v>4</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+      <c r="AY88">
+        <v>9</v>
+      </c>
+      <c r="AZ88">
+        <v>15</v>
+      </c>
+      <c r="BA88">
+        <v>8</v>
+      </c>
+      <c r="BB88">
+        <v>12</v>
+      </c>
+      <c r="BC88">
+        <v>20</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>1.47</v>
+      </c>
+      <c r="BL88">
+        <v>2.58</v>
+      </c>
+      <c r="BM88">
+        <v>1.98</v>
+      </c>
+      <c r="BN88">
+        <v>1.82</v>
+      </c>
+      <c r="BO88">
+        <v>2.17</v>
+      </c>
+      <c r="BP88">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7487109</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s">
+        <v>76</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>154</v>
+      </c>
+      <c r="P89" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q89">
+        <v>2.75</v>
+      </c>
+      <c r="R89">
+        <v>2.38</v>
+      </c>
+      <c r="S89">
+        <v>3.4</v>
+      </c>
+      <c r="T89">
+        <v>1.3</v>
+      </c>
+      <c r="U89">
+        <v>3.4</v>
+      </c>
+      <c r="V89">
+        <v>2.38</v>
+      </c>
+      <c r="W89">
+        <v>1.53</v>
+      </c>
+      <c r="X89">
         <v>6</v>
       </c>
-      <c r="AX88">
-        <v>1</v>
-      </c>
-      <c r="AY88">
-        <v>15</v>
-      </c>
-      <c r="AZ88">
+      <c r="Y89">
+        <v>1.13</v>
+      </c>
+      <c r="Z89">
+        <v>1.97</v>
+      </c>
+      <c r="AA89">
+        <v>3.49</v>
+      </c>
+      <c r="AB89">
+        <v>2.99</v>
+      </c>
+      <c r="AC89">
+        <v>1.04</v>
+      </c>
+      <c r="AD89">
+        <v>10</v>
+      </c>
+      <c r="AE89">
+        <v>1.18</v>
+      </c>
+      <c r="AF89">
+        <v>4.5</v>
+      </c>
+      <c r="AG89">
+        <v>1.58</v>
+      </c>
+      <c r="AH89">
+        <v>2.28</v>
+      </c>
+      <c r="AI89">
+        <v>1.53</v>
+      </c>
+      <c r="AJ89">
+        <v>2.38</v>
+      </c>
+      <c r="AK89">
+        <v>1.36</v>
+      </c>
+      <c r="AL89">
+        <v>1.22</v>
+      </c>
+      <c r="AM89">
+        <v>1.7</v>
+      </c>
+      <c r="AN89">
+        <v>2</v>
+      </c>
+      <c r="AO89">
+        <v>1.57</v>
+      </c>
+      <c r="AP89">
+        <v>2.14</v>
+      </c>
+      <c r="AQ89">
+        <v>1.38</v>
+      </c>
+      <c r="AR89">
+        <v>1.8</v>
+      </c>
+      <c r="AS89">
+        <v>1.58</v>
+      </c>
+      <c r="AT89">
+        <v>3.38</v>
+      </c>
+      <c r="AU89">
+        <v>8</v>
+      </c>
+      <c r="AV89">
         <v>5</v>
       </c>
-      <c r="BA88">
+      <c r="AW89">
+        <v>6</v>
+      </c>
+      <c r="AX89">
         <v>5</v>
       </c>
-      <c r="BB88">
-        <v>1</v>
-      </c>
-      <c r="BC88">
-        <v>6</v>
-      </c>
-      <c r="BD88">
-        <v>0</v>
-      </c>
-      <c r="BE88">
-        <v>0</v>
-      </c>
-      <c r="BF88">
-        <v>0</v>
-      </c>
-      <c r="BG88">
-        <v>0</v>
-      </c>
-      <c r="BH88">
-        <v>0</v>
-      </c>
-      <c r="BI88">
-        <v>0</v>
-      </c>
-      <c r="BJ88">
-        <v>0</v>
-      </c>
-      <c r="BK88">
-        <v>1.7</v>
-      </c>
-      <c r="BL88">
-        <v>2.11</v>
-      </c>
-      <c r="BM88">
-        <v>2.1</v>
-      </c>
-      <c r="BN88">
-        <v>1.71</v>
-      </c>
-      <c r="BO88">
-        <v>0</v>
-      </c>
-      <c r="BP88">
-        <v>0</v>
+      <c r="AY89">
+        <v>17</v>
+      </c>
+      <c r="AZ89">
+        <v>13</v>
+      </c>
+      <c r="BA89">
+        <v>4</v>
+      </c>
+      <c r="BB89">
+        <v>4</v>
+      </c>
+      <c r="BC89">
+        <v>8</v>
+      </c>
+      <c r="BD89">
+        <v>1.62</v>
+      </c>
+      <c r="BE89">
+        <v>7.4</v>
+      </c>
+      <c r="BF89">
+        <v>2.62</v>
+      </c>
+      <c r="BG89">
+        <v>1.11</v>
+      </c>
+      <c r="BH89">
+        <v>4.6</v>
+      </c>
+      <c r="BI89">
+        <v>1.31</v>
+      </c>
+      <c r="BJ89">
+        <v>3.15</v>
+      </c>
+      <c r="BK89">
+        <v>1.54</v>
+      </c>
+      <c r="BL89">
+        <v>2.41</v>
+      </c>
+      <c r="BM89">
+        <v>1.87</v>
+      </c>
+      <c r="BN89">
+        <v>1.92</v>
+      </c>
+      <c r="BO89">
+        <v>2.31</v>
+      </c>
+      <c r="BP89">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,12 +472,12 @@
     <t>['19', '76']</t>
   </si>
   <si>
-    <t>['80']</t>
-  </si>
-  <si>
     <t>['79']</t>
   </si>
   <si>
+    <t>['22', '26', '30', '50']</t>
+  </si>
+  <si>
     <t>['40', '90+1', '90+2']</t>
   </si>
   <si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t>['34']</t>
+  </si>
+  <si>
+    <t>['9']</t>
   </si>
   <si>
     <t>['55']</t>
@@ -996,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ2">
         <v>0.43</v>
@@ -1542,7 +1545,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1954,7 +1957,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ5">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2157,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ6">
         <v>1.63</v>
@@ -3396,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -3599,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13">
         <v>0.75</v>
@@ -4217,7 +4220,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ16">
         <v>1.38</v>
@@ -4426,7 +4429,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4629,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ18">
         <v>1.14</v>
@@ -4838,7 +4841,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5044,7 +5047,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>1.02</v>
@@ -5659,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ23">
         <v>0.43</v>
@@ -5865,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ24">
         <v>1.29</v>
@@ -6692,7 +6695,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ28">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -6898,7 +6901,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -7925,7 +7928,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ34">
         <v>1.14</v>
@@ -8337,7 +8340,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ36">
         <v>1.29</v>
@@ -8749,7 +8752,7 @@
         <v>1.67</v>
       </c>
       <c r="AP38">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ38">
         <v>1.29</v>
@@ -8958,7 +8961,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>2.16</v>
@@ -9161,10 +9164,10 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ40">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR40">
         <v>1.54</v>
@@ -9779,10 +9782,10 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10606,7 +10609,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
         <v>1.94</v>
@@ -11015,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ49">
         <v>0.25</v>
@@ -11430,7 +11433,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ51">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
         <v>1.38</v>
@@ -12251,7 +12254,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ55">
         <v>1.38</v>
@@ -12460,7 +12463,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12872,7 +12875,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -13281,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ60">
         <v>0.25</v>
@@ -13693,7 +13696,7 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ62">
         <v>0.43</v>
@@ -14108,7 +14111,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14517,7 +14520,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ66">
         <v>0.75</v>
@@ -15138,7 +15141,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR69">
         <v>1.54</v>
@@ -15341,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ70">
         <v>0.25</v>
@@ -16577,10 +16580,10 @@
         <v>0.6</v>
       </c>
       <c r="AP76">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ76">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -16783,7 +16786,7 @@
         <v>1.83</v>
       </c>
       <c r="AP77">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77">
         <v>1.38</v>
@@ -16989,10 +16992,10 @@
         <v>0.83</v>
       </c>
       <c r="AP78">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ78">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
         <v>1.74</v>
@@ -17816,7 +17819,7 @@
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR82">
         <v>1.87</v>
@@ -18526,10 +18529,10 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45618.875</v>
+        <v>45619.58333333334</v>
       </c>
       <c r="F86">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
         <v>78</v>
@@ -18652,22 +18655,22 @@
         <v>2.62</v>
       </c>
       <c r="AU86">
+        <v>6</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
         <v>7</v>
       </c>
-      <c r="AV86">
+      <c r="AX86">
+        <v>2</v>
+      </c>
+      <c r="AY86">
+        <v>13</v>
+      </c>
+      <c r="AZ86">
         <v>6</v>
-      </c>
-      <c r="AW86">
-        <v>10</v>
-      </c>
-      <c r="AX86">
-        <v>3</v>
-      </c>
-      <c r="AY86">
-        <v>21</v>
-      </c>
-      <c r="AZ86">
-        <v>12</v>
       </c>
       <c r="BA86">
         <v>10</v>
@@ -18723,7 +18726,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7487111</v>
+        <v>7487113</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18732,196 +18735,196 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45618.875</v>
+        <v>45619.58333333334</v>
       </c>
       <c r="F87">
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O87" t="s">
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="Q87">
+        <v>3</v>
+      </c>
+      <c r="R87">
+        <v>2.3</v>
+      </c>
+      <c r="S87">
+        <v>3.1</v>
+      </c>
+      <c r="T87">
+        <v>1.3</v>
+      </c>
+      <c r="U87">
+        <v>3.4</v>
+      </c>
+      <c r="V87">
         <v>2.5</v>
       </c>
-      <c r="R87">
-        <v>2.25</v>
-      </c>
-      <c r="S87">
-        <v>4.33</v>
-      </c>
-      <c r="T87">
-        <v>1.36</v>
-      </c>
-      <c r="U87">
+      <c r="W87">
+        <v>1.5</v>
+      </c>
+      <c r="X87">
+        <v>6</v>
+      </c>
+      <c r="Y87">
+        <v>1.13</v>
+      </c>
+      <c r="Z87">
+        <v>6.31</v>
+      </c>
+      <c r="AA87">
+        <v>3.21</v>
+      </c>
+      <c r="AB87">
+        <v>1.56</v>
+      </c>
+      <c r="AC87">
+        <v>1.03</v>
+      </c>
+      <c r="AD87">
+        <v>11</v>
+      </c>
+      <c r="AE87">
+        <v>1.18</v>
+      </c>
+      <c r="AF87">
+        <v>4.5</v>
+      </c>
+      <c r="AG87">
+        <v>1.55</v>
+      </c>
+      <c r="AH87">
+        <v>2.3</v>
+      </c>
+      <c r="AI87">
+        <v>1.53</v>
+      </c>
+      <c r="AJ87">
+        <v>2.38</v>
+      </c>
+      <c r="AK87">
+        <v>1.47</v>
+      </c>
+      <c r="AL87">
+        <v>1.22</v>
+      </c>
+      <c r="AM87">
+        <v>1.55</v>
+      </c>
+      <c r="AN87">
+        <v>1.86</v>
+      </c>
+      <c r="AO87">
+        <v>0.71</v>
+      </c>
+      <c r="AP87">
+        <v>1.75</v>
+      </c>
+      <c r="AQ87">
+        <v>0.75</v>
+      </c>
+      <c r="AR87">
+        <v>1.7</v>
+      </c>
+      <c r="AS87">
+        <v>1.68</v>
+      </c>
+      <c r="AT87">
+        <v>3.38</v>
+      </c>
+      <c r="AU87">
+        <v>4</v>
+      </c>
+      <c r="AV87">
         <v>3</v>
       </c>
-      <c r="V87">
-        <v>2.63</v>
-      </c>
-      <c r="W87">
-        <v>1.44</v>
-      </c>
-      <c r="X87">
+      <c r="AW87">
+        <v>3</v>
+      </c>
+      <c r="AX87">
+        <v>3</v>
+      </c>
+      <c r="AY87">
         <v>7</v>
       </c>
-      <c r="Y87">
-        <v>1.1</v>
-      </c>
-      <c r="Z87">
+      <c r="AZ87">
+        <v>6</v>
+      </c>
+      <c r="BA87">
+        <v>8</v>
+      </c>
+      <c r="BB87">
+        <v>12</v>
+      </c>
+      <c r="BC87">
+        <v>20</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>1.47</v>
+      </c>
+      <c r="BL87">
+        <v>2.58</v>
+      </c>
+      <c r="BM87">
         <v>1.98</v>
       </c>
-      <c r="AA87">
-        <v>3.6</v>
-      </c>
-      <c r="AB87">
-        <v>3.35</v>
-      </c>
-      <c r="AC87">
-        <v>1.05</v>
-      </c>
-      <c r="AD87">
-        <v>9.5</v>
-      </c>
-      <c r="AE87">
-        <v>1.25</v>
-      </c>
-      <c r="AF87">
-        <v>3.75</v>
-      </c>
-      <c r="AG87">
-        <v>1.72</v>
-      </c>
-      <c r="AH87">
-        <v>2.06</v>
-      </c>
-      <c r="AI87">
-        <v>1.67</v>
-      </c>
-      <c r="AJ87">
-        <v>2.1</v>
-      </c>
-      <c r="AK87">
-        <v>1.18</v>
-      </c>
-      <c r="AL87">
-        <v>1.2</v>
-      </c>
-      <c r="AM87">
-        <v>1.95</v>
-      </c>
-      <c r="AN87">
-        <v>2.14</v>
-      </c>
-      <c r="AO87">
-        <v>0.67</v>
-      </c>
-      <c r="AP87">
-        <v>2.25</v>
-      </c>
-      <c r="AQ87">
-        <v>0.57</v>
-      </c>
-      <c r="AR87">
-        <v>1.77</v>
-      </c>
-      <c r="AS87">
-        <v>1.36</v>
-      </c>
-      <c r="AT87">
-        <v>3.13</v>
-      </c>
-      <c r="AU87">
-        <v>7</v>
-      </c>
-      <c r="AV87">
-        <v>4</v>
-      </c>
-      <c r="AW87">
-        <v>6</v>
-      </c>
-      <c r="AX87">
-        <v>1</v>
-      </c>
-      <c r="AY87">
-        <v>15</v>
-      </c>
-      <c r="AZ87">
-        <v>5</v>
-      </c>
-      <c r="BA87">
-        <v>5</v>
-      </c>
-      <c r="BB87">
-        <v>1</v>
-      </c>
-      <c r="BC87">
-        <v>6</v>
-      </c>
-      <c r="BD87">
-        <v>0</v>
-      </c>
-      <c r="BE87">
-        <v>0</v>
-      </c>
-      <c r="BF87">
-        <v>0</v>
-      </c>
-      <c r="BG87">
-        <v>0</v>
-      </c>
-      <c r="BH87">
-        <v>0</v>
-      </c>
-      <c r="BI87">
-        <v>0</v>
-      </c>
-      <c r="BJ87">
-        <v>0</v>
-      </c>
-      <c r="BK87">
-        <v>1.7</v>
-      </c>
-      <c r="BL87">
-        <v>2.11</v>
-      </c>
-      <c r="BM87">
-        <v>2.1</v>
-      </c>
       <c r="BN87">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="BO87">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="BP87">
-        <v>0</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18929,7 +18932,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7487113</v>
+        <v>7487112</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18938,196 +18941,196 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45618.875</v>
+        <v>45619.875</v>
       </c>
       <c r="F88">
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H88" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M88">
         <v>1</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O88" t="s">
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R88">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S88">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T88">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U88">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W88">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X88">
+        <v>8</v>
+      </c>
+      <c r="Y88">
+        <v>1.08</v>
+      </c>
+      <c r="Z88">
+        <v>2.04</v>
+      </c>
+      <c r="AA88">
+        <v>3.45</v>
+      </c>
+      <c r="AB88">
+        <v>3.35</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>9.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.28</v>
+      </c>
+      <c r="AF88">
+        <v>3.5</v>
+      </c>
+      <c r="AG88">
+        <v>1.92</v>
+      </c>
+      <c r="AH88">
+        <v>1.94</v>
+      </c>
+      <c r="AI88">
+        <v>1.73</v>
+      </c>
+      <c r="AJ88">
+        <v>2</v>
+      </c>
+      <c r="AK88">
+        <v>1.28</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.75</v>
+      </c>
+      <c r="AN88">
+        <v>2.29</v>
+      </c>
+      <c r="AO88">
+        <v>2</v>
+      </c>
+      <c r="AP88">
+        <v>2.38</v>
+      </c>
+      <c r="AQ88">
+        <v>1.75</v>
+      </c>
+      <c r="AR88">
+        <v>1.82</v>
+      </c>
+      <c r="AS88">
+        <v>1.57</v>
+      </c>
+      <c r="AT88">
+        <v>3.39</v>
+      </c>
+      <c r="AU88">
+        <v>9</v>
+      </c>
+      <c r="AV88">
+        <v>8</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>15</v>
+      </c>
+      <c r="AZ88">
+        <v>12</v>
+      </c>
+      <c r="BA88">
+        <v>9</v>
+      </c>
+      <c r="BB88">
+        <v>1</v>
+      </c>
+      <c r="BC88">
+        <v>10</v>
+      </c>
+      <c r="BD88">
+        <v>1.75</v>
+      </c>
+      <c r="BE88">
         <v>6</v>
       </c>
-      <c r="Y88">
-        <v>1.13</v>
-      </c>
-      <c r="Z88">
-        <v>6.31</v>
-      </c>
-      <c r="AA88">
-        <v>3.21</v>
-      </c>
-      <c r="AB88">
-        <v>1.56</v>
-      </c>
-      <c r="AC88">
-        <v>1.03</v>
-      </c>
-      <c r="AD88">
-        <v>11</v>
-      </c>
-      <c r="AE88">
-        <v>1.18</v>
-      </c>
-      <c r="AF88">
-        <v>4.5</v>
-      </c>
-      <c r="AG88">
-        <v>1.55</v>
-      </c>
-      <c r="AH88">
-        <v>2.3</v>
-      </c>
-      <c r="AI88">
-        <v>1.53</v>
-      </c>
-      <c r="AJ88">
-        <v>2.38</v>
-      </c>
-      <c r="AK88">
+      <c r="BF88">
+        <v>2.58</v>
+      </c>
+      <c r="BG88">
+        <v>1.27</v>
+      </c>
+      <c r="BH88">
+        <v>3.38</v>
+      </c>
+      <c r="BI88">
         <v>1.47</v>
       </c>
-      <c r="AL88">
-        <v>1.22</v>
-      </c>
-      <c r="AM88">
-        <v>1.55</v>
-      </c>
-      <c r="AN88">
-        <v>1.86</v>
-      </c>
-      <c r="AO88">
-        <v>0.71</v>
-      </c>
-      <c r="AP88">
-        <v>1.75</v>
-      </c>
-      <c r="AQ88">
-        <v>0.75</v>
-      </c>
-      <c r="AR88">
-        <v>1.7</v>
-      </c>
-      <c r="AS88">
-        <v>1.68</v>
-      </c>
-      <c r="AT88">
-        <v>3.38</v>
-      </c>
-      <c r="AU88">
-        <v>4</v>
-      </c>
-      <c r="AV88">
-        <v>4</v>
-      </c>
-      <c r="AW88">
-        <v>4</v>
-      </c>
-      <c r="AX88">
-        <v>5</v>
-      </c>
-      <c r="AY88">
-        <v>9</v>
-      </c>
-      <c r="AZ88">
-        <v>15</v>
-      </c>
-      <c r="BA88">
-        <v>8</v>
-      </c>
-      <c r="BB88">
-        <v>12</v>
-      </c>
-      <c r="BC88">
-        <v>20</v>
-      </c>
-      <c r="BD88">
-        <v>0</v>
-      </c>
-      <c r="BE88">
-        <v>0</v>
-      </c>
-      <c r="BF88">
-        <v>0</v>
-      </c>
-      <c r="BG88">
-        <v>0</v>
-      </c>
-      <c r="BH88">
-        <v>0</v>
-      </c>
-      <c r="BI88">
-        <v>0</v>
-      </c>
       <c r="BJ88">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BK88">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="BL88">
-        <v>2.58</v>
+        <v>1.82</v>
       </c>
       <c r="BM88">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="BN88">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="BO88">
-        <v>2.17</v>
+        <v>3.05</v>
       </c>
       <c r="BP88">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19135,7 +19138,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7487109</v>
+        <v>7487114</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19147,192 +19150,398 @@
         <v>45619.875</v>
       </c>
       <c r="F89">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89" t="s">
+        <v>83</v>
+      </c>
+      <c r="P89" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q89">
+        <v>1.95</v>
+      </c>
+      <c r="R89">
+        <v>2.6</v>
+      </c>
+      <c r="S89">
+        <v>6</v>
+      </c>
+      <c r="T89">
+        <v>1.29</v>
+      </c>
+      <c r="U89">
+        <v>3.5</v>
+      </c>
+      <c r="V89">
+        <v>2.25</v>
+      </c>
+      <c r="W89">
+        <v>1.57</v>
+      </c>
+      <c r="X89">
+        <v>5.5</v>
+      </c>
+      <c r="Y89">
+        <v>1.14</v>
+      </c>
+      <c r="Z89">
+        <v>1.44</v>
+      </c>
+      <c r="AA89">
+        <v>4.33</v>
+      </c>
+      <c r="AB89">
+        <v>5.6</v>
+      </c>
+      <c r="AC89">
+        <v>1.03</v>
+      </c>
+      <c r="AD89">
+        <v>11</v>
+      </c>
+      <c r="AE89">
+        <v>1.17</v>
+      </c>
+      <c r="AF89">
+        <v>5</v>
+      </c>
+      <c r="AG89">
+        <v>1.5</v>
+      </c>
+      <c r="AH89">
+        <v>2.48</v>
+      </c>
+      <c r="AI89">
+        <v>1.67</v>
+      </c>
+      <c r="AJ89">
+        <v>2.1</v>
+      </c>
+      <c r="AK89">
+        <v>1.08</v>
+      </c>
+      <c r="AL89">
+        <v>1.14</v>
+      </c>
+      <c r="AM89">
+        <v>2.7</v>
+      </c>
+      <c r="AN89">
+        <v>1.71</v>
+      </c>
+      <c r="AO89">
+        <v>0.71</v>
+      </c>
+      <c r="AP89">
+        <v>1.63</v>
+      </c>
+      <c r="AQ89">
+        <v>0.75</v>
+      </c>
+      <c r="AR89">
+        <v>1.67</v>
+      </c>
+      <c r="AS89">
+        <v>1.18</v>
+      </c>
+      <c r="AT89">
+        <v>2.85</v>
+      </c>
+      <c r="AU89">
         <v>4</v>
       </c>
-      <c r="O89" t="s">
-        <v>154</v>
-      </c>
-      <c r="P89" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q89">
-        <v>2.75</v>
-      </c>
-      <c r="R89">
-        <v>2.38</v>
-      </c>
-      <c r="S89">
-        <v>3.4</v>
-      </c>
-      <c r="T89">
-        <v>1.3</v>
-      </c>
-      <c r="U89">
-        <v>3.4</v>
-      </c>
-      <c r="V89">
-        <v>2.38</v>
-      </c>
-      <c r="W89">
-        <v>1.53</v>
-      </c>
-      <c r="X89">
+      <c r="AV89">
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
         <v>6</v>
-      </c>
-      <c r="Y89">
-        <v>1.13</v>
-      </c>
-      <c r="Z89">
-        <v>1.97</v>
-      </c>
-      <c r="AA89">
-        <v>3.49</v>
-      </c>
-      <c r="AB89">
-        <v>2.99</v>
-      </c>
-      <c r="AC89">
-        <v>1.04</v>
-      </c>
-      <c r="AD89">
-        <v>10</v>
-      </c>
-      <c r="AE89">
-        <v>1.18</v>
-      </c>
-      <c r="AF89">
-        <v>4.5</v>
-      </c>
-      <c r="AG89">
-        <v>1.58</v>
-      </c>
-      <c r="AH89">
-        <v>2.28</v>
-      </c>
-      <c r="AI89">
-        <v>1.53</v>
-      </c>
-      <c r="AJ89">
-        <v>2.38</v>
-      </c>
-      <c r="AK89">
-        <v>1.36</v>
-      </c>
-      <c r="AL89">
-        <v>1.22</v>
-      </c>
-      <c r="AM89">
-        <v>1.7</v>
-      </c>
-      <c r="AN89">
-        <v>2</v>
-      </c>
-      <c r="AO89">
-        <v>1.57</v>
-      </c>
-      <c r="AP89">
-        <v>2.14</v>
-      </c>
-      <c r="AQ89">
-        <v>1.38</v>
-      </c>
-      <c r="AR89">
-        <v>1.8</v>
-      </c>
-      <c r="AS89">
-        <v>1.58</v>
-      </c>
-      <c r="AT89">
-        <v>3.38</v>
-      </c>
-      <c r="AU89">
-        <v>8</v>
-      </c>
-      <c r="AV89">
-        <v>5</v>
-      </c>
-      <c r="AW89">
-        <v>6</v>
-      </c>
-      <c r="AX89">
-        <v>5</v>
       </c>
       <c r="AY89">
         <v>17</v>
       </c>
       <c r="AZ89">
+        <v>8</v>
+      </c>
+      <c r="BA89">
+        <v>9</v>
+      </c>
+      <c r="BB89">
+        <v>1</v>
+      </c>
+      <c r="BC89">
+        <v>10</v>
+      </c>
+      <c r="BD89">
+        <v>1.04</v>
+      </c>
+      <c r="BE89">
+        <v>14</v>
+      </c>
+      <c r="BF89">
+        <v>10</v>
+      </c>
+      <c r="BG89">
+        <v>1.13</v>
+      </c>
+      <c r="BH89">
+        <v>5.1</v>
+      </c>
+      <c r="BI89">
+        <v>1.26</v>
+      </c>
+      <c r="BJ89">
+        <v>3.5</v>
+      </c>
+      <c r="BK89">
+        <v>1.46</v>
+      </c>
+      <c r="BL89">
+        <v>2.5</v>
+      </c>
+      <c r="BM89">
+        <v>1.76</v>
+      </c>
+      <c r="BN89">
+        <v>2.02</v>
+      </c>
+      <c r="BO89">
+        <v>2.21</v>
+      </c>
+      <c r="BP89">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7487109</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45620.52083333334</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>154</v>
+      </c>
+      <c r="P90" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q90">
+        <v>2.75</v>
+      </c>
+      <c r="R90">
+        <v>2.38</v>
+      </c>
+      <c r="S90">
+        <v>3.4</v>
+      </c>
+      <c r="T90">
+        <v>1.3</v>
+      </c>
+      <c r="U90">
+        <v>3.4</v>
+      </c>
+      <c r="V90">
+        <v>2.38</v>
+      </c>
+      <c r="W90">
+        <v>1.53</v>
+      </c>
+      <c r="X90">
+        <v>6</v>
+      </c>
+      <c r="Y90">
+        <v>1.13</v>
+      </c>
+      <c r="Z90">
+        <v>1.97</v>
+      </c>
+      <c r="AA90">
+        <v>3.49</v>
+      </c>
+      <c r="AB90">
+        <v>2.99</v>
+      </c>
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
+        <v>10</v>
+      </c>
+      <c r="AE90">
+        <v>1.18</v>
+      </c>
+      <c r="AF90">
+        <v>4.5</v>
+      </c>
+      <c r="AG90">
+        <v>1.58</v>
+      </c>
+      <c r="AH90">
+        <v>2.28</v>
+      </c>
+      <c r="AI90">
+        <v>1.53</v>
+      </c>
+      <c r="AJ90">
+        <v>2.38</v>
+      </c>
+      <c r="AK90">
+        <v>1.36</v>
+      </c>
+      <c r="AL90">
+        <v>1.22</v>
+      </c>
+      <c r="AM90">
+        <v>1.7</v>
+      </c>
+      <c r="AN90">
+        <v>2</v>
+      </c>
+      <c r="AO90">
+        <v>1.57</v>
+      </c>
+      <c r="AP90">
+        <v>2.14</v>
+      </c>
+      <c r="AQ90">
+        <v>1.38</v>
+      </c>
+      <c r="AR90">
+        <v>1.8</v>
+      </c>
+      <c r="AS90">
+        <v>1.58</v>
+      </c>
+      <c r="AT90">
+        <v>3.38</v>
+      </c>
+      <c r="AU90">
+        <v>8</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>6</v>
+      </c>
+      <c r="AX90">
+        <v>5</v>
+      </c>
+      <c r="AY90">
+        <v>17</v>
+      </c>
+      <c r="AZ90">
         <v>13</v>
       </c>
-      <c r="BA89">
+      <c r="BA90">
         <v>4</v>
       </c>
-      <c r="BB89">
+      <c r="BB90">
         <v>4</v>
       </c>
-      <c r="BC89">
+      <c r="BC90">
         <v>8</v>
       </c>
-      <c r="BD89">
+      <c r="BD90">
         <v>1.62</v>
       </c>
-      <c r="BE89">
+      <c r="BE90">
         <v>7.4</v>
       </c>
-      <c r="BF89">
+      <c r="BF90">
         <v>2.62</v>
       </c>
-      <c r="BG89">
+      <c r="BG90">
         <v>1.11</v>
       </c>
-      <c r="BH89">
+      <c r="BH90">
         <v>4.6</v>
       </c>
-      <c r="BI89">
+      <c r="BI90">
         <v>1.31</v>
       </c>
-      <c r="BJ89">
+      <c r="BJ90">
         <v>3.15</v>
       </c>
-      <c r="BK89">
+      <c r="BK90">
         <v>1.54</v>
       </c>
-      <c r="BL89">
+      <c r="BL90">
         <v>2.41</v>
       </c>
-      <c r="BM89">
+      <c r="BM90">
         <v>1.87</v>
       </c>
-      <c r="BN89">
+      <c r="BN90">
         <v>1.92</v>
       </c>
-      <c r="BO89">
+      <c r="BO90">
         <v>2.31</v>
       </c>
-      <c r="BP89">
+      <c r="BP90">
         <v>1.58</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
   <si>
     <t>['22', '26', '30', '50']</t>
@@ -999,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1261,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1464,7 +1467,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1876,7 +1879,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1957,7 +1960,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2082,7 +2085,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2160,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>1.63</v>
@@ -2288,7 +2291,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2494,7 +2497,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2906,7 +2909,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3112,7 +3115,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3318,7 +3321,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3730,7 +3733,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3936,7 +3939,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4429,7 +4432,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4554,7 +4557,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4632,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
         <v>1.14</v>
@@ -4760,7 +4763,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5378,7 +5381,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5790,7 +5793,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5996,7 +5999,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6614,7 +6617,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6695,7 +6698,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -7026,7 +7029,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7232,7 +7235,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7850,7 +7853,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8262,7 +8265,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8340,7 +8343,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ36">
         <v>1.29</v>
@@ -8468,7 +8471,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8674,7 +8677,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8880,7 +8883,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9086,7 +9089,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9164,7 +9167,7 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40">
         <v>0.75</v>
@@ -9498,7 +9501,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9704,7 +9707,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10322,7 +10325,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10609,7 +10612,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR47">
         <v>1.94</v>
@@ -10940,7 +10943,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11146,7 +11149,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11352,7 +11355,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -12176,7 +12179,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12382,7 +12385,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12875,7 +12878,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -13000,7 +13003,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13284,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ60">
         <v>0.25</v>
@@ -13696,7 +13699,7 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ62">
         <v>0.43</v>
@@ -13824,7 +13827,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14030,7 +14033,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14236,7 +14239,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14648,7 +14651,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14854,7 +14857,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15060,7 +15063,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15266,7 +15269,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15472,7 +15475,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15884,7 +15887,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -16502,7 +16505,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16583,7 +16586,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ76">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -16786,7 +16789,7 @@
         <v>1.83</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
         <v>1.38</v>
@@ -17532,7 +17535,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17738,7 +17741,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -17944,7 +17947,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18150,7 +18153,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18356,7 +18359,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>2.7</v>
@@ -18562,7 +18565,7 @@
         <v>120</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -18768,7 +18771,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18932,7 +18935,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7487112</v>
+        <v>7487111</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18941,73 +18944,73 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45619.875</v>
+        <v>45619.6875</v>
       </c>
       <c r="F88">
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H88" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O88" t="s">
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="Q88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R88">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S88">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T88">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U88">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V88">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W88">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y88">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z88">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AA88">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AB88">
         <v>3.35</v>
@@ -19019,118 +19022,118 @@
         <v>9.5</v>
       </c>
       <c r="AE88">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF88">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AG88">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="AH88">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="AI88">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AJ88">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK88">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AL88">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM88">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AN88">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="AO88">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AP88">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AQ88">
-        <v>1.75</v>
+        <v>0.57</v>
       </c>
       <c r="AR88">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AS88">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="AT88">
-        <v>3.39</v>
+        <v>3.13</v>
       </c>
       <c r="AU88">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV88">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW88">
+        <v>-1</v>
+      </c>
+      <c r="AX88">
+        <v>-1</v>
+      </c>
+      <c r="AY88">
+        <v>-1</v>
+      </c>
+      <c r="AZ88">
+        <v>-1</v>
+      </c>
+      <c r="BA88">
         <v>5</v>
       </c>
-      <c r="AX88">
-        <v>2</v>
-      </c>
-      <c r="AY88">
-        <v>15</v>
-      </c>
-      <c r="AZ88">
-        <v>12</v>
-      </c>
-      <c r="BA88">
-        <v>9</v>
-      </c>
       <c r="BB88">
         <v>1</v>
       </c>
       <c r="BC88">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BD88">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BE88">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BF88">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="BG88">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="BH88">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="BI88">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="BJ88">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BK88">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="BL88">
-        <v>1.82</v>
+        <v>2.11</v>
       </c>
       <c r="BM88">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="BN88">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="BO88">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="BP88">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19138,7 +19141,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7487114</v>
+        <v>7487112</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19147,148 +19150,148 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45619.875</v>
+        <v>45620.42708333334</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H89" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O89" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Q89">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="R89">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="S89">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T89">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="U89">
+        <v>2.75</v>
+      </c>
+      <c r="V89">
+        <v>2.75</v>
+      </c>
+      <c r="W89">
+        <v>1.4</v>
+      </c>
+      <c r="X89">
+        <v>8</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>2.04</v>
+      </c>
+      <c r="AA89">
+        <v>3.45</v>
+      </c>
+      <c r="AB89">
+        <v>3.35</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>9.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.28</v>
+      </c>
+      <c r="AF89">
         <v>3.5</v>
       </c>
-      <c r="V89">
-        <v>2.25</v>
-      </c>
-      <c r="W89">
+      <c r="AG89">
+        <v>1.92</v>
+      </c>
+      <c r="AH89">
+        <v>1.94</v>
+      </c>
+      <c r="AI89">
+        <v>1.73</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>1.28</v>
+      </c>
+      <c r="AL89">
+        <v>1.25</v>
+      </c>
+      <c r="AM89">
+        <v>1.75</v>
+      </c>
+      <c r="AN89">
+        <v>2.29</v>
+      </c>
+      <c r="AO89">
+        <v>2</v>
+      </c>
+      <c r="AP89">
+        <v>2.38</v>
+      </c>
+      <c r="AQ89">
+        <v>1.75</v>
+      </c>
+      <c r="AR89">
+        <v>1.82</v>
+      </c>
+      <c r="AS89">
         <v>1.57</v>
       </c>
-      <c r="X89">
-        <v>5.5</v>
-      </c>
-      <c r="Y89">
-        <v>1.14</v>
-      </c>
-      <c r="Z89">
-        <v>1.44</v>
-      </c>
-      <c r="AA89">
-        <v>4.33</v>
-      </c>
-      <c r="AB89">
-        <v>5.6</v>
-      </c>
-      <c r="AC89">
-        <v>1.03</v>
-      </c>
-      <c r="AD89">
+      <c r="AT89">
+        <v>3.39</v>
+      </c>
+      <c r="AU89">
+        <v>12</v>
+      </c>
+      <c r="AV89">
+        <v>9</v>
+      </c>
+      <c r="AW89">
+        <v>4</v>
+      </c>
+      <c r="AX89">
+        <v>2</v>
+      </c>
+      <c r="AY89">
+        <v>16</v>
+      </c>
+      <c r="AZ89">
         <v>11</v>
-      </c>
-      <c r="AE89">
-        <v>1.17</v>
-      </c>
-      <c r="AF89">
-        <v>5</v>
-      </c>
-      <c r="AG89">
-        <v>1.5</v>
-      </c>
-      <c r="AH89">
-        <v>2.48</v>
-      </c>
-      <c r="AI89">
-        <v>1.67</v>
-      </c>
-      <c r="AJ89">
-        <v>2.1</v>
-      </c>
-      <c r="AK89">
-        <v>1.08</v>
-      </c>
-      <c r="AL89">
-        <v>1.14</v>
-      </c>
-      <c r="AM89">
-        <v>2.7</v>
-      </c>
-      <c r="AN89">
-        <v>1.71</v>
-      </c>
-      <c r="AO89">
-        <v>0.71</v>
-      </c>
-      <c r="AP89">
-        <v>1.63</v>
-      </c>
-      <c r="AQ89">
-        <v>0.75</v>
-      </c>
-      <c r="AR89">
-        <v>1.67</v>
-      </c>
-      <c r="AS89">
-        <v>1.18</v>
-      </c>
-      <c r="AT89">
-        <v>2.85</v>
-      </c>
-      <c r="AU89">
-        <v>4</v>
-      </c>
-      <c r="AV89">
-        <v>0</v>
-      </c>
-      <c r="AW89">
-        <v>7</v>
-      </c>
-      <c r="AX89">
-        <v>6</v>
-      </c>
-      <c r="AY89">
-        <v>17</v>
-      </c>
-      <c r="AZ89">
-        <v>8</v>
       </c>
       <c r="BA89">
         <v>9</v>
@@ -19300,43 +19303,43 @@
         <v>10</v>
       </c>
       <c r="BD89">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="BE89">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BF89">
-        <v>10</v>
+        <v>2.58</v>
       </c>
       <c r="BG89">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="BH89">
-        <v>5.1</v>
+        <v>3.38</v>
       </c>
       <c r="BI89">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="BJ89">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="BK89">
-        <v>1.46</v>
+        <v>1.98</v>
       </c>
       <c r="BL89">
-        <v>2.5</v>
+        <v>1.82</v>
       </c>
       <c r="BM89">
-        <v>1.76</v>
+        <v>2.24</v>
       </c>
       <c r="BN89">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="BO89">
-        <v>2.21</v>
+        <v>3.05</v>
       </c>
       <c r="BP89">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19383,10 +19386,10 @@
         <v>4</v>
       </c>
       <c r="O90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19543,6 +19546,212 @@
       </c>
       <c r="BP90">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7487114</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45620.52083333334</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>80</v>
+      </c>
+      <c r="H91" t="s">
+        <v>71</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91" t="s">
+        <v>83</v>
+      </c>
+      <c r="P91" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q91">
+        <v>1.95</v>
+      </c>
+      <c r="R91">
+        <v>2.6</v>
+      </c>
+      <c r="S91">
+        <v>6</v>
+      </c>
+      <c r="T91">
+        <v>1.29</v>
+      </c>
+      <c r="U91">
+        <v>3.5</v>
+      </c>
+      <c r="V91">
+        <v>2.25</v>
+      </c>
+      <c r="W91">
+        <v>1.57</v>
+      </c>
+      <c r="X91">
+        <v>5.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.14</v>
+      </c>
+      <c r="Z91">
+        <v>1.44</v>
+      </c>
+      <c r="AA91">
+        <v>4.33</v>
+      </c>
+      <c r="AB91">
+        <v>5.6</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>11</v>
+      </c>
+      <c r="AE91">
+        <v>1.17</v>
+      </c>
+      <c r="AF91">
+        <v>5</v>
+      </c>
+      <c r="AG91">
+        <v>1.5</v>
+      </c>
+      <c r="AH91">
+        <v>2.48</v>
+      </c>
+      <c r="AI91">
+        <v>1.67</v>
+      </c>
+      <c r="AJ91">
+        <v>2.1</v>
+      </c>
+      <c r="AK91">
+        <v>1.08</v>
+      </c>
+      <c r="AL91">
+        <v>1.14</v>
+      </c>
+      <c r="AM91">
+        <v>2.7</v>
+      </c>
+      <c r="AN91">
+        <v>1.71</v>
+      </c>
+      <c r="AO91">
+        <v>0.71</v>
+      </c>
+      <c r="AP91">
+        <v>1.63</v>
+      </c>
+      <c r="AQ91">
+        <v>0.75</v>
+      </c>
+      <c r="AR91">
+        <v>1.67</v>
+      </c>
+      <c r="AS91">
+        <v>1.18</v>
+      </c>
+      <c r="AT91">
+        <v>2.85</v>
+      </c>
+      <c r="AU91">
+        <v>8</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>17</v>
+      </c>
+      <c r="AX91">
+        <v>7</v>
+      </c>
+      <c r="AY91">
+        <v>25</v>
+      </c>
+      <c r="AZ91">
+        <v>10</v>
+      </c>
+      <c r="BA91">
+        <v>9</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
+      </c>
+      <c r="BC91">
+        <v>10</v>
+      </c>
+      <c r="BD91">
+        <v>1.04</v>
+      </c>
+      <c r="BE91">
+        <v>14</v>
+      </c>
+      <c r="BF91">
+        <v>10</v>
+      </c>
+      <c r="BG91">
+        <v>1.13</v>
+      </c>
+      <c r="BH91">
+        <v>5.1</v>
+      </c>
+      <c r="BI91">
+        <v>1.26</v>
+      </c>
+      <c r="BJ91">
+        <v>3.5</v>
+      </c>
+      <c r="BK91">
+        <v>1.46</v>
+      </c>
+      <c r="BL91">
+        <v>2.5</v>
+      </c>
+      <c r="BM91">
+        <v>1.76</v>
+      </c>
+      <c r="BN91">
+        <v>2.02</v>
+      </c>
+      <c r="BO91">
+        <v>2.21</v>
+      </c>
+      <c r="BP91">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,12 @@
     <t>['40', '90+1', '90+2']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -641,6 +647,9 @@
   </si>
   <si>
     <t>['55']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,7 +1270,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1342,7 +1351,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ2">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1467,7 +1476,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1545,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -1879,7 +1888,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2085,7 +2094,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2291,7 +2300,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2497,7 +2506,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2784,7 +2793,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ9">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2909,7 +2918,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2990,7 +2999,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3115,7 +3124,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3193,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1.29</v>
@@ -3321,7 +3330,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3733,7 +3742,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3811,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ14">
         <v>0.25</v>
@@ -3939,7 +3948,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4557,7 +4566,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4763,7 +4772,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5381,7 +5390,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5459,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -5668,7 +5677,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ23">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR23">
         <v>1.97</v>
@@ -5793,7 +5802,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5874,7 +5883,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.94</v>
@@ -5999,7 +6008,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6283,10 +6292,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ26">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>3.42</v>
@@ -6617,7 +6626,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6901,7 +6910,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.75</v>
@@ -7029,7 +7038,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7107,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ30">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>1.23</v>
@@ -7235,7 +7244,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7522,7 +7531,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ32">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -7853,7 +7862,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8137,10 +8146,10 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ35">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>2.41</v>
@@ -8265,7 +8274,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8471,7 +8480,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8677,7 +8686,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8758,7 +8767,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ38">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>1.76</v>
@@ -8883,7 +8892,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -8961,7 +8970,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -9089,7 +9098,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9501,7 +9510,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9707,7 +9716,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -9991,7 +10000,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>1.14</v>
@@ -10200,7 +10209,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>2.03</v>
@@ -10325,7 +10334,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10406,7 +10415,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ46">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>1.42</v>
@@ -10609,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47">
         <v>0.57</v>
@@ -10943,7 +10952,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11149,7 +11158,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11230,7 +11239,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR50">
         <v>1.66</v>
@@ -11355,7 +11364,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11642,7 +11651,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ52">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.22</v>
@@ -11845,7 +11854,7 @@
         <v>2.33</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ53">
         <v>1.29</v>
@@ -12051,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>0.75</v>
@@ -12179,7 +12188,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12385,7 +12394,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12672,7 +12681,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ57">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13003,7 +13012,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13081,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
         <v>1.14</v>
@@ -13493,7 +13502,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ61">
         <v>1.29</v>
@@ -13702,7 +13711,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ62">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -13827,7 +13836,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14033,7 +14042,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14239,7 +14248,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14651,7 +14660,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14729,7 +14738,7 @@
         <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ67">
         <v>1.38</v>
@@ -14857,7 +14866,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14935,10 +14944,10 @@
         <v>0.4</v>
       </c>
       <c r="AP68">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR68">
         <v>1.02</v>
@@ -15063,7 +15072,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15269,7 +15278,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15475,7 +15484,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15887,7 +15896,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -15968,7 +15977,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16171,7 +16180,7 @@
         <v>0.67</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ74">
         <v>0.75</v>
@@ -16377,7 +16386,7 @@
         <v>0.17</v>
       </c>
       <c r="AP75">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>0.25</v>
@@ -16505,7 +16514,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17204,7 +17213,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR79">
         <v>1.77</v>
@@ -17410,7 +17419,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ80">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR80">
         <v>1.35</v>
@@ -17535,7 +17544,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17613,7 +17622,7 @@
         <v>1.43</v>
       </c>
       <c r="AP81">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ81">
         <v>1.63</v>
@@ -17741,7 +17750,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -17947,7 +17956,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18028,7 +18037,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ83">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR83">
         <v>1.44</v>
@@ -18153,7 +18162,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18359,7 +18368,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>2.7</v>
@@ -18565,7 +18574,7 @@
         <v>120</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -18771,7 +18780,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19183,7 +19192,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19389,7 +19398,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19467,7 +19476,7 @@
         <v>1.57</v>
       </c>
       <c r="AP90">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>1.38</v>
@@ -19752,6 +19761,624 @@
       </c>
       <c r="BP91">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7487120</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45626.58333333334</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>71</v>
+      </c>
+      <c r="H92" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>83</v>
+      </c>
+      <c r="P92" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q92">
+        <v>4.2</v>
+      </c>
+      <c r="R92">
+        <v>2.3</v>
+      </c>
+      <c r="S92">
+        <v>2.25</v>
+      </c>
+      <c r="T92">
+        <v>1.3</v>
+      </c>
+      <c r="U92">
+        <v>3.2</v>
+      </c>
+      <c r="V92">
+        <v>2.35</v>
+      </c>
+      <c r="W92">
+        <v>1.53</v>
+      </c>
+      <c r="X92">
+        <v>5.1</v>
+      </c>
+      <c r="Y92">
+        <v>1.13</v>
+      </c>
+      <c r="Z92">
+        <v>4.12</v>
+      </c>
+      <c r="AA92">
+        <v>3.79</v>
+      </c>
+      <c r="AB92">
+        <v>1.68</v>
+      </c>
+      <c r="AC92">
+        <v>1.04</v>
+      </c>
+      <c r="AD92">
+        <v>10</v>
+      </c>
+      <c r="AE92">
+        <v>1.2</v>
+      </c>
+      <c r="AF92">
+        <v>4.33</v>
+      </c>
+      <c r="AG92">
+        <v>1.55</v>
+      </c>
+      <c r="AH92">
+        <v>2.3</v>
+      </c>
+      <c r="AI92">
+        <v>1.55</v>
+      </c>
+      <c r="AJ92">
+        <v>2.25</v>
+      </c>
+      <c r="AK92">
+        <v>2</v>
+      </c>
+      <c r="AL92">
+        <v>1.2</v>
+      </c>
+      <c r="AM92">
+        <v>1.22</v>
+      </c>
+      <c r="AN92">
+        <v>1.43</v>
+      </c>
+      <c r="AO92">
+        <v>1.29</v>
+      </c>
+      <c r="AP92">
+        <v>1.25</v>
+      </c>
+      <c r="AQ92">
+        <v>1.5</v>
+      </c>
+      <c r="AR92">
+        <v>0.95</v>
+      </c>
+      <c r="AS92">
+        <v>1.46</v>
+      </c>
+      <c r="AT92">
+        <v>2.41</v>
+      </c>
+      <c r="AU92">
+        <v>2</v>
+      </c>
+      <c r="AV92">
+        <v>6</v>
+      </c>
+      <c r="AW92">
+        <v>4</v>
+      </c>
+      <c r="AX92">
+        <v>8</v>
+      </c>
+      <c r="AY92">
+        <v>7</v>
+      </c>
+      <c r="AZ92">
+        <v>18</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
+        <v>8</v>
+      </c>
+      <c r="BC92">
+        <v>11</v>
+      </c>
+      <c r="BD92">
+        <v>3.28</v>
+      </c>
+      <c r="BE92">
+        <v>9</v>
+      </c>
+      <c r="BF92">
+        <v>1.45</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>0</v>
+      </c>
+      <c r="BJ92">
+        <v>0</v>
+      </c>
+      <c r="BK92">
+        <v>0</v>
+      </c>
+      <c r="BL92">
+        <v>0</v>
+      </c>
+      <c r="BM92">
+        <v>0</v>
+      </c>
+      <c r="BN92">
+        <v>0</v>
+      </c>
+      <c r="BO92">
+        <v>0</v>
+      </c>
+      <c r="BP92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7487115</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45626.58333333334</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>156</v>
+      </c>
+      <c r="P93" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q93">
+        <v>2.45</v>
+      </c>
+      <c r="R93">
+        <v>2.25</v>
+      </c>
+      <c r="S93">
+        <v>3.8</v>
+      </c>
+      <c r="T93">
+        <v>1.3</v>
+      </c>
+      <c r="U93">
+        <v>3.25</v>
+      </c>
+      <c r="V93">
+        <v>2.35</v>
+      </c>
+      <c r="W93">
+        <v>1.53</v>
+      </c>
+      <c r="X93">
+        <v>5.05</v>
+      </c>
+      <c r="Y93">
+        <v>1.13</v>
+      </c>
+      <c r="Z93">
+        <v>1.95</v>
+      </c>
+      <c r="AA93">
+        <v>3.49</v>
+      </c>
+      <c r="AB93">
+        <v>3.32</v>
+      </c>
+      <c r="AC93">
+        <v>1.04</v>
+      </c>
+      <c r="AD93">
+        <v>10</v>
+      </c>
+      <c r="AE93">
+        <v>1.2</v>
+      </c>
+      <c r="AF93">
+        <v>4.33</v>
+      </c>
+      <c r="AG93">
+        <v>1.55</v>
+      </c>
+      <c r="AH93">
+        <v>2.3</v>
+      </c>
+      <c r="AI93">
+        <v>1.53</v>
+      </c>
+      <c r="AJ93">
+        <v>2.3</v>
+      </c>
+      <c r="AK93">
+        <v>1.28</v>
+      </c>
+      <c r="AL93">
+        <v>1.22</v>
+      </c>
+      <c r="AM93">
+        <v>1.85</v>
+      </c>
+      <c r="AN93">
+        <v>2.14</v>
+      </c>
+      <c r="AO93">
+        <v>0.71</v>
+      </c>
+      <c r="AP93">
+        <v>2</v>
+      </c>
+      <c r="AQ93">
+        <v>0.75</v>
+      </c>
+      <c r="AR93">
+        <v>1.84</v>
+      </c>
+      <c r="AS93">
+        <v>1.6</v>
+      </c>
+      <c r="AT93">
+        <v>3.44</v>
+      </c>
+      <c r="AU93">
+        <v>3</v>
+      </c>
+      <c r="AV93">
+        <v>8</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>3</v>
+      </c>
+      <c r="AY93">
+        <v>12</v>
+      </c>
+      <c r="AZ93">
+        <v>17</v>
+      </c>
+      <c r="BA93">
+        <v>7</v>
+      </c>
+      <c r="BB93">
+        <v>2</v>
+      </c>
+      <c r="BC93">
+        <v>9</v>
+      </c>
+      <c r="BD93">
+        <v>1.91</v>
+      </c>
+      <c r="BE93">
+        <v>8</v>
+      </c>
+      <c r="BF93">
+        <v>2.1</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>0</v>
+      </c>
+      <c r="BI93">
+        <v>1.36</v>
+      </c>
+      <c r="BJ93">
+        <v>2.88</v>
+      </c>
+      <c r="BK93">
+        <v>1.62</v>
+      </c>
+      <c r="BL93">
+        <v>2.16</v>
+      </c>
+      <c r="BM93">
+        <v>1.99</v>
+      </c>
+      <c r="BN93">
+        <v>1.72</v>
+      </c>
+      <c r="BO93">
+        <v>2.55</v>
+      </c>
+      <c r="BP93">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7487119</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45626.6875</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>81</v>
+      </c>
+      <c r="H94" t="s">
+        <v>78</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>157</v>
+      </c>
+      <c r="P94" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q94">
+        <v>2.38</v>
+      </c>
+      <c r="R94">
+        <v>2.15</v>
+      </c>
+      <c r="S94">
+        <v>4.33</v>
+      </c>
+      <c r="T94">
+        <v>1.36</v>
+      </c>
+      <c r="U94">
+        <v>2.9</v>
+      </c>
+      <c r="V94">
+        <v>2.55</v>
+      </c>
+      <c r="W94">
+        <v>1.45</v>
+      </c>
+      <c r="X94">
+        <v>6.25</v>
+      </c>
+      <c r="Y94">
+        <v>1.08</v>
+      </c>
+      <c r="Z94">
+        <v>1.86</v>
+      </c>
+      <c r="AA94">
+        <v>3.37</v>
+      </c>
+      <c r="AB94">
+        <v>3.76</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>9.5</v>
+      </c>
+      <c r="AE94">
+        <v>1.25</v>
+      </c>
+      <c r="AF94">
+        <v>3.7</v>
+      </c>
+      <c r="AG94">
+        <v>1.75</v>
+      </c>
+      <c r="AH94">
+        <v>1.95</v>
+      </c>
+      <c r="AI94">
+        <v>1.67</v>
+      </c>
+      <c r="AJ94">
+        <v>2.05</v>
+      </c>
+      <c r="AK94">
+        <v>1.22</v>
+      </c>
+      <c r="AL94">
+        <v>1.22</v>
+      </c>
+      <c r="AM94">
+        <v>1.93</v>
+      </c>
+      <c r="AN94">
+        <v>1.71</v>
+      </c>
+      <c r="AO94">
+        <v>0.43</v>
+      </c>
+      <c r="AP94">
+        <v>1.63</v>
+      </c>
+      <c r="AQ94">
+        <v>0.5</v>
+      </c>
+      <c r="AR94">
+        <v>1.49</v>
+      </c>
+      <c r="AS94">
+        <v>1.41</v>
+      </c>
+      <c r="AT94">
+        <v>2.9</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>4</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>8</v>
+      </c>
+      <c r="AZ94">
+        <v>11</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>10</v>
+      </c>
+      <c r="BC94">
+        <v>10</v>
+      </c>
+      <c r="BD94">
+        <v>1.91</v>
+      </c>
+      <c r="BE94">
+        <v>8</v>
+      </c>
+      <c r="BF94">
+        <v>2.2</v>
+      </c>
+      <c r="BG94">
+        <v>1.25</v>
+      </c>
+      <c r="BH94">
+        <v>3.58</v>
+      </c>
+      <c r="BI94">
+        <v>1.45</v>
+      </c>
+      <c r="BJ94">
+        <v>2.55</v>
+      </c>
+      <c r="BK94">
+        <v>1.75</v>
+      </c>
+      <c r="BL94">
+        <v>1.96</v>
+      </c>
+      <c r="BM94">
+        <v>2.21</v>
+      </c>
+      <c r="BN94">
+        <v>1.59</v>
+      </c>
+      <c r="BO94">
+        <v>2.9</v>
+      </c>
+      <c r="BP94">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,12 @@
     <t>['1']</t>
   </si>
   <si>
+    <t>['23', '26', '90+6']</t>
+  </si>
+  <si>
+    <t>['55', '82', '88']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -650,6 +656,12 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['25', '64', '68']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1282,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1476,7 +1488,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1760,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1888,7 +1900,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1966,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2094,7 +2106,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2300,7 +2312,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2506,7 +2518,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2584,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8">
         <v>0.75</v>
@@ -2918,7 +2930,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3124,7 +3136,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3205,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3330,7 +3342,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3408,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ12">
         <v>0.75</v>
@@ -3742,7 +3754,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3948,7 +3960,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4441,7 +4453,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4566,7 +4578,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4647,7 +4659,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.45</v>
@@ -4772,7 +4784,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4850,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>1.75</v>
@@ -5056,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20">
         <v>0.75</v>
@@ -5390,7 +5402,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5802,7 +5814,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6008,7 +6020,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6086,7 +6098,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ25">
         <v>1.63</v>
@@ -6626,7 +6638,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6707,7 +6719,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ28">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -7038,7 +7050,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7244,7 +7256,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7528,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>0.75</v>
@@ -7734,7 +7746,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
         <v>1.38</v>
@@ -7862,7 +7874,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7943,7 +7955,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8274,7 +8286,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8355,7 +8367,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8480,7 +8492,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8686,7 +8698,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8892,7 +8904,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9098,7 +9110,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9385,7 +9397,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9510,7 +9522,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9588,7 +9600,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -9716,7 +9728,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10003,7 +10015,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.17</v>
@@ -10206,7 +10218,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ45">
         <v>0.75</v>
@@ -10334,7 +10346,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10412,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>0.5</v>
@@ -10621,7 +10633,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR47">
         <v>1.94</v>
@@ -10952,7 +10964,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11158,7 +11170,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11364,7 +11376,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11648,7 +11660,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -11857,7 +11869,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ53">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -12188,7 +12200,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12394,7 +12406,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12678,7 +12690,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -12884,10 +12896,10 @@
         <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ58">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -13012,7 +13024,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13093,7 +13105,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.76</v>
@@ -13505,7 +13517,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.01</v>
@@ -13836,7 +13848,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -13914,7 +13926,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ63">
         <v>1.63</v>
@@ -14042,7 +14054,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14248,7 +14260,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14329,7 +14341,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ65">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.56</v>
@@ -14660,7 +14672,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14866,7 +14878,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15072,7 +15084,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15278,7 +15290,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15484,7 +15496,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15562,7 +15574,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
         <v>1.63</v>
@@ -15771,7 +15783,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ72">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -15896,7 +15908,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -15974,7 +15986,7 @@
         <v>1.6</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16514,7 +16526,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16595,7 +16607,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ76">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -17416,7 +17428,7 @@
         <v>0.83</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ80">
         <v>0.75</v>
@@ -17544,7 +17556,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17750,7 +17762,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -17828,7 +17840,7 @@
         <v>2.17</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ82">
         <v>1.75</v>
@@ -17956,7 +17968,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18162,7 +18174,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18243,7 +18255,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ84">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.54</v>
@@ -18368,7 +18380,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q85">
         <v>2.7</v>
@@ -18446,10 +18458,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR85">
         <v>1.7</v>
@@ -18574,7 +18586,7 @@
         <v>120</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -18780,7 +18792,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19067,7 +19079,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ88">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR88">
         <v>1.77</v>
@@ -19192,7 +19204,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19398,7 +19410,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19810,7 +19822,7 @@
         <v>83</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>4.2</v>
@@ -20016,7 +20028,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q93">
         <v>2.45</v>
@@ -20222,7 +20234,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20378,6 +20390,624 @@
         <v>2.9</v>
       </c>
       <c r="BP94">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7487117</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45627.42708333334</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>72</v>
+      </c>
+      <c r="H95" t="s">
+        <v>77</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>144</v>
+      </c>
+      <c r="P95" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q95">
+        <v>4.33</v>
+      </c>
+      <c r="R95">
+        <v>2.2</v>
+      </c>
+      <c r="S95">
+        <v>2.5</v>
+      </c>
+      <c r="T95">
+        <v>1.36</v>
+      </c>
+      <c r="U95">
+        <v>3</v>
+      </c>
+      <c r="V95">
+        <v>2.75</v>
+      </c>
+      <c r="W95">
+        <v>1.4</v>
+      </c>
+      <c r="X95">
+        <v>7</v>
+      </c>
+      <c r="Y95">
+        <v>1.1</v>
+      </c>
+      <c r="Z95">
+        <v>3.99</v>
+      </c>
+      <c r="AA95">
+        <v>3.75</v>
+      </c>
+      <c r="AB95">
+        <v>1.81</v>
+      </c>
+      <c r="AC95">
+        <v>1.05</v>
+      </c>
+      <c r="AD95">
+        <v>9.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.28</v>
+      </c>
+      <c r="AF95">
+        <v>3.65</v>
+      </c>
+      <c r="AG95">
+        <v>1.75</v>
+      </c>
+      <c r="AH95">
+        <v>1.85</v>
+      </c>
+      <c r="AI95">
+        <v>1.73</v>
+      </c>
+      <c r="AJ95">
+        <v>2</v>
+      </c>
+      <c r="AK95">
+        <v>1.85</v>
+      </c>
+      <c r="AL95">
+        <v>1.22</v>
+      </c>
+      <c r="AM95">
+        <v>1.22</v>
+      </c>
+      <c r="AN95">
+        <v>1.43</v>
+      </c>
+      <c r="AO95">
+        <v>0.57</v>
+      </c>
+      <c r="AP95">
+        <v>1.25</v>
+      </c>
+      <c r="AQ95">
+        <v>0.88</v>
+      </c>
+      <c r="AR95">
+        <v>1.3</v>
+      </c>
+      <c r="AS95">
+        <v>1.36</v>
+      </c>
+      <c r="AT95">
+        <v>2.66</v>
+      </c>
+      <c r="AU95">
+        <v>3</v>
+      </c>
+      <c r="AV95">
+        <v>6</v>
+      </c>
+      <c r="AW95">
+        <v>0</v>
+      </c>
+      <c r="AX95">
+        <v>4</v>
+      </c>
+      <c r="AY95">
+        <v>9</v>
+      </c>
+      <c r="AZ95">
+        <v>15</v>
+      </c>
+      <c r="BA95">
+        <v>4</v>
+      </c>
+      <c r="BB95">
+        <v>2</v>
+      </c>
+      <c r="BC95">
+        <v>6</v>
+      </c>
+      <c r="BD95">
+        <v>2.66</v>
+      </c>
+      <c r="BE95">
+        <v>8.5</v>
+      </c>
+      <c r="BF95">
+        <v>1.64</v>
+      </c>
+      <c r="BG95">
+        <v>1.24</v>
+      </c>
+      <c r="BH95">
+        <v>3.68</v>
+      </c>
+      <c r="BI95">
+        <v>1.39</v>
+      </c>
+      <c r="BJ95">
+        <v>2.75</v>
+      </c>
+      <c r="BK95">
+        <v>1.67</v>
+      </c>
+      <c r="BL95">
+        <v>2.08</v>
+      </c>
+      <c r="BM95">
+        <v>2.08</v>
+      </c>
+      <c r="BN95">
+        <v>1.67</v>
+      </c>
+      <c r="BO95">
+        <v>2.68</v>
+      </c>
+      <c r="BP95">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7487118</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45627.52083333334</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s">
+        <v>80</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>3</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>158</v>
+      </c>
+      <c r="P96" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q96">
+        <v>2.38</v>
+      </c>
+      <c r="R96">
+        <v>2.5</v>
+      </c>
+      <c r="S96">
+        <v>4</v>
+      </c>
+      <c r="T96">
+        <v>1.25</v>
+      </c>
+      <c r="U96">
+        <v>3.75</v>
+      </c>
+      <c r="V96">
+        <v>2.2</v>
+      </c>
+      <c r="W96">
+        <v>1.62</v>
+      </c>
+      <c r="X96">
+        <v>5</v>
+      </c>
+      <c r="Y96">
+        <v>1.17</v>
+      </c>
+      <c r="Z96">
+        <v>1.85</v>
+      </c>
+      <c r="AA96">
+        <v>3.71</v>
+      </c>
+      <c r="AB96">
+        <v>3.44</v>
+      </c>
+      <c r="AC96">
+        <v>1.01</v>
+      </c>
+      <c r="AD96">
+        <v>17</v>
+      </c>
+      <c r="AE96">
+        <v>1.14</v>
+      </c>
+      <c r="AF96">
+        <v>5.5</v>
+      </c>
+      <c r="AG96">
+        <v>1.44</v>
+      </c>
+      <c r="AH96">
+        <v>2.6</v>
+      </c>
+      <c r="AI96">
+        <v>1.44</v>
+      </c>
+      <c r="AJ96">
+        <v>2.63</v>
+      </c>
+      <c r="AK96">
+        <v>1.25</v>
+      </c>
+      <c r="AL96">
+        <v>1.2</v>
+      </c>
+      <c r="AM96">
+        <v>1.95</v>
+      </c>
+      <c r="AN96">
+        <v>1.57</v>
+      </c>
+      <c r="AO96">
+        <v>1.14</v>
+      </c>
+      <c r="AP96">
+        <v>1.75</v>
+      </c>
+      <c r="AQ96">
+        <v>1</v>
+      </c>
+      <c r="AR96">
+        <v>1.72</v>
+      </c>
+      <c r="AS96">
+        <v>1.53</v>
+      </c>
+      <c r="AT96">
+        <v>3.25</v>
+      </c>
+      <c r="AU96">
+        <v>13</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>10</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>27</v>
+      </c>
+      <c r="AZ96">
+        <v>11</v>
+      </c>
+      <c r="BA96">
+        <v>5</v>
+      </c>
+      <c r="BB96">
+        <v>3</v>
+      </c>
+      <c r="BC96">
+        <v>8</v>
+      </c>
+      <c r="BD96">
+        <v>1.64</v>
+      </c>
+      <c r="BE96">
+        <v>8.5</v>
+      </c>
+      <c r="BF96">
+        <v>2.66</v>
+      </c>
+      <c r="BG96">
+        <v>1.09</v>
+      </c>
+      <c r="BH96">
+        <v>5</v>
+      </c>
+      <c r="BI96">
+        <v>1.31</v>
+      </c>
+      <c r="BJ96">
+        <v>3.15</v>
+      </c>
+      <c r="BK96">
+        <v>1.53</v>
+      </c>
+      <c r="BL96">
+        <v>2.33</v>
+      </c>
+      <c r="BM96">
+        <v>1.87</v>
+      </c>
+      <c r="BN96">
+        <v>1.83</v>
+      </c>
+      <c r="BO96">
+        <v>2.36</v>
+      </c>
+      <c r="BP96">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7487116</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45627.52083333334</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>76</v>
+      </c>
+      <c r="H97" t="s">
+        <v>70</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97" t="s">
+        <v>159</v>
+      </c>
+      <c r="P97" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q97">
+        <v>2.63</v>
+      </c>
+      <c r="R97">
+        <v>2.25</v>
+      </c>
+      <c r="S97">
+        <v>3.75</v>
+      </c>
+      <c r="T97">
+        <v>1.33</v>
+      </c>
+      <c r="U97">
+        <v>3.25</v>
+      </c>
+      <c r="V97">
+        <v>2.63</v>
+      </c>
+      <c r="W97">
+        <v>1.44</v>
+      </c>
+      <c r="X97">
+        <v>6.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.11</v>
+      </c>
+      <c r="Z97">
+        <v>2</v>
+      </c>
+      <c r="AA97">
+        <v>3.43</v>
+      </c>
+      <c r="AB97">
+        <v>3.21</v>
+      </c>
+      <c r="AC97">
+        <v>1.05</v>
+      </c>
+      <c r="AD97">
+        <v>9.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.25</v>
+      </c>
+      <c r="AF97">
+        <v>3.95</v>
+      </c>
+      <c r="AG97">
+        <v>1.65</v>
+      </c>
+      <c r="AH97">
+        <v>2.1</v>
+      </c>
+      <c r="AI97">
+        <v>1.62</v>
+      </c>
+      <c r="AJ97">
+        <v>2.2</v>
+      </c>
+      <c r="AK97">
+        <v>1.3</v>
+      </c>
+      <c r="AL97">
+        <v>1.25</v>
+      </c>
+      <c r="AM97">
+        <v>1.75</v>
+      </c>
+      <c r="AN97">
+        <v>2</v>
+      </c>
+      <c r="AO97">
+        <v>1.29</v>
+      </c>
+      <c r="AP97">
+        <v>2.13</v>
+      </c>
+      <c r="AQ97">
+        <v>1.13</v>
+      </c>
+      <c r="AR97">
+        <v>1.88</v>
+      </c>
+      <c r="AS97">
+        <v>1.61</v>
+      </c>
+      <c r="AT97">
+        <v>3.49</v>
+      </c>
+      <c r="AU97">
+        <v>11</v>
+      </c>
+      <c r="AV97">
+        <v>5</v>
+      </c>
+      <c r="AW97">
+        <v>4</v>
+      </c>
+      <c r="AX97">
+        <v>4</v>
+      </c>
+      <c r="AY97">
+        <v>18</v>
+      </c>
+      <c r="AZ97">
+        <v>10</v>
+      </c>
+      <c r="BA97">
+        <v>7</v>
+      </c>
+      <c r="BB97">
+        <v>4</v>
+      </c>
+      <c r="BC97">
+        <v>11</v>
+      </c>
+      <c r="BD97">
+        <v>1.51</v>
+      </c>
+      <c r="BE97">
+        <v>8.5</v>
+      </c>
+      <c r="BF97">
+        <v>3.07</v>
+      </c>
+      <c r="BG97">
+        <v>1.25</v>
+      </c>
+      <c r="BH97">
+        <v>3.58</v>
+      </c>
+      <c r="BI97">
+        <v>1.45</v>
+      </c>
+      <c r="BJ97">
+        <v>2.55</v>
+      </c>
+      <c r="BK97">
+        <v>1.75</v>
+      </c>
+      <c r="BL97">
+        <v>1.96</v>
+      </c>
+      <c r="BM97">
+        <v>2.21</v>
+      </c>
+      <c r="BN97">
+        <v>1.59</v>
+      </c>
+      <c r="BO97">
+        <v>2.9</v>
+      </c>
+      <c r="BP97">
         <v>1.36</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -20542,13 +20542,13 @@
         <v>0</v>
       </c>
       <c r="AX95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY95">
         <v>9</v>
       </c>
       <c r="AZ95">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA95">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,12 @@
     <t>['55', '82', '88']</t>
   </si>
   <si>
+    <t>['14', '16', '29']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -662,6 +668,15 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['35', '38', '64', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1297,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1488,7 +1503,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1900,7 +1915,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2106,7 +2121,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2312,7 +2327,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2390,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
         <v>1.38</v>
@@ -2518,7 +2533,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2599,7 +2614,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2802,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ9">
         <v>0.75</v>
@@ -2930,7 +2945,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3008,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3136,7 +3151,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3217,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3342,7 +3357,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3423,7 +3438,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -3629,7 +3644,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3754,7 +3769,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3960,7 +3975,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4038,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ15">
         <v>1.63</v>
@@ -4450,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -4578,7 +4593,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4784,7 +4799,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5071,7 +5086,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR20">
         <v>1.02</v>
@@ -5274,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ21">
         <v>0.25</v>
@@ -5402,7 +5417,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5483,7 +5498,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>0.55</v>
@@ -5814,7 +5829,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6020,7 +6035,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6510,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ27">
         <v>0.25</v>
@@ -6638,7 +6653,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6716,7 +6731,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ28">
         <v>0.88</v>
@@ -6925,7 +6940,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -7050,7 +7065,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7256,7 +7271,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7334,7 +7349,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ31">
         <v>1.63</v>
@@ -7874,7 +7889,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8286,7 +8301,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8367,7 +8382,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8492,7 +8507,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8570,7 +8585,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ37">
         <v>1.38</v>
@@ -8698,7 +8713,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8904,7 +8919,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9110,7 +9125,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9191,7 +9206,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR40">
         <v>1.54</v>
@@ -9394,10 +9409,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9522,7 +9537,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9603,7 +9618,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>1.16</v>
@@ -9728,7 +9743,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10346,7 +10361,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10836,7 +10851,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
         <v>1.63</v>
@@ -10964,7 +10979,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11170,7 +11185,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11248,7 +11263,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ50">
         <v>0.75</v>
@@ -11376,7 +11391,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11454,10 +11469,10 @@
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ51">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR51">
         <v>1.38</v>
@@ -11869,7 +11884,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ53">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -12075,7 +12090,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR54">
         <v>1.74</v>
@@ -12200,7 +12215,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12406,7 +12421,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12484,7 +12499,7 @@
         <v>1.75</v>
       </c>
       <c r="AP56">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ56">
         <v>1.75</v>
@@ -13024,7 +13039,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13517,7 +13532,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR61">
         <v>1.01</v>
@@ -13848,7 +13863,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14054,7 +14069,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14132,10 +14147,10 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14260,7 +14275,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14338,7 +14353,7 @@
         <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14547,7 +14562,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ66">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR66">
         <v>1.86</v>
@@ -14672,7 +14687,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14878,7 +14893,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15084,7 +15099,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15162,7 +15177,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ69">
         <v>1.75</v>
@@ -15290,7 +15305,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15496,7 +15511,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15780,10 +15795,10 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -15908,7 +15923,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -16195,7 +16210,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.51</v>
@@ -16526,7 +16541,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17019,7 +17034,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR78">
         <v>1.74</v>
@@ -17222,7 +17237,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79">
         <v>0.5</v>
@@ -17556,7 +17571,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17762,7 +17777,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -17968,7 +17983,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18046,7 +18061,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ83">
         <v>1.5</v>
@@ -18174,7 +18189,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18252,7 +18267,7 @@
         <v>0.83</v>
       </c>
       <c r="AP84">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18380,7 +18395,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>2.7</v>
@@ -18461,7 +18476,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR85">
         <v>1.7</v>
@@ -18586,7 +18601,7 @@
         <v>120</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -18664,7 +18679,7 @@
         <v>0.14</v>
       </c>
       <c r="AP86">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ86">
         <v>0.25</v>
@@ -18792,7 +18807,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18870,10 +18885,10 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19204,7 +19219,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19410,7 +19425,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19697,7 +19712,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR91">
         <v>1.67</v>
@@ -19822,7 +19837,7 @@
         <v>83</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>4.2</v>
@@ -20028,7 +20043,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>2.45</v>
@@ -20234,7 +20249,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20440,7 +20455,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -20646,7 +20661,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -20933,7 +20948,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ97">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR97">
         <v>1.88</v>
@@ -21009,6 +21024,624 @@
       </c>
       <c r="BP97">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7487121</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45633.58333333334</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s">
+        <v>71</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>156</v>
+      </c>
+      <c r="P98" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q98">
+        <v>2.1</v>
+      </c>
+      <c r="R98">
+        <v>2.35</v>
+      </c>
+      <c r="S98">
+        <v>4.75</v>
+      </c>
+      <c r="T98">
+        <v>1.32</v>
+      </c>
+      <c r="U98">
+        <v>3.15</v>
+      </c>
+      <c r="V98">
+        <v>2.45</v>
+      </c>
+      <c r="W98">
+        <v>1.49</v>
+      </c>
+      <c r="X98">
+        <v>5.95</v>
+      </c>
+      <c r="Y98">
+        <v>1.1</v>
+      </c>
+      <c r="Z98">
+        <v>1.58</v>
+      </c>
+      <c r="AA98">
+        <v>4.2</v>
+      </c>
+      <c r="AB98">
+        <v>5</v>
+      </c>
+      <c r="AC98">
+        <v>1.04</v>
+      </c>
+      <c r="AD98">
+        <v>10</v>
+      </c>
+      <c r="AE98">
+        <v>1.22</v>
+      </c>
+      <c r="AF98">
+        <v>4</v>
+      </c>
+      <c r="AG98">
+        <v>1.77</v>
+      </c>
+      <c r="AH98">
+        <v>1.98</v>
+      </c>
+      <c r="AI98">
+        <v>1.72</v>
+      </c>
+      <c r="AJ98">
+        <v>2.05</v>
+      </c>
+      <c r="AK98">
+        <v>1.12</v>
+      </c>
+      <c r="AL98">
+        <v>1.18</v>
+      </c>
+      <c r="AM98">
+        <v>2.25</v>
+      </c>
+      <c r="AN98">
+        <v>0.88</v>
+      </c>
+      <c r="AO98">
+        <v>0.75</v>
+      </c>
+      <c r="AP98">
+        <v>0.89</v>
+      </c>
+      <c r="AQ98">
+        <v>0.78</v>
+      </c>
+      <c r="AR98">
+        <v>1.52</v>
+      </c>
+      <c r="AS98">
+        <v>1.18</v>
+      </c>
+      <c r="AT98">
+        <v>2.7</v>
+      </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
+        <v>5</v>
+      </c>
+      <c r="AW98">
+        <v>5</v>
+      </c>
+      <c r="AX98">
+        <v>7</v>
+      </c>
+      <c r="AY98">
+        <v>12</v>
+      </c>
+      <c r="AZ98">
+        <v>15</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>1</v>
+      </c>
+      <c r="BC98">
+        <v>6</v>
+      </c>
+      <c r="BD98">
+        <v>1.16</v>
+      </c>
+      <c r="BE98">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF98">
+        <v>6.6</v>
+      </c>
+      <c r="BG98">
+        <v>1.12</v>
+      </c>
+      <c r="BH98">
+        <v>4.4</v>
+      </c>
+      <c r="BI98">
+        <v>1.27</v>
+      </c>
+      <c r="BJ98">
+        <v>3.04</v>
+      </c>
+      <c r="BK98">
+        <v>1.51</v>
+      </c>
+      <c r="BL98">
+        <v>2.26</v>
+      </c>
+      <c r="BM98">
+        <v>1.89</v>
+      </c>
+      <c r="BN98">
+        <v>1.81</v>
+      </c>
+      <c r="BO98">
+        <v>2.38</v>
+      </c>
+      <c r="BP98">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7487125</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45633.58333333334</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>4</v>
+      </c>
+      <c r="O99" t="s">
+        <v>160</v>
+      </c>
+      <c r="P99" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q99">
+        <v>3.3</v>
+      </c>
+      <c r="R99">
+        <v>2.1</v>
+      </c>
+      <c r="S99">
+        <v>2.95</v>
+      </c>
+      <c r="T99">
+        <v>1.36</v>
+      </c>
+      <c r="U99">
+        <v>2.88</v>
+      </c>
+      <c r="V99">
+        <v>2.6</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>6.7</v>
+      </c>
+      <c r="Y99">
+        <v>1.07</v>
+      </c>
+      <c r="Z99">
+        <v>2.68</v>
+      </c>
+      <c r="AA99">
+        <v>3.38</v>
+      </c>
+      <c r="AB99">
+        <v>2.5</v>
+      </c>
+      <c r="AC99">
+        <v>1.05</v>
+      </c>
+      <c r="AD99">
+        <v>9.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.25</v>
+      </c>
+      <c r="AF99">
+        <v>3.7</v>
+      </c>
+      <c r="AG99">
+        <v>1.77</v>
+      </c>
+      <c r="AH99">
+        <v>1.98</v>
+      </c>
+      <c r="AI99">
+        <v>1.6</v>
+      </c>
+      <c r="AJ99">
+        <v>2.15</v>
+      </c>
+      <c r="AK99">
+        <v>1.55</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>1.42</v>
+      </c>
+      <c r="AN99">
+        <v>1.63</v>
+      </c>
+      <c r="AO99">
+        <v>0.75</v>
+      </c>
+      <c r="AP99">
+        <v>1.78</v>
+      </c>
+      <c r="AQ99">
+        <v>0.67</v>
+      </c>
+      <c r="AR99">
+        <v>1.55</v>
+      </c>
+      <c r="AS99">
+        <v>1.68</v>
+      </c>
+      <c r="AT99">
+        <v>3.23</v>
+      </c>
+      <c r="AU99">
+        <v>7</v>
+      </c>
+      <c r="AV99">
+        <v>7</v>
+      </c>
+      <c r="AW99">
+        <v>5</v>
+      </c>
+      <c r="AX99">
+        <v>5</v>
+      </c>
+      <c r="AY99">
+        <v>17</v>
+      </c>
+      <c r="AZ99">
+        <v>16</v>
+      </c>
+      <c r="BA99">
+        <v>4</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>8</v>
+      </c>
+      <c r="BD99">
+        <v>2.32</v>
+      </c>
+      <c r="BE99">
+        <v>7.2</v>
+      </c>
+      <c r="BF99">
+        <v>1.78</v>
+      </c>
+      <c r="BG99">
+        <v>1.13</v>
+      </c>
+      <c r="BH99">
+        <v>4.33</v>
+      </c>
+      <c r="BI99">
+        <v>1.28</v>
+      </c>
+      <c r="BJ99">
+        <v>2.97</v>
+      </c>
+      <c r="BK99">
+        <v>1.53</v>
+      </c>
+      <c r="BL99">
+        <v>2.21</v>
+      </c>
+      <c r="BM99">
+        <v>1.94</v>
+      </c>
+      <c r="BN99">
+        <v>1.77</v>
+      </c>
+      <c r="BO99">
+        <v>2.46</v>
+      </c>
+      <c r="BP99">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7487123</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45633.6875</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>75</v>
+      </c>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100" t="s">
+        <v>161</v>
+      </c>
+      <c r="P100" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q100">
+        <v>3.1</v>
+      </c>
+      <c r="R100">
+        <v>2.15</v>
+      </c>
+      <c r="S100">
+        <v>3</v>
+      </c>
+      <c r="T100">
+        <v>1.33</v>
+      </c>
+      <c r="U100">
+        <v>3</v>
+      </c>
+      <c r="V100">
+        <v>2.45</v>
+      </c>
+      <c r="W100">
+        <v>1.48</v>
+      </c>
+      <c r="X100">
+        <v>5.3</v>
+      </c>
+      <c r="Y100">
+        <v>1.12</v>
+      </c>
+      <c r="Z100">
+        <v>2.69</v>
+      </c>
+      <c r="AA100">
+        <v>3.41</v>
+      </c>
+      <c r="AB100">
+        <v>2.47</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>9.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.22</v>
+      </c>
+      <c r="AF100">
+        <v>4.2</v>
+      </c>
+      <c r="AG100">
+        <v>1.6</v>
+      </c>
+      <c r="AH100">
+        <v>2.1</v>
+      </c>
+      <c r="AI100">
+        <v>1.5</v>
+      </c>
+      <c r="AJ100">
+        <v>2.35</v>
+      </c>
+      <c r="AK100">
+        <v>1.5</v>
+      </c>
+      <c r="AL100">
+        <v>1.25</v>
+      </c>
+      <c r="AM100">
+        <v>1.45</v>
+      </c>
+      <c r="AN100">
+        <v>1.75</v>
+      </c>
+      <c r="AO100">
+        <v>1.13</v>
+      </c>
+      <c r="AP100">
+        <v>1.56</v>
+      </c>
+      <c r="AQ100">
+        <v>1.33</v>
+      </c>
+      <c r="AR100">
+        <v>1.7</v>
+      </c>
+      <c r="AS100">
+        <v>1.57</v>
+      </c>
+      <c r="AT100">
+        <v>3.27</v>
+      </c>
+      <c r="AU100">
+        <v>5</v>
+      </c>
+      <c r="AV100">
+        <v>7</v>
+      </c>
+      <c r="AW100">
+        <v>7</v>
+      </c>
+      <c r="AX100">
+        <v>2</v>
+      </c>
+      <c r="AY100">
+        <v>15</v>
+      </c>
+      <c r="AZ100">
+        <v>10</v>
+      </c>
+      <c r="BA100">
+        <v>6</v>
+      </c>
+      <c r="BB100">
+        <v>1</v>
+      </c>
+      <c r="BC100">
+        <v>7</v>
+      </c>
+      <c r="BD100">
+        <v>1.72</v>
+      </c>
+      <c r="BE100">
+        <v>7.2</v>
+      </c>
+      <c r="BF100">
+        <v>2.42</v>
+      </c>
+      <c r="BG100">
+        <v>1.12</v>
+      </c>
+      <c r="BH100">
+        <v>4.4</v>
+      </c>
+      <c r="BI100">
+        <v>1.28</v>
+      </c>
+      <c r="BJ100">
+        <v>2.97</v>
+      </c>
+      <c r="BK100">
+        <v>1.53</v>
+      </c>
+      <c r="BL100">
+        <v>2.21</v>
+      </c>
+      <c r="BM100">
+        <v>1.93</v>
+      </c>
+      <c r="BN100">
+        <v>1.78</v>
+      </c>
+      <c r="BO100">
+        <v>2.43</v>
+      </c>
+      <c r="BP100">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,10 +496,19 @@
     <t>['55', '82', '88']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['14', '16', '29']</t>
   </si>
   <si>
-    <t>['76']</t>
+    <t>['15', '64', '73']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -655,9 +664,6 @@
     <t>['34']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['55']</t>
   </si>
   <si>
@@ -673,10 +679,13 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['35', '38', '64', '90+8']</t>
+  </si>
+  <si>
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['35', '38', '64', '90+8']</t>
+    <t>['85']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1306,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1503,7 +1512,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1584,7 +1593,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1915,7 +1924,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2121,7 +2130,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2199,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2327,7 +2336,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2533,7 +2542,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2611,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -2945,7 +2954,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3151,7 +3160,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3357,7 +3366,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3435,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0.78</v>
@@ -3641,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
         <v>0.67</v>
@@ -3769,7 +3778,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3850,7 +3859,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ14">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3975,7 +3984,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4056,7 +4065,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ15">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR15">
         <v>1.44</v>
@@ -4593,7 +4602,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4671,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4799,7 +4808,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4880,7 +4889,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5292,7 +5301,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ21">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR21">
         <v>1.73</v>
@@ -5417,7 +5426,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5701,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ23">
         <v>0.5</v>
@@ -5829,7 +5838,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6035,7 +6044,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6113,10 +6122,10 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR25">
         <v>1.85</v>
@@ -6528,7 +6537,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ27">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR27">
         <v>1.37</v>
@@ -6653,7 +6662,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7065,7 +7074,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7271,7 +7280,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7352,7 +7361,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ31">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR31">
         <v>1.76</v>
@@ -7889,7 +7898,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8301,7 +8310,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8379,7 +8388,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8507,7 +8516,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8713,7 +8722,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8791,7 +8800,7 @@
         <v>1.67</v>
       </c>
       <c r="AP38">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -8919,7 +8928,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9000,7 +9009,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR39">
         <v>2.16</v>
@@ -9125,7 +9134,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9203,7 +9212,7 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>0.78</v>
@@ -9537,7 +9546,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9743,7 +9752,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -9821,10 +9830,10 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ43">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10233,7 +10242,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>0.75</v>
@@ -10361,7 +10370,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10854,7 +10863,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ48">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR48">
         <v>1.38</v>
@@ -10979,7 +10988,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11060,7 +11069,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ49">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR49">
         <v>1.86</v>
@@ -11185,7 +11194,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11391,7 +11400,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -12215,7 +12224,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12293,7 +12302,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ55">
         <v>1.38</v>
@@ -12421,7 +12430,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12502,7 +12511,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ56">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12911,7 +12920,7 @@
         <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>0.88</v>
@@ -13039,7 +13048,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13323,10 +13332,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ60">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR60">
         <v>1.68</v>
@@ -13735,7 +13744,7 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -13863,7 +13872,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -13944,7 +13953,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR63">
         <v>1.26</v>
@@ -14069,7 +14078,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14275,7 +14284,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14687,7 +14696,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14893,7 +14902,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15099,7 +15108,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15180,7 +15189,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ69">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR69">
         <v>1.54</v>
@@ -15305,7 +15314,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15383,10 +15392,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -15511,7 +15520,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15592,7 +15601,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
         <v>1.55</v>
@@ -15923,7 +15932,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -16001,7 +16010,7 @@
         <v>1.6</v>
       </c>
       <c r="AP73">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16416,7 +16425,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR75">
         <v>1.69</v>
@@ -16541,7 +16550,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16619,7 +16628,7 @@
         <v>0.6</v>
       </c>
       <c r="AP76">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ76">
         <v>0.88</v>
@@ -16825,7 +16834,7 @@
         <v>1.83</v>
       </c>
       <c r="AP77">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
         <v>1.38</v>
@@ -17571,7 +17580,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17652,7 +17661,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ81">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR81">
         <v>0.99</v>
@@ -17777,7 +17786,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -17855,10 +17864,10 @@
         <v>2.17</v>
       </c>
       <c r="AP82">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR82">
         <v>1.87</v>
@@ -17983,7 +17992,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18189,7 +18198,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18395,7 +18404,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>2.7</v>
@@ -18601,7 +18610,7 @@
         <v>120</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -18682,7 +18691,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ86">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR86">
         <v>1.52</v>
@@ -18807,7 +18816,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19091,7 +19100,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ88">
         <v>0.88</v>
@@ -19219,7 +19228,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19300,7 +19309,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ89">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR89">
         <v>1.82</v>
@@ -19425,7 +19434,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19709,7 +19718,7 @@
         <v>0.71</v>
       </c>
       <c r="AP91">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91">
         <v>0.78</v>
@@ -19837,7 +19846,7 @@
         <v>83</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q92">
         <v>4.2</v>
@@ -20043,7 +20052,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q93">
         <v>2.45</v>
@@ -20249,7 +20258,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20455,7 +20464,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -20661,7 +20670,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -20945,7 +20954,7 @@
         <v>1.29</v>
       </c>
       <c r="AP97">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>1.33</v>
@@ -21040,7 +21049,7 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45633.58333333334</v>
+        <v>45632.875</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -21073,7 +21082,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21237,7 +21246,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7487125</v>
+        <v>7487123</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21246,76 +21255,76 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45633.58333333334</v>
+        <v>45632.875</v>
       </c>
       <c r="F99">
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H99" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O99" t="s">
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q99">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="R99">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S99">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T99">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U99">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="V99">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="W99">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="X99">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="Y99">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="Z99">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="AA99">
-        <v>3.38</v>
+        <v>3.41</v>
       </c>
       <c r="AB99">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AC99">
         <v>1.05</v>
@@ -21324,94 +21333,94 @@
         <v>9.5</v>
       </c>
       <c r="AE99">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF99">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AG99">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="AH99">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AI99">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AJ99">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="AK99">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AL99">
         <v>1.25</v>
       </c>
       <c r="AM99">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AN99">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AO99">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AP99">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="AQ99">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR99">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AS99">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AT99">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="AU99">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV99">
         <v>7</v>
       </c>
       <c r="AW99">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY99">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ99">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD99">
-        <v>2.32</v>
+        <v>1.72</v>
       </c>
       <c r="BE99">
         <v>7.2</v>
       </c>
       <c r="BF99">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
       <c r="BG99">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="BH99">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="BI99">
         <v>1.28</v>
@@ -21426,16 +21435,16 @@
         <v>2.21</v>
       </c>
       <c r="BM99">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="BN99">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="BO99">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="BP99">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21443,7 +21452,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7487123</v>
+        <v>7487125</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21452,76 +21461,76 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45633.6875</v>
+        <v>45633.58333333334</v>
       </c>
       <c r="F100">
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H100" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
         <v>4</v>
-      </c>
-      <c r="N100">
-        <v>5</v>
       </c>
       <c r="O100" t="s">
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q100">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R100">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S100">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="T100">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U100">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="V100">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="W100">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X100">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="Y100">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="Z100">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="AA100">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="AB100">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AC100">
         <v>1.05</v>
@@ -21530,94 +21539,94 @@
         <v>9.5</v>
       </c>
       <c r="AE100">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF100">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AG100">
+        <v>1.77</v>
+      </c>
+      <c r="AH100">
+        <v>1.98</v>
+      </c>
+      <c r="AI100">
         <v>1.6</v>
       </c>
-      <c r="AH100">
-        <v>2.1</v>
-      </c>
-      <c r="AI100">
-        <v>1.5</v>
-      </c>
       <c r="AJ100">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AK100">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AL100">
         <v>1.25</v>
       </c>
       <c r="AM100">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AN100">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO100">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="AQ100">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR100">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AS100">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AT100">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="AU100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV100">
         <v>7</v>
       </c>
       <c r="AW100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY100">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ100">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA100">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC100">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD100">
-        <v>1.72</v>
+        <v>2.32</v>
       </c>
       <c r="BE100">
         <v>7.2</v>
       </c>
       <c r="BF100">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="BG100">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="BH100">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="BI100">
         <v>1.28</v>
@@ -21632,16 +21641,634 @@
         <v>2.21</v>
       </c>
       <c r="BM100">
+        <v>1.94</v>
+      </c>
+      <c r="BN100">
+        <v>1.77</v>
+      </c>
+      <c r="BO100">
+        <v>2.46</v>
+      </c>
+      <c r="BP100">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7487122</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45634.42708333334</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>162</v>
+      </c>
+      <c r="P101" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q101">
+        <v>2.65</v>
+      </c>
+      <c r="R101">
+        <v>2.15</v>
+      </c>
+      <c r="S101">
+        <v>3.75</v>
+      </c>
+      <c r="T101">
+        <v>1.37</v>
+      </c>
+      <c r="U101">
+        <v>2.85</v>
+      </c>
+      <c r="V101">
+        <v>2.7</v>
+      </c>
+      <c r="W101">
+        <v>1.41</v>
+      </c>
+      <c r="X101">
+        <v>6.45</v>
+      </c>
+      <c r="Y101">
+        <v>1.09</v>
+      </c>
+      <c r="Z101">
+        <v>1.95</v>
+      </c>
+      <c r="AA101">
+        <v>3.5</v>
+      </c>
+      <c r="AB101">
+        <v>3.3</v>
+      </c>
+      <c r="AC101">
+        <v>1.05</v>
+      </c>
+      <c r="AD101">
+        <v>9.5</v>
+      </c>
+      <c r="AE101">
+        <v>1.28</v>
+      </c>
+      <c r="AF101">
+        <v>3.5</v>
+      </c>
+      <c r="AG101">
+        <v>1.82</v>
+      </c>
+      <c r="AH101">
+        <v>1.92</v>
+      </c>
+      <c r="AI101">
+        <v>1.7</v>
+      </c>
+      <c r="AJ101">
+        <v>2.1</v>
+      </c>
+      <c r="AK101">
+        <v>1.3</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.75</v>
+      </c>
+      <c r="AN101">
+        <v>2.25</v>
+      </c>
+      <c r="AO101">
+        <v>1.75</v>
+      </c>
+      <c r="AP101">
+        <v>2.33</v>
+      </c>
+      <c r="AQ101">
+        <v>1.56</v>
+      </c>
+      <c r="AR101">
+        <v>1.77</v>
+      </c>
+      <c r="AS101">
+        <v>1.6</v>
+      </c>
+      <c r="AT101">
+        <v>3.37</v>
+      </c>
+      <c r="AU101">
+        <v>6</v>
+      </c>
+      <c r="AV101">
+        <v>2</v>
+      </c>
+      <c r="AW101">
+        <v>6</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>14</v>
+      </c>
+      <c r="AZ101">
+        <v>7</v>
+      </c>
+      <c r="BA101">
+        <v>6</v>
+      </c>
+      <c r="BB101">
+        <v>2</v>
+      </c>
+      <c r="BC101">
+        <v>8</v>
+      </c>
+      <c r="BD101">
+        <v>1.5</v>
+      </c>
+      <c r="BE101">
+        <v>6.4</v>
+      </c>
+      <c r="BF101">
+        <v>3.25</v>
+      </c>
+      <c r="BG101">
+        <v>1.15</v>
+      </c>
+      <c r="BH101">
+        <v>4.1</v>
+      </c>
+      <c r="BI101">
+        <v>1.32</v>
+      </c>
+      <c r="BJ101">
+        <v>2.78</v>
+      </c>
+      <c r="BK101">
+        <v>1.59</v>
+      </c>
+      <c r="BL101">
+        <v>2.1</v>
+      </c>
+      <c r="BM101">
+        <v>2.02</v>
+      </c>
+      <c r="BN101">
+        <v>1.71</v>
+      </c>
+      <c r="BO101">
+        <v>2.59</v>
+      </c>
+      <c r="BP101">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7487124</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45634.52083333334</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s">
+        <v>72</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>163</v>
+      </c>
+      <c r="P102" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q102">
+        <v>1.73</v>
+      </c>
+      <c r="R102">
+        <v>2.7</v>
+      </c>
+      <c r="S102">
+        <v>5.75</v>
+      </c>
+      <c r="T102">
+        <v>1.22</v>
+      </c>
+      <c r="U102">
+        <v>3.85</v>
+      </c>
+      <c r="V102">
+        <v>2.05</v>
+      </c>
+      <c r="W102">
+        <v>1.7</v>
+      </c>
+      <c r="X102">
+        <v>4.33</v>
+      </c>
+      <c r="Y102">
+        <v>1.2</v>
+      </c>
+      <c r="Z102">
+        <v>1.3</v>
+      </c>
+      <c r="AA102">
+        <v>5.6</v>
+      </c>
+      <c r="AB102">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>17</v>
+      </c>
+      <c r="AE102">
+        <v>1.12</v>
+      </c>
+      <c r="AF102">
+        <v>5.75</v>
+      </c>
+      <c r="AG102">
+        <v>1.4</v>
+      </c>
+      <c r="AH102">
+        <v>2.75</v>
+      </c>
+      <c r="AI102">
+        <v>1.67</v>
+      </c>
+      <c r="AJ102">
+        <v>2.05</v>
+      </c>
+      <c r="AK102">
+        <v>1.07</v>
+      </c>
+      <c r="AL102">
+        <v>1.1</v>
+      </c>
+      <c r="AM102">
+        <v>3.3</v>
+      </c>
+      <c r="AN102">
+        <v>2.13</v>
+      </c>
+      <c r="AO102">
+        <v>0.25</v>
+      </c>
+      <c r="AP102">
+        <v>2</v>
+      </c>
+      <c r="AQ102">
+        <v>0.33</v>
+      </c>
+      <c r="AR102">
         <v>1.93</v>
       </c>
-      <c r="BN100">
-        <v>1.78</v>
-      </c>
-      <c r="BO100">
+      <c r="AS102">
+        <v>1.1</v>
+      </c>
+      <c r="AT102">
+        <v>3.03</v>
+      </c>
+      <c r="AU102">
+        <v>4</v>
+      </c>
+      <c r="AV102">
+        <v>7</v>
+      </c>
+      <c r="AW102">
+        <v>5</v>
+      </c>
+      <c r="AX102">
+        <v>5</v>
+      </c>
+      <c r="AY102">
+        <v>14</v>
+      </c>
+      <c r="AZ102">
+        <v>17</v>
+      </c>
+      <c r="BA102">
+        <v>8</v>
+      </c>
+      <c r="BB102">
+        <v>5</v>
+      </c>
+      <c r="BC102">
+        <v>13</v>
+      </c>
+      <c r="BD102">
+        <v>1.15</v>
+      </c>
+      <c r="BE102">
+        <v>9</v>
+      </c>
+      <c r="BF102">
+        <v>6.8</v>
+      </c>
+      <c r="BG102">
+        <v>1.1</v>
+      </c>
+      <c r="BH102">
+        <v>4.85</v>
+      </c>
+      <c r="BI102">
+        <v>1.23</v>
+      </c>
+      <c r="BJ102">
+        <v>3.28</v>
+      </c>
+      <c r="BK102">
+        <v>1.44</v>
+      </c>
+      <c r="BL102">
         <v>2.43</v>
       </c>
-      <c r="BP100">
+      <c r="BM102">
+        <v>1.79</v>
+      </c>
+      <c r="BN102">
+        <v>1.92</v>
+      </c>
+      <c r="BO102">
+        <v>2.21</v>
+      </c>
+      <c r="BP102">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7487126</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45634.52083333334</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>80</v>
+      </c>
+      <c r="H103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>164</v>
+      </c>
+      <c r="P103" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q103">
+        <v>3.1</v>
+      </c>
+      <c r="R103">
+        <v>2.25</v>
+      </c>
+      <c r="S103">
+        <v>2.85</v>
+      </c>
+      <c r="T103">
+        <v>1.28</v>
+      </c>
+      <c r="U103">
+        <v>3.35</v>
+      </c>
+      <c r="V103">
+        <v>2.25</v>
+      </c>
+      <c r="W103">
+        <v>1.57</v>
+      </c>
+      <c r="X103">
+        <v>4.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.17</v>
+      </c>
+      <c r="Z103">
+        <v>2.83</v>
+      </c>
+      <c r="AA103">
+        <v>3.78</v>
+      </c>
+      <c r="AB103">
+        <v>2.29</v>
+      </c>
+      <c r="AC103">
+        <v>1.01</v>
+      </c>
+      <c r="AD103">
+        <v>13</v>
+      </c>
+      <c r="AE103">
+        <v>1.18</v>
+      </c>
+      <c r="AF103">
+        <v>4.75</v>
+      </c>
+      <c r="AG103">
+        <v>1.5</v>
+      </c>
+      <c r="AH103">
+        <v>2.4</v>
+      </c>
+      <c r="AI103">
         <v>1.44</v>
+      </c>
+      <c r="AJ103">
+        <v>2.55</v>
+      </c>
+      <c r="AK103">
+        <v>1.55</v>
+      </c>
+      <c r="AL103">
+        <v>1.22</v>
+      </c>
+      <c r="AM103">
+        <v>1.45</v>
+      </c>
+      <c r="AN103">
+        <v>1.63</v>
+      </c>
+      <c r="AO103">
+        <v>1.63</v>
+      </c>
+      <c r="AP103">
+        <v>1.56</v>
+      </c>
+      <c r="AQ103">
+        <v>1.56</v>
+      </c>
+      <c r="AR103">
+        <v>1.81</v>
+      </c>
+      <c r="AS103">
+        <v>1.77</v>
+      </c>
+      <c r="AT103">
+        <v>3.58</v>
+      </c>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>6</v>
+      </c>
+      <c r="AW103">
+        <v>6</v>
+      </c>
+      <c r="AX103">
+        <v>8</v>
+      </c>
+      <c r="AY103">
+        <v>14</v>
+      </c>
+      <c r="AZ103">
+        <v>14</v>
+      </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
+      <c r="BB103">
+        <v>3</v>
+      </c>
+      <c r="BC103">
+        <v>8</v>
+      </c>
+      <c r="BD103">
+        <v>1.75</v>
+      </c>
+      <c r="BE103">
+        <v>7.3</v>
+      </c>
+      <c r="BF103">
+        <v>2.35</v>
+      </c>
+      <c r="BG103">
+        <v>1.1</v>
+      </c>
+      <c r="BH103">
+        <v>4.85</v>
+      </c>
+      <c r="BI103">
+        <v>1.23</v>
+      </c>
+      <c r="BJ103">
+        <v>3.28</v>
+      </c>
+      <c r="BK103">
+        <v>1.45</v>
+      </c>
+      <c r="BL103">
+        <v>2.41</v>
+      </c>
+      <c r="BM103">
+        <v>1.88</v>
+      </c>
+      <c r="BN103">
+        <v>1.92</v>
+      </c>
+      <c r="BO103">
+        <v>2.24</v>
+      </c>
+      <c r="BP103">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -496,12 +496,12 @@
     <t>['55', '82', '88']</t>
   </si>
   <si>
+    <t>['14', '16', '29']</t>
+  </si>
+  <si>
     <t>['76']</t>
   </si>
   <si>
-    <t>['14', '16', '29']</t>
-  </si>
-  <si>
     <t>['15', '64', '73']</t>
   </si>
   <si>
@@ -679,10 +679,10 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['35', '38', '64', '90+8']</t>
-  </si>
-  <si>
-    <t>['90+4']</t>
   </si>
   <si>
     <t>['85']</t>
@@ -21049,7 +21049,7 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45632.875</v>
+        <v>45633.58333333334</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -21246,7 +21246,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7487123</v>
+        <v>7487125</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21255,34 +21255,34 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45632.875</v>
+        <v>45633.58333333334</v>
       </c>
       <c r="F99">
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H99" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
         <v>4</v>
-      </c>
-      <c r="N99">
-        <v>5</v>
       </c>
       <c r="O99" t="s">
         <v>160</v>
@@ -21291,40 +21291,40 @@
         <v>221</v>
       </c>
       <c r="Q99">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R99">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S99">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="T99">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U99">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="V99">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="W99">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X99">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="Y99">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="Z99">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="AA99">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="AB99">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AC99">
         <v>1.05</v>
@@ -21333,94 +21333,94 @@
         <v>9.5</v>
       </c>
       <c r="AE99">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF99">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AG99">
+        <v>1.77</v>
+      </c>
+      <c r="AH99">
+        <v>1.98</v>
+      </c>
+      <c r="AI99">
         <v>1.6</v>
       </c>
-      <c r="AH99">
-        <v>2.1</v>
-      </c>
-      <c r="AI99">
-        <v>1.5</v>
-      </c>
       <c r="AJ99">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AK99">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AL99">
         <v>1.25</v>
       </c>
       <c r="AM99">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AN99">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO99">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="AQ99">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR99">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AS99">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AT99">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="AU99">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV99">
         <v>7</v>
       </c>
       <c r="AW99">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY99">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ99">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA99">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC99">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD99">
-        <v>1.72</v>
+        <v>2.32</v>
       </c>
       <c r="BE99">
         <v>7.2</v>
       </c>
       <c r="BF99">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="BG99">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="BH99">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="BI99">
         <v>1.28</v>
@@ -21435,16 +21435,16 @@
         <v>2.21</v>
       </c>
       <c r="BM99">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="BN99">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="BO99">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="BP99">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21452,7 +21452,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7487125</v>
+        <v>7487123</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21461,34 +21461,34 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45633.58333333334</v>
+        <v>45633.6875</v>
       </c>
       <c r="F100">
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H100" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O100" t="s">
         <v>161</v>
@@ -21497,40 +21497,40 @@
         <v>222</v>
       </c>
       <c r="Q100">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="R100">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S100">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T100">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U100">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="V100">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="W100">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="X100">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="Y100">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="Z100">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="AA100">
-        <v>3.38</v>
+        <v>3.41</v>
       </c>
       <c r="AB100">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AC100">
         <v>1.05</v>
@@ -21539,94 +21539,94 @@
         <v>9.5</v>
       </c>
       <c r="AE100">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF100">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AG100">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="AH100">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AI100">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AJ100">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="AK100">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AL100">
         <v>1.25</v>
       </c>
       <c r="AM100">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AN100">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AO100">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AP100">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR100">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AS100">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AT100">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="AU100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV100">
         <v>7</v>
       </c>
       <c r="AW100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY100">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ100">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA100">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD100">
-        <v>2.32</v>
+        <v>1.72</v>
       </c>
       <c r="BE100">
         <v>7.2</v>
       </c>
       <c r="BF100">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
       <c r="BG100">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="BH100">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="BI100">
         <v>1.28</v>
@@ -21641,16 +21641,16 @@
         <v>2.21</v>
       </c>
       <c r="BM100">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="BN100">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="BO100">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="BP100">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="101" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['26', '34', '41']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -686,6 +689,12 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['3', '28', '90+2', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1315,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1387,7 +1396,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1512,7 +1521,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1590,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ3">
         <v>1.56</v>
@@ -1796,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1924,7 +1933,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2005,7 +2014,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2130,7 +2139,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2336,7 +2345,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2542,7 +2551,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2954,7 +2963,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3035,7 +3044,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3160,7 +3169,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3238,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3366,7 +3375,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3778,7 +3787,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3984,7 +3993,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4477,7 +4486,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4602,7 +4611,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4808,7 +4817,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5092,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ20">
         <v>0.78</v>
@@ -5426,7 +5435,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5504,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ22">
         <v>0.67</v>
@@ -5713,7 +5722,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR23">
         <v>1.97</v>
@@ -5838,7 +5847,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5919,7 +5928,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.94</v>
@@ -6044,7 +6053,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6662,7 +6671,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6743,7 +6752,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ28">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -6946,7 +6955,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ29">
         <v>0.78</v>
@@ -7074,7 +7083,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7152,10 +7161,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR30">
         <v>1.23</v>
@@ -7280,7 +7289,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7770,7 +7779,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ33">
         <v>1.38</v>
@@ -7898,7 +7907,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8185,7 +8194,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>2.41</v>
@@ -8310,7 +8319,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8516,7 +8525,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8722,7 +8731,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8803,7 +8812,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>1.76</v>
@@ -8928,7 +8937,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9006,7 +9015,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ39">
         <v>1.56</v>
@@ -9134,7 +9143,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9546,7 +9555,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9624,7 +9633,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ42">
         <v>0.67</v>
@@ -9752,7 +9761,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10036,7 +10045,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10370,7 +10379,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10451,7 +10460,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR46">
         <v>1.42</v>
@@ -10657,7 +10666,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR47">
         <v>1.94</v>
@@ -10988,7 +10997,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11194,7 +11203,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11400,7 +11409,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11684,10 +11693,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR52">
         <v>1.22</v>
@@ -12096,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ54">
         <v>0.67</v>
@@ -12224,7 +12233,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12430,7 +12439,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12717,7 +12726,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -12923,7 +12932,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -13048,7 +13057,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13126,7 +13135,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13538,7 +13547,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ61">
         <v>1.33</v>
@@ -13747,7 +13756,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -13872,7 +13881,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -13950,7 +13959,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ63">
         <v>1.56</v>
@@ -14078,7 +14087,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14284,7 +14293,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14696,7 +14705,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14902,7 +14911,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14980,7 +14989,7 @@
         <v>0.4</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ68">
         <v>0.75</v>
@@ -15108,7 +15117,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15314,7 +15323,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15520,7 +15529,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15932,7 +15941,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -16013,7 +16022,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16422,7 +16431,7 @@
         <v>0.17</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ75">
         <v>0.33</v>
@@ -16550,7 +16559,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16631,7 +16640,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ76">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -17249,7 +17258,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ79">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR79">
         <v>1.77</v>
@@ -17452,7 +17461,7 @@
         <v>0.83</v>
       </c>
       <c r="AP80">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ80">
         <v>0.75</v>
@@ -17580,7 +17589,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17658,7 +17667,7 @@
         <v>1.43</v>
       </c>
       <c r="AP81">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ81">
         <v>1.56</v>
@@ -17786,7 +17795,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -17992,7 +18001,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18073,7 +18082,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR83">
         <v>1.44</v>
@@ -18198,7 +18207,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18404,7 +18413,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>2.7</v>
@@ -18610,7 +18619,7 @@
         <v>120</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -18816,7 +18825,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19103,7 +19112,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ88">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR88">
         <v>1.77</v>
@@ -19434,7 +19443,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19512,7 +19521,7 @@
         <v>1.57</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ90">
         <v>1.38</v>
@@ -19846,7 +19855,7 @@
         <v>83</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>4.2</v>
@@ -19924,10 +19933,10 @@
         <v>1.29</v>
       </c>
       <c r="AP92">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>0.95</v>
@@ -20052,7 +20061,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>2.45</v>
@@ -20130,7 +20139,7 @@
         <v>0.71</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ93">
         <v>0.75</v>
@@ -20258,7 +20267,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20339,7 +20348,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ94">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR94">
         <v>1.49</v>
@@ -20464,7 +20473,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -20542,10 +20551,10 @@
         <v>0.57</v>
       </c>
       <c r="AP95">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ95">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR95">
         <v>1.3</v>
@@ -20670,7 +20679,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21082,7 +21091,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21288,7 +21297,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>3.3</v>
@@ -21494,7 +21503,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21906,7 +21915,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22112,7 +22121,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22269,6 +22278,624 @@
       </c>
       <c r="BP103">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7487132</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45640.58333333334</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>71</v>
+      </c>
+      <c r="H104" t="s">
+        <v>77</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>83</v>
+      </c>
+      <c r="P104" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q104">
+        <v>4.2</v>
+      </c>
+      <c r="R104">
+        <v>2.1</v>
+      </c>
+      <c r="S104">
+        <v>2.5</v>
+      </c>
+      <c r="T104">
+        <v>1.39</v>
+      </c>
+      <c r="U104">
+        <v>2.8</v>
+      </c>
+      <c r="V104">
+        <v>2.8</v>
+      </c>
+      <c r="W104">
+        <v>1.39</v>
+      </c>
+      <c r="X104">
+        <v>6.95</v>
+      </c>
+      <c r="Y104">
+        <v>1.07</v>
+      </c>
+      <c r="Z104">
+        <v>3.6</v>
+      </c>
+      <c r="AA104">
+        <v>3.55</v>
+      </c>
+      <c r="AB104">
+        <v>1.91</v>
+      </c>
+      <c r="AC104">
+        <v>1.05</v>
+      </c>
+      <c r="AD104">
+        <v>9</v>
+      </c>
+      <c r="AE104">
+        <v>1.3</v>
+      </c>
+      <c r="AF104">
+        <v>3.3</v>
+      </c>
+      <c r="AG104">
+        <v>1.86</v>
+      </c>
+      <c r="AH104">
+        <v>2</v>
+      </c>
+      <c r="AI104">
+        <v>1.8</v>
+      </c>
+      <c r="AJ104">
+        <v>1.95</v>
+      </c>
+      <c r="AK104">
+        <v>1.85</v>
+      </c>
+      <c r="AL104">
+        <v>1.22</v>
+      </c>
+      <c r="AM104">
+        <v>1.2</v>
+      </c>
+      <c r="AN104">
+        <v>1.25</v>
+      </c>
+      <c r="AO104">
+        <v>0.88</v>
+      </c>
+      <c r="AP104">
+        <v>1.11</v>
+      </c>
+      <c r="AQ104">
+        <v>1.11</v>
+      </c>
+      <c r="AR104">
+        <v>0.93</v>
+      </c>
+      <c r="AS104">
+        <v>1.38</v>
+      </c>
+      <c r="AT104">
+        <v>2.31</v>
+      </c>
+      <c r="AU104">
+        <v>3</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>10</v>
+      </c>
+      <c r="AX104">
+        <v>5</v>
+      </c>
+      <c r="AY104">
+        <v>14</v>
+      </c>
+      <c r="AZ104">
+        <v>15</v>
+      </c>
+      <c r="BA104">
+        <v>4</v>
+      </c>
+      <c r="BB104">
+        <v>5</v>
+      </c>
+      <c r="BC104">
+        <v>9</v>
+      </c>
+      <c r="BD104">
+        <v>3.06</v>
+      </c>
+      <c r="BE104">
+        <v>9</v>
+      </c>
+      <c r="BF104">
+        <v>1.51</v>
+      </c>
+      <c r="BG104">
+        <v>1.2</v>
+      </c>
+      <c r="BH104">
+        <v>4.2</v>
+      </c>
+      <c r="BI104">
+        <v>1.38</v>
+      </c>
+      <c r="BJ104">
+        <v>2.88</v>
+      </c>
+      <c r="BK104">
+        <v>1.63</v>
+      </c>
+      <c r="BL104">
+        <v>2.18</v>
+      </c>
+      <c r="BM104">
+        <v>2.02</v>
+      </c>
+      <c r="BN104">
+        <v>1.74</v>
+      </c>
+      <c r="BO104">
+        <v>2.57</v>
+      </c>
+      <c r="BP104">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7487129</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45640.58333333334</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" t="s">
+        <v>75</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
+      <c r="K105">
+        <v>5</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <v>7</v>
+      </c>
+      <c r="O105" t="s">
+        <v>165</v>
+      </c>
+      <c r="P105" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q105">
+        <v>3.7</v>
+      </c>
+      <c r="R105">
+        <v>2.2</v>
+      </c>
+      <c r="S105">
+        <v>2.5</v>
+      </c>
+      <c r="T105">
+        <v>1.3</v>
+      </c>
+      <c r="U105">
+        <v>3.2</v>
+      </c>
+      <c r="V105">
+        <v>2.35</v>
+      </c>
+      <c r="W105">
+        <v>1.53</v>
+      </c>
+      <c r="X105">
+        <v>5</v>
+      </c>
+      <c r="Y105">
+        <v>1.14</v>
+      </c>
+      <c r="Z105">
+        <v>3.25</v>
+      </c>
+      <c r="AA105">
+        <v>3.65</v>
+      </c>
+      <c r="AB105">
+        <v>2.02</v>
+      </c>
+      <c r="AC105">
+        <v>1.04</v>
+      </c>
+      <c r="AD105">
+        <v>10</v>
+      </c>
+      <c r="AE105">
+        <v>1.2</v>
+      </c>
+      <c r="AF105">
+        <v>4.33</v>
+      </c>
+      <c r="AG105">
+        <v>1.61</v>
+      </c>
+      <c r="AH105">
+        <v>2.32</v>
+      </c>
+      <c r="AI105">
+        <v>1.5</v>
+      </c>
+      <c r="AJ105">
+        <v>2.35</v>
+      </c>
+      <c r="AK105">
+        <v>1.77</v>
+      </c>
+      <c r="AL105">
+        <v>1.22</v>
+      </c>
+      <c r="AM105">
+        <v>1.3</v>
+      </c>
+      <c r="AN105">
+        <v>1.25</v>
+      </c>
+      <c r="AO105">
+        <v>1.5</v>
+      </c>
+      <c r="AP105">
+        <v>1.11</v>
+      </c>
+      <c r="AQ105">
+        <v>1.67</v>
+      </c>
+      <c r="AR105">
+        <v>1.23</v>
+      </c>
+      <c r="AS105">
+        <v>1.5</v>
+      </c>
+      <c r="AT105">
+        <v>2.73</v>
+      </c>
+      <c r="AU105">
+        <v>6</v>
+      </c>
+      <c r="AV105">
+        <v>13</v>
+      </c>
+      <c r="AW105">
+        <v>5</v>
+      </c>
+      <c r="AX105">
+        <v>13</v>
+      </c>
+      <c r="AY105">
+        <v>17</v>
+      </c>
+      <c r="AZ105">
+        <v>29</v>
+      </c>
+      <c r="BA105">
+        <v>7</v>
+      </c>
+      <c r="BB105">
+        <v>8</v>
+      </c>
+      <c r="BC105">
+        <v>15</v>
+      </c>
+      <c r="BD105">
+        <v>2.62</v>
+      </c>
+      <c r="BE105">
+        <v>8.5</v>
+      </c>
+      <c r="BF105">
+        <v>1.69</v>
+      </c>
+      <c r="BG105">
+        <v>1.23</v>
+      </c>
+      <c r="BH105">
+        <v>3.92</v>
+      </c>
+      <c r="BI105">
+        <v>1.42</v>
+      </c>
+      <c r="BJ105">
+        <v>2.73</v>
+      </c>
+      <c r="BK105">
+        <v>1.69</v>
+      </c>
+      <c r="BL105">
+        <v>2.09</v>
+      </c>
+      <c r="BM105">
+        <v>2.11</v>
+      </c>
+      <c r="BN105">
+        <v>1.68</v>
+      </c>
+      <c r="BO105">
+        <v>2.72</v>
+      </c>
+      <c r="BP105">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7487127</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45640.6875</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s">
+        <v>78</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>83</v>
+      </c>
+      <c r="P106" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q106">
+        <v>2.15</v>
+      </c>
+      <c r="R106">
+        <v>2.3</v>
+      </c>
+      <c r="S106">
+        <v>4.5</v>
+      </c>
+      <c r="T106">
+        <v>1.3</v>
+      </c>
+      <c r="U106">
+        <v>3.2</v>
+      </c>
+      <c r="V106">
+        <v>2.38</v>
+      </c>
+      <c r="W106">
+        <v>1.53</v>
+      </c>
+      <c r="X106">
+        <v>5.4</v>
+      </c>
+      <c r="Y106">
+        <v>1.12</v>
+      </c>
+      <c r="Z106">
+        <v>1.6</v>
+      </c>
+      <c r="AA106">
+        <v>3.95</v>
+      </c>
+      <c r="AB106">
+        <v>4.95</v>
+      </c>
+      <c r="AC106">
+        <v>1.04</v>
+      </c>
+      <c r="AD106">
+        <v>10</v>
+      </c>
+      <c r="AE106">
+        <v>1.2</v>
+      </c>
+      <c r="AF106">
+        <v>4.33</v>
+      </c>
+      <c r="AG106">
+        <v>1.64</v>
+      </c>
+      <c r="AH106">
+        <v>2.26</v>
+      </c>
+      <c r="AI106">
+        <v>1.62</v>
+      </c>
+      <c r="AJ106">
+        <v>2.1</v>
+      </c>
+      <c r="AK106">
+        <v>1.17</v>
+      </c>
+      <c r="AL106">
+        <v>1.18</v>
+      </c>
+      <c r="AM106">
+        <v>2.2</v>
+      </c>
+      <c r="AN106">
+        <v>2</v>
+      </c>
+      <c r="AO106">
+        <v>0.5</v>
+      </c>
+      <c r="AP106">
+        <v>1.78</v>
+      </c>
+      <c r="AQ106">
+        <v>0.78</v>
+      </c>
+      <c r="AR106">
+        <v>1.73</v>
+      </c>
+      <c r="AS106">
+        <v>1.38</v>
+      </c>
+      <c r="AT106">
+        <v>3.11</v>
+      </c>
+      <c r="AU106">
+        <v>7</v>
+      </c>
+      <c r="AV106">
+        <v>5</v>
+      </c>
+      <c r="AW106">
+        <v>9</v>
+      </c>
+      <c r="AX106">
+        <v>6</v>
+      </c>
+      <c r="AY106">
+        <v>24</v>
+      </c>
+      <c r="AZ106">
+        <v>13</v>
+      </c>
+      <c r="BA106">
+        <v>6</v>
+      </c>
+      <c r="BB106">
+        <v>2</v>
+      </c>
+      <c r="BC106">
+        <v>8</v>
+      </c>
+      <c r="BD106">
+        <v>1.75</v>
+      </c>
+      <c r="BE106">
+        <v>8</v>
+      </c>
+      <c r="BF106">
+        <v>2.44</v>
+      </c>
+      <c r="BG106">
+        <v>1.25</v>
+      </c>
+      <c r="BH106">
+        <v>3.75</v>
+      </c>
+      <c r="BI106">
+        <v>1.45</v>
+      </c>
+      <c r="BJ106">
+        <v>2.63</v>
+      </c>
+      <c r="BK106">
+        <v>1.74</v>
+      </c>
+      <c r="BL106">
+        <v>2.02</v>
+      </c>
+      <c r="BM106">
+        <v>2.19</v>
+      </c>
+      <c r="BN106">
+        <v>1.63</v>
+      </c>
+      <c r="BO106">
+        <v>2.82</v>
+      </c>
+      <c r="BP106">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,12 @@
     <t>['26', '34', '41']</t>
   </si>
   <si>
+    <t>['37', '46']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -695,6 +701,15 @@
   </si>
   <si>
     <t>['3', '28', '90+2', '90+3']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['33', '88']</t>
+  </si>
+  <si>
+    <t>['10', '45+2', '85', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1330,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1393,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ2">
         <v>0.78</v>
@@ -1521,7 +1536,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1808,7 +1823,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1933,7 +1948,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2011,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ5">
         <v>1.11</v>
@@ -2139,7 +2154,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2345,7 +2360,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2426,7 +2441,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2551,7 +2566,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2838,7 +2853,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2963,7 +2978,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3169,7 +3184,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3375,7 +3390,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3787,7 +3802,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3865,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ14">
         <v>0.33</v>
@@ -3993,7 +4008,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4277,10 +4292,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ16">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR16">
         <v>2.11</v>
@@ -4611,7 +4626,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4692,7 +4707,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR18">
         <v>1.45</v>
@@ -4817,7 +4832,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4895,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ19">
         <v>1.56</v>
@@ -5435,7 +5450,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5847,7 +5862,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5925,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6053,7 +6068,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6337,10 +6352,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>3.42</v>
@@ -6671,7 +6686,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7083,7 +7098,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7289,7 +7304,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7573,10 +7588,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ32">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -7782,7 +7797,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ33">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -7907,7 +7922,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7985,10 +8000,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8191,7 +8206,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ35">
         <v>1.67</v>
@@ -8319,7 +8334,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8525,7 +8540,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8606,7 +8621,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ37">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR37">
         <v>1.38</v>
@@ -8731,7 +8746,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8937,7 +8952,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9143,7 +9158,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9555,7 +9570,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9761,7 +9776,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10048,7 +10063,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR44">
         <v>1.17</v>
@@ -10254,7 +10269,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>2.03</v>
@@ -10379,7 +10394,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10457,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ46">
         <v>0.78</v>
@@ -10663,7 +10678,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47">
         <v>1.11</v>
@@ -10997,7 +11012,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11075,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ49">
         <v>0.33</v>
@@ -11203,7 +11218,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11284,7 +11299,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.66</v>
@@ -11409,7 +11424,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11899,7 +11914,7 @@
         <v>2.33</v>
       </c>
       <c r="AP53">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -12233,7 +12248,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12314,7 +12329,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ55">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR55">
         <v>1.62</v>
@@ -12439,7 +12454,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12723,7 +12738,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ57">
         <v>1.67</v>
@@ -13057,7 +13072,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13138,7 +13153,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR59">
         <v>1.76</v>
@@ -13881,7 +13896,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -14087,7 +14102,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14293,7 +14308,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14374,7 +14389,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR65">
         <v>1.56</v>
@@ -14577,7 +14592,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ66">
         <v>0.67</v>
@@ -14705,7 +14720,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14783,10 +14798,10 @@
         <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR67">
         <v>1.55</v>
@@ -14911,7 +14926,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14992,7 +15007,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.02</v>
@@ -15117,7 +15132,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15323,7 +15338,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15529,7 +15544,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15607,7 +15622,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ71">
         <v>1.56</v>
@@ -15941,7 +15956,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -16225,7 +16240,7 @@
         <v>0.67</v>
       </c>
       <c r="AP74">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16559,7 +16574,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16846,7 +16861,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR77">
         <v>1.84</v>
@@ -17049,7 +17064,7 @@
         <v>0.83</v>
       </c>
       <c r="AP78">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ78">
         <v>0.78</v>
@@ -17464,7 +17479,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ80">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.35</v>
@@ -17589,7 +17604,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17795,7 +17810,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -18001,7 +18016,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>2.8</v>
@@ -18207,7 +18222,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18288,7 +18303,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR84">
         <v>1.54</v>
@@ -18413,7 +18428,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>2.7</v>
@@ -18491,7 +18506,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -18619,7 +18634,7 @@
         <v>120</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -18825,7 +18840,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -19315,7 +19330,7 @@
         <v>2</v>
       </c>
       <c r="AP89">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ89">
         <v>1.56</v>
@@ -19443,7 +19458,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19524,7 +19539,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ90">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR90">
         <v>1.8</v>
@@ -19855,7 +19870,7 @@
         <v>83</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>4.2</v>
@@ -20061,7 +20076,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>2.45</v>
@@ -20142,7 +20157,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ93">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.84</v>
@@ -20267,7 +20282,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>2.38</v>
@@ -20345,7 +20360,7 @@
         <v>0.43</v>
       </c>
       <c r="AP94">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ94">
         <v>0.78</v>
@@ -20473,7 +20488,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>4.33</v>
@@ -20679,7 +20694,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -20757,10 +20772,10 @@
         <v>1.14</v>
       </c>
       <c r="AP96">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR96">
         <v>1.72</v>
@@ -21091,7 +21106,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21297,7 +21312,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>3.3</v>
@@ -21503,7 +21518,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -21915,7 +21930,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22121,7 +22136,7 @@
         <v>164</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22327,7 +22342,7 @@
         <v>83</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>4.2</v>
@@ -22533,7 +22548,7 @@
         <v>165</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q105">
         <v>3.7</v>
@@ -22895,6 +22910,624 @@
         <v>2.82</v>
       </c>
       <c r="BP106">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7487130</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45641.42708333334</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>166</v>
+      </c>
+      <c r="P107" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q107">
+        <v>2.7</v>
+      </c>
+      <c r="R107">
+        <v>2.25</v>
+      </c>
+      <c r="S107">
+        <v>3.3</v>
+      </c>
+      <c r="T107">
+        <v>1.28</v>
+      </c>
+      <c r="U107">
+        <v>3.3</v>
+      </c>
+      <c r="V107">
+        <v>2.25</v>
+      </c>
+      <c r="W107">
+        <v>1.57</v>
+      </c>
+      <c r="X107">
+        <v>4.75</v>
+      </c>
+      <c r="Y107">
+        <v>1.15</v>
+      </c>
+      <c r="Z107">
+        <v>2.12</v>
+      </c>
+      <c r="AA107">
+        <v>3.8</v>
+      </c>
+      <c r="AB107">
+        <v>2.9</v>
+      </c>
+      <c r="AC107">
+        <v>1.04</v>
+      </c>
+      <c r="AD107">
+        <v>10</v>
+      </c>
+      <c r="AE107">
+        <v>1.18</v>
+      </c>
+      <c r="AF107">
+        <v>4.75</v>
+      </c>
+      <c r="AG107">
+        <v>1.53</v>
+      </c>
+      <c r="AH107">
+        <v>2.35</v>
+      </c>
+      <c r="AI107">
+        <v>1.45</v>
+      </c>
+      <c r="AJ107">
+        <v>2.5</v>
+      </c>
+      <c r="AK107">
+        <v>1.38</v>
+      </c>
+      <c r="AL107">
+        <v>1.22</v>
+      </c>
+      <c r="AM107">
+        <v>1.62</v>
+      </c>
+      <c r="AN107">
+        <v>1.75</v>
+      </c>
+      <c r="AO107">
+        <v>1.38</v>
+      </c>
+      <c r="AP107">
+        <v>1.89</v>
+      </c>
+      <c r="AQ107">
+        <v>1.22</v>
+      </c>
+      <c r="AR107">
+        <v>1.85</v>
+      </c>
+      <c r="AS107">
+        <v>1.57</v>
+      </c>
+      <c r="AT107">
+        <v>3.42</v>
+      </c>
+      <c r="AU107">
+        <v>9</v>
+      </c>
+      <c r="AV107">
+        <v>6</v>
+      </c>
+      <c r="AW107">
+        <v>4</v>
+      </c>
+      <c r="AX107">
+        <v>2</v>
+      </c>
+      <c r="AY107">
+        <v>22</v>
+      </c>
+      <c r="AZ107">
+        <v>10</v>
+      </c>
+      <c r="BA107">
+        <v>10</v>
+      </c>
+      <c r="BB107">
+        <v>3</v>
+      </c>
+      <c r="BC107">
+        <v>13</v>
+      </c>
+      <c r="BD107">
+        <v>1.95</v>
+      </c>
+      <c r="BE107">
+        <v>8.5</v>
+      </c>
+      <c r="BF107">
+        <v>2.1</v>
+      </c>
+      <c r="BG107">
+        <v>1.17</v>
+      </c>
+      <c r="BH107">
+        <v>4.7</v>
+      </c>
+      <c r="BI107">
+        <v>1.31</v>
+      </c>
+      <c r="BJ107">
+        <v>3.25</v>
+      </c>
+      <c r="BK107">
+        <v>1.54</v>
+      </c>
+      <c r="BL107">
+        <v>2.38</v>
+      </c>
+      <c r="BM107">
+        <v>1.87</v>
+      </c>
+      <c r="BN107">
+        <v>1.87</v>
+      </c>
+      <c r="BO107">
+        <v>2.35</v>
+      </c>
+      <c r="BP107">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7487131</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45641.52083333334</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s">
+        <v>80</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>83</v>
+      </c>
+      <c r="P108" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q108">
+        <v>2.75</v>
+      </c>
+      <c r="R108">
+        <v>2.15</v>
+      </c>
+      <c r="S108">
+        <v>3.45</v>
+      </c>
+      <c r="T108">
+        <v>1.33</v>
+      </c>
+      <c r="U108">
+        <v>3</v>
+      </c>
+      <c r="V108">
+        <v>2.5</v>
+      </c>
+      <c r="W108">
+        <v>1.48</v>
+      </c>
+      <c r="X108">
+        <v>5.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.12</v>
+      </c>
+      <c r="Z108">
+        <v>2.18</v>
+      </c>
+      <c r="AA108">
+        <v>3.3</v>
+      </c>
+      <c r="AB108">
+        <v>2.9</v>
+      </c>
+      <c r="AC108">
+        <v>1.05</v>
+      </c>
+      <c r="AD108">
+        <v>9.5</v>
+      </c>
+      <c r="AE108">
+        <v>1.22</v>
+      </c>
+      <c r="AF108">
+        <v>4</v>
+      </c>
+      <c r="AG108">
+        <v>1.67</v>
+      </c>
+      <c r="AH108">
+        <v>2</v>
+      </c>
+      <c r="AI108">
+        <v>1.55</v>
+      </c>
+      <c r="AJ108">
+        <v>2.25</v>
+      </c>
+      <c r="AK108">
+        <v>1.36</v>
+      </c>
+      <c r="AL108">
+        <v>1.25</v>
+      </c>
+      <c r="AM108">
+        <v>1.62</v>
+      </c>
+      <c r="AN108">
+        <v>1.63</v>
+      </c>
+      <c r="AO108">
+        <v>1</v>
+      </c>
+      <c r="AP108">
+        <v>1.44</v>
+      </c>
+      <c r="AQ108">
+        <v>1.22</v>
+      </c>
+      <c r="AR108">
+        <v>1.41</v>
+      </c>
+      <c r="AS108">
+        <v>1.46</v>
+      </c>
+      <c r="AT108">
+        <v>2.87</v>
+      </c>
+      <c r="AU108">
+        <v>4</v>
+      </c>
+      <c r="AV108">
+        <v>4</v>
+      </c>
+      <c r="AW108">
+        <v>4</v>
+      </c>
+      <c r="AX108">
+        <v>2</v>
+      </c>
+      <c r="AY108">
+        <v>15</v>
+      </c>
+      <c r="AZ108">
+        <v>7</v>
+      </c>
+      <c r="BA108">
+        <v>6</v>
+      </c>
+      <c r="BB108">
+        <v>5</v>
+      </c>
+      <c r="BC108">
+        <v>11</v>
+      </c>
+      <c r="BD108">
+        <v>1.91</v>
+      </c>
+      <c r="BE108">
+        <v>8</v>
+      </c>
+      <c r="BF108">
+        <v>2.1</v>
+      </c>
+      <c r="BG108">
+        <v>1.2</v>
+      </c>
+      <c r="BH108">
+        <v>4.2</v>
+      </c>
+      <c r="BI108">
+        <v>1.38</v>
+      </c>
+      <c r="BJ108">
+        <v>2.88</v>
+      </c>
+      <c r="BK108">
+        <v>1.63</v>
+      </c>
+      <c r="BL108">
+        <v>2.18</v>
+      </c>
+      <c r="BM108">
+        <v>2.02</v>
+      </c>
+      <c r="BN108">
+        <v>1.74</v>
+      </c>
+      <c r="BO108">
+        <v>2.57</v>
+      </c>
+      <c r="BP108">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7487128</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45641.52083333334</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>70</v>
+      </c>
+      <c r="H109" t="s">
+        <v>74</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>5</v>
+      </c>
+      <c r="O109" t="s">
+        <v>167</v>
+      </c>
+      <c r="P109" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q109">
+        <v>2.5</v>
+      </c>
+      <c r="R109">
+        <v>2.2</v>
+      </c>
+      <c r="S109">
+        <v>3.75</v>
+      </c>
+      <c r="T109">
+        <v>1.3</v>
+      </c>
+      <c r="U109">
+        <v>3.2</v>
+      </c>
+      <c r="V109">
+        <v>2.38</v>
+      </c>
+      <c r="W109">
+        <v>1.53</v>
+      </c>
+      <c r="X109">
+        <v>5</v>
+      </c>
+      <c r="Y109">
+        <v>1.14</v>
+      </c>
+      <c r="Z109">
+        <v>2.05</v>
+      </c>
+      <c r="AA109">
+        <v>3.4</v>
+      </c>
+      <c r="AB109">
+        <v>3.2</v>
+      </c>
+      <c r="AC109">
+        <v>1.04</v>
+      </c>
+      <c r="AD109">
+        <v>10</v>
+      </c>
+      <c r="AE109">
+        <v>1.2</v>
+      </c>
+      <c r="AF109">
+        <v>4.33</v>
+      </c>
+      <c r="AG109">
+        <v>1.61</v>
+      </c>
+      <c r="AH109">
+        <v>2.05</v>
+      </c>
+      <c r="AI109">
+        <v>1.53</v>
+      </c>
+      <c r="AJ109">
+        <v>2.3</v>
+      </c>
+      <c r="AK109">
+        <v>1.3</v>
+      </c>
+      <c r="AL109">
+        <v>1.22</v>
+      </c>
+      <c r="AM109">
+        <v>1.75</v>
+      </c>
+      <c r="AN109">
+        <v>2.38</v>
+      </c>
+      <c r="AO109">
+        <v>0.75</v>
+      </c>
+      <c r="AP109">
+        <v>2.11</v>
+      </c>
+      <c r="AQ109">
+        <v>1</v>
+      </c>
+      <c r="AR109">
+        <v>1.89</v>
+      </c>
+      <c r="AS109">
+        <v>1.6</v>
+      </c>
+      <c r="AT109">
+        <v>3.49</v>
+      </c>
+      <c r="AU109">
+        <v>6</v>
+      </c>
+      <c r="AV109">
+        <v>9</v>
+      </c>
+      <c r="AW109">
+        <v>8</v>
+      </c>
+      <c r="AX109">
+        <v>3</v>
+      </c>
+      <c r="AY109">
+        <v>20</v>
+      </c>
+      <c r="AZ109">
+        <v>15</v>
+      </c>
+      <c r="BA109">
+        <v>8</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
+        <v>12</v>
+      </c>
+      <c r="BD109">
+        <v>1.91</v>
+      </c>
+      <c r="BE109">
+        <v>8</v>
+      </c>
+      <c r="BF109">
+        <v>2.2</v>
+      </c>
+      <c r="BG109">
+        <v>1.25</v>
+      </c>
+      <c r="BH109">
+        <v>3.75</v>
+      </c>
+      <c r="BI109">
+        <v>1.45</v>
+      </c>
+      <c r="BJ109">
+        <v>2.63</v>
+      </c>
+      <c r="BK109">
+        <v>1.74</v>
+      </c>
+      <c r="BL109">
+        <v>2.02</v>
+      </c>
+      <c r="BM109">
+        <v>2.19</v>
+      </c>
+      <c r="BN109">
+        <v>1.63</v>
+      </c>
+      <c r="BO109">
+        <v>2.82</v>
+      </c>
+      <c r="BP109">
         <v>1.4</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -337,25 +337,25 @@
     <t>['8', '55']</t>
   </si>
   <si>
-    <t>['49', '82']</t>
+    <t>['26']</t>
   </si>
   <si>
-    <t>['26']</t>
+    <t>['49', '82']</t>
   </si>
   <si>
     <t>['45+3']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
-    <t>['56']</t>
+    <t>['20', '31']</t>
   </si>
   <si>
     <t>['23', '54']</t>
-  </si>
-  <si>
-    <t>['20', '31']</t>
   </si>
   <si>
     <t>['2', '20', '56']</t>
@@ -382,10 +382,10 @@
     <t>['73', '81']</t>
   </si>
   <si>
-    <t>['30', '80']</t>
+    <t>['81']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['30', '80']</t>
   </si>
   <si>
     <t>['87']</t>
@@ -490,10 +490,10 @@
     <t>['1']</t>
   </si>
   <si>
-    <t>['23', '26', '90+6']</t>
+    <t>['55', '82', '88']</t>
   </si>
   <si>
-    <t>['55', '82', '88']</t>
+    <t>['23', '26', '90+6']</t>
   </si>
   <si>
     <t>['14', '16', '29']</t>
@@ -571,10 +571,10 @@
     <t>['59']</t>
   </si>
   <si>
-    <t>['3']</t>
+    <t>['5']</t>
   </si>
   <si>
-    <t>['5']</t>
+    <t>['3']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -583,10 +583,10 @@
     <t>['39', '77']</t>
   </si>
   <si>
-    <t>['34', '45+11']</t>
+    <t>['56', '80', '88']</t>
   </si>
   <si>
-    <t>['56', '80', '88']</t>
+    <t>['34', '45+11']</t>
   </si>
   <si>
     <t>['31', '55']</t>
@@ -607,10 +607,10 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['8', '18']</t>
+    <t>['40']</t>
   </si>
   <si>
-    <t>['40']</t>
+    <t>['8', '18']</t>
   </si>
   <si>
     <t>['46']</t>
@@ -667,10 +667,10 @@
     <t>['33']</t>
   </si>
   <si>
-    <t>['90+1']</t>
+    <t>['34']</t>
   </si>
   <si>
-    <t>['34']</t>
+    <t>['90+1']</t>
   </si>
   <si>
     <t>['55']</t>
@@ -697,19 +697,19 @@
     <t>['85']</t>
   </si>
   <si>
-    <t>['24']</t>
+    <t>['3', '28', '90+2', '90+3']</t>
   </si>
   <si>
-    <t>['3', '28', '90+2', '90+3']</t>
+    <t>['24']</t>
   </si>
   <si>
     <t>['6']</t>
   </si>
   <si>
-    <t>['33', '88']</t>
+    <t>['10', '45+2', '85', '90+5']</t>
   </si>
   <si>
-    <t>['10', '45+2', '85', '90+5']</t>
+    <t>['33', '88']</t>
   </si>
 </sst>
 </file>
@@ -6026,7 +6026,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7467081</v>
+        <v>7467082</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -6041,43 +6041,43 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" t="s">
         <v>83</v>
       </c>
-      <c r="P25" t="s">
-        <v>183</v>
-      </c>
       <c r="Q25">
+        <v>2.5</v>
+      </c>
+      <c r="R25">
         <v>2.3</v>
       </c>
-      <c r="R25">
-        <v>2.4</v>
-      </c>
       <c r="S25">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T25">
         <v>1.3</v>
@@ -6086,10 +6086,10 @@
         <v>3.4</v>
       </c>
       <c r="V25">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W25">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
         <v>6</v>
@@ -6098,13 +6098,13 @@
         <v>1.13</v>
       </c>
       <c r="Z25">
-        <v>1.69</v>
+        <v>2.14</v>
       </c>
       <c r="AA25">
-        <v>4.02</v>
+        <v>3.48</v>
       </c>
       <c r="AB25">
-        <v>4.53</v>
+        <v>3.28</v>
       </c>
       <c r="AC25">
         <v>1.04</v>
@@ -6116,13 +6116,13 @@
         <v>1.2</v>
       </c>
       <c r="AF25">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="AG25">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="AH25">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="AI25">
         <v>1.62</v>
@@ -6131,100 +6131,100 @@
         <v>2.2</v>
       </c>
       <c r="AK25">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AL25">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AM25">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AN25">
         <v>3</v>
       </c>
       <c r="AO25">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AQ25">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AR25">
+        <v>3.42</v>
+      </c>
+      <c r="AS25">
+        <v>0.88</v>
+      </c>
+      <c r="AT25">
+        <v>4.3</v>
+      </c>
+      <c r="AU25">
+        <v>4</v>
+      </c>
+      <c r="AV25">
+        <v>3</v>
+      </c>
+      <c r="AW25">
+        <v>7</v>
+      </c>
+      <c r="AX25">
+        <v>7</v>
+      </c>
+      <c r="AY25">
+        <v>13</v>
+      </c>
+      <c r="AZ25">
+        <v>14</v>
+      </c>
+      <c r="BA25">
+        <v>6</v>
+      </c>
+      <c r="BB25">
+        <v>8</v>
+      </c>
+      <c r="BC25">
+        <v>14</v>
+      </c>
+      <c r="BD25">
+        <v>1.53</v>
+      </c>
+      <c r="BE25">
+        <v>7.2</v>
+      </c>
+      <c r="BF25">
+        <v>3.41</v>
+      </c>
+      <c r="BG25">
+        <v>1.18</v>
+      </c>
+      <c r="BH25">
+        <v>4.05</v>
+      </c>
+      <c r="BI25">
+        <v>1.36</v>
+      </c>
+      <c r="BJ25">
+        <v>2.78</v>
+      </c>
+      <c r="BK25">
+        <v>1.95</v>
+      </c>
+      <c r="BL25">
         <v>1.85</v>
       </c>
-      <c r="AS25">
-        <v>1.29</v>
-      </c>
-      <c r="AT25">
-        <v>3.14</v>
-      </c>
-      <c r="AU25">
-        <v>8</v>
-      </c>
-      <c r="AV25">
-        <v>11</v>
-      </c>
-      <c r="AW25">
-        <v>9</v>
-      </c>
-      <c r="AX25">
-        <v>6</v>
-      </c>
-      <c r="AY25">
-        <v>21</v>
-      </c>
-      <c r="AZ25">
-        <v>21</v>
-      </c>
-      <c r="BA25">
-        <v>11</v>
-      </c>
-      <c r="BB25">
-        <v>5</v>
-      </c>
-      <c r="BC25">
-        <v>16</v>
-      </c>
-      <c r="BD25">
-        <v>1.3</v>
-      </c>
-      <c r="BE25">
-        <v>8.5</v>
-      </c>
-      <c r="BF25">
-        <v>5.1</v>
-      </c>
-      <c r="BG25">
-        <v>1.13</v>
-      </c>
-      <c r="BH25">
-        <v>4.75</v>
-      </c>
-      <c r="BI25">
-        <v>1.28</v>
-      </c>
-      <c r="BJ25">
-        <v>3.18</v>
-      </c>
-      <c r="BK25">
-        <v>1.56</v>
-      </c>
-      <c r="BL25">
-        <v>2.36</v>
-      </c>
       <c r="BM25">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BN25">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BO25">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="BP25">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6232,7 +6232,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7467082</v>
+        <v>7467081</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6247,43 +6247,43 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O26" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="Q26">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R26">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T26">
         <v>1.3</v>
@@ -6292,10 +6292,10 @@
         <v>3.4</v>
       </c>
       <c r="V26">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W26">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X26">
         <v>6</v>
@@ -6304,13 +6304,13 @@
         <v>1.13</v>
       </c>
       <c r="Z26">
-        <v>2.14</v>
+        <v>1.69</v>
       </c>
       <c r="AA26">
-        <v>3.48</v>
+        <v>4.02</v>
       </c>
       <c r="AB26">
-        <v>3.28</v>
+        <v>4.53</v>
       </c>
       <c r="AC26">
         <v>1.04</v>
@@ -6322,13 +6322,13 @@
         <v>1.2</v>
       </c>
       <c r="AF26">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="AG26">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="AH26">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="AI26">
         <v>1.62</v>
@@ -6337,100 +6337,100 @@
         <v>2.2</v>
       </c>
       <c r="AK26">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AL26">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AM26">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AN26">
         <v>3</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR26">
-        <v>3.42</v>
+        <v>1.85</v>
       </c>
       <c r="AS26">
-        <v>0.88</v>
+        <v>1.29</v>
       </c>
       <c r="AT26">
-        <v>4.3</v>
+        <v>3.14</v>
       </c>
       <c r="AU26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY26">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ26">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA26">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BB26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD26">
+        <v>1.3</v>
+      </c>
+      <c r="BE26">
+        <v>8.5</v>
+      </c>
+      <c r="BF26">
+        <v>5.1</v>
+      </c>
+      <c r="BG26">
+        <v>1.13</v>
+      </c>
+      <c r="BH26">
+        <v>4.75</v>
+      </c>
+      <c r="BI26">
+        <v>1.28</v>
+      </c>
+      <c r="BJ26">
+        <v>3.18</v>
+      </c>
+      <c r="BK26">
+        <v>1.56</v>
+      </c>
+      <c r="BL26">
+        <v>2.36</v>
+      </c>
+      <c r="BM26">
+        <v>2</v>
+      </c>
+      <c r="BN26">
+        <v>1.8</v>
+      </c>
+      <c r="BO26">
+        <v>2.42</v>
+      </c>
+      <c r="BP26">
         <v>1.53</v>
-      </c>
-      <c r="BE26">
-        <v>7.2</v>
-      </c>
-      <c r="BF26">
-        <v>3.41</v>
-      </c>
-      <c r="BG26">
-        <v>1.18</v>
-      </c>
-      <c r="BH26">
-        <v>4.05</v>
-      </c>
-      <c r="BI26">
-        <v>1.36</v>
-      </c>
-      <c r="BJ26">
-        <v>2.78</v>
-      </c>
-      <c r="BK26">
-        <v>1.95</v>
-      </c>
-      <c r="BL26">
-        <v>1.85</v>
-      </c>
-      <c r="BM26">
-        <v>2.1</v>
-      </c>
-      <c r="BN26">
-        <v>1.7</v>
-      </c>
-      <c r="BO26">
-        <v>2.76</v>
-      </c>
-      <c r="BP26">
-        <v>1.39</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -7056,7 +7056,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7467089</v>
+        <v>7467088</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -7071,28 +7071,28 @@
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" t="s">
         <v>107</v>
@@ -7101,109 +7101,109 @@
         <v>185</v>
       </c>
       <c r="Q30">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AM30">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AN30">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="AQ30">
-        <v>0.78</v>
+        <v>1.56</v>
       </c>
       <c r="AR30">
-        <v>1.23</v>
+        <v>1.76</v>
       </c>
       <c r="AS30">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="AT30">
-        <v>2.42</v>
+        <v>3.39</v>
       </c>
       <c r="AU30">
         <v>4</v>
       </c>
       <c r="AV30">
+        <v>7</v>
+      </c>
+      <c r="AW30">
         <v>4</v>
-      </c>
-      <c r="AW30">
-        <v>3</v>
       </c>
       <c r="AX30">
         <v>4</v>
       </c>
       <c r="AY30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ30">
         <v>11</v>
@@ -7212,49 +7212,49 @@
         <v>3</v>
       </c>
       <c r="BB30">
+        <v>2</v>
+      </c>
+      <c r="BC30">
         <v>5</v>
       </c>
-      <c r="BC30">
-        <v>8</v>
-      </c>
       <c r="BD30">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="BE30">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="BF30">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="BG30">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="BH30">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="BI30">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BJ30">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BK30">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="BL30">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="BM30">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BN30">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BO30">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BP30">
-        <v>1.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7262,7 +7262,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7467088</v>
+        <v>7467089</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7277,28 +7277,28 @@
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
         <v>108</v>
@@ -7307,109 +7307,109 @@
         <v>186</v>
       </c>
       <c r="Q31">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0.5</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
         <v>1.11</v>
       </c>
-      <c r="Z31">
-        <v>999.99</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>999.99</v>
-      </c>
-      <c r="AC31">
-        <v>1.02</v>
-      </c>
-      <c r="AD31">
-        <v>10</v>
-      </c>
-      <c r="AE31">
-        <v>1.22</v>
-      </c>
-      <c r="AF31">
-        <v>3.8</v>
-      </c>
-      <c r="AG31">
-        <v>1.65</v>
-      </c>
-      <c r="AH31">
-        <v>2.17</v>
-      </c>
-      <c r="AI31">
-        <v>1.57</v>
-      </c>
-      <c r="AJ31">
-        <v>2.25</v>
-      </c>
-      <c r="AK31">
-        <v>1.57</v>
-      </c>
-      <c r="AL31">
-        <v>1.3</v>
-      </c>
-      <c r="AM31">
-        <v>1.44</v>
-      </c>
-      <c r="AN31">
-        <v>3</v>
-      </c>
-      <c r="AO31">
-        <v>2</v>
-      </c>
-      <c r="AP31">
-        <v>1.78</v>
-      </c>
       <c r="AQ31">
-        <v>1.56</v>
+        <v>0.78</v>
       </c>
       <c r="AR31">
-        <v>1.76</v>
+        <v>1.23</v>
       </c>
       <c r="AS31">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AT31">
-        <v>3.39</v>
+        <v>2.42</v>
       </c>
       <c r="AU31">
         <v>4</v>
       </c>
       <c r="AV31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX31">
         <v>4</v>
       </c>
       <c r="AY31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ31">
         <v>11</v>
@@ -7418,49 +7418,49 @@
         <v>3</v>
       </c>
       <c r="BB31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD31">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BE31">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="BF31">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="BG31">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="BH31">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="BI31">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BJ31">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="BK31">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BL31">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="BM31">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="BN31">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BO31">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="BP31">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7513,73 +7513,73 @@
         <v>84</v>
       </c>
       <c r="Q32">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AA32">
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>5.55</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AM32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN32">
         <v>0.5</v>
@@ -7630,43 +7630,43 @@
         <v>7</v>
       </c>
       <c r="BD32">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="BE32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF32">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="BG32">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="BH32">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="BI32">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="BJ32">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="BK32">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BL32">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="BM32">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BN32">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="BO32">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="BP32">
-        <v>1.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7880,7 +7880,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7467092</v>
+        <v>7467093</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7895,19 +7895,19 @@
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7922,163 +7922,163 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="Q34">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="R34">
+        <v>2.4</v>
+      </c>
+      <c r="S34">
+        <v>4</v>
+      </c>
+      <c r="T34">
+        <v>1.29</v>
+      </c>
+      <c r="U34">
+        <v>3.5</v>
+      </c>
+      <c r="V34">
         <v>2.38</v>
       </c>
-      <c r="S34">
-        <v>3.2</v>
-      </c>
-      <c r="T34">
-        <v>1.25</v>
-      </c>
-      <c r="U34">
-        <v>3.6</v>
-      </c>
-      <c r="V34">
-        <v>2.15</v>
-      </c>
       <c r="W34">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X34">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y34">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="Z34">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AA34">
         <v>3.75</v>
       </c>
       <c r="AB34">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="AC34">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD34">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE34">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AF34">
-        <v>5.45</v>
+        <v>4.6</v>
       </c>
       <c r="AG34">
+        <v>1.55</v>
+      </c>
+      <c r="AH34">
+        <v>2.3</v>
+      </c>
+      <c r="AI34">
+        <v>1.53</v>
+      </c>
+      <c r="AJ34">
+        <v>2.38</v>
+      </c>
+      <c r="AK34">
+        <v>1.28</v>
+      </c>
+      <c r="AL34">
+        <v>1.25</v>
+      </c>
+      <c r="AM34">
+        <v>1.91</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>2</v>
+      </c>
+      <c r="AP34">
         <v>1.44</v>
       </c>
-      <c r="AH34">
-        <v>2.6</v>
-      </c>
-      <c r="AI34">
-        <v>1.44</v>
-      </c>
-      <c r="AJ34">
-        <v>2.63</v>
-      </c>
-      <c r="AK34">
-        <v>1.35</v>
-      </c>
-      <c r="AL34">
-        <v>1.27</v>
-      </c>
-      <c r="AM34">
+      <c r="AQ34">
+        <v>1.67</v>
+      </c>
+      <c r="AR34">
+        <v>2.41</v>
+      </c>
+      <c r="AS34">
+        <v>1.45</v>
+      </c>
+      <c r="AT34">
+        <v>3.86</v>
+      </c>
+      <c r="AU34">
+        <v>2</v>
+      </c>
+      <c r="AV34">
+        <v>6</v>
+      </c>
+      <c r="AW34">
+        <v>4</v>
+      </c>
+      <c r="AX34">
+        <v>4</v>
+      </c>
+      <c r="AY34">
+        <v>8</v>
+      </c>
+      <c r="AZ34">
+        <v>14</v>
+      </c>
+      <c r="BA34">
+        <v>3</v>
+      </c>
+      <c r="BB34">
+        <v>5</v>
+      </c>
+      <c r="BC34">
+        <v>8</v>
+      </c>
+      <c r="BD34">
         <v>1.62</v>
       </c>
-      <c r="AN34">
-        <v>2</v>
-      </c>
-      <c r="AO34">
-        <v>1.5</v>
-      </c>
-      <c r="AP34">
-        <v>2.11</v>
-      </c>
-      <c r="AQ34">
-        <v>1.22</v>
-      </c>
-      <c r="AR34">
-        <v>1.92</v>
-      </c>
-      <c r="AS34">
-        <v>1.6</v>
-      </c>
-      <c r="AT34">
-        <v>3.52</v>
-      </c>
-      <c r="AU34">
-        <v>7</v>
-      </c>
-      <c r="AV34">
-        <v>7</v>
-      </c>
-      <c r="AW34">
-        <v>2</v>
-      </c>
-      <c r="AX34">
-        <v>5</v>
-      </c>
-      <c r="AY34">
-        <v>11</v>
-      </c>
-      <c r="AZ34">
-        <v>15</v>
-      </c>
-      <c r="BA34">
-        <v>7</v>
-      </c>
-      <c r="BB34">
-        <v>2</v>
-      </c>
-      <c r="BC34">
-        <v>9</v>
-      </c>
-      <c r="BD34">
-        <v>1.75</v>
-      </c>
       <c r="BE34">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="BF34">
-        <v>2.3</v>
+        <v>2.49</v>
       </c>
       <c r="BG34">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH34">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="BI34">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BJ34">
         <v>3.1</v>
       </c>
       <c r="BK34">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="BL34">
-        <v>2.34</v>
+        <v>2.39</v>
       </c>
       <c r="BM34">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="BN34">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BO34">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BP34">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -8086,7 +8086,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7467093</v>
+        <v>7467092</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -8101,19 +8101,19 @@
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -8128,163 +8128,163 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="Q35">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="R35">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="T35">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U35">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="V35">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="W35">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X35">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y35">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="Z35">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="AA35">
         <v>3.75</v>
       </c>
       <c r="AB35">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="AC35">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD35">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AE35">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AF35">
-        <v>4.6</v>
+        <v>5.45</v>
       </c>
       <c r="AG35">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AH35">
+        <v>2.6</v>
+      </c>
+      <c r="AI35">
+        <v>1.44</v>
+      </c>
+      <c r="AJ35">
+        <v>2.63</v>
+      </c>
+      <c r="AK35">
+        <v>1.35</v>
+      </c>
+      <c r="AL35">
+        <v>1.27</v>
+      </c>
+      <c r="AM35">
+        <v>1.62</v>
+      </c>
+      <c r="AN35">
+        <v>2</v>
+      </c>
+      <c r="AO35">
+        <v>1.5</v>
+      </c>
+      <c r="AP35">
+        <v>2.11</v>
+      </c>
+      <c r="AQ35">
+        <v>1.22</v>
+      </c>
+      <c r="AR35">
+        <v>1.92</v>
+      </c>
+      <c r="AS35">
+        <v>1.6</v>
+      </c>
+      <c r="AT35">
+        <v>3.52</v>
+      </c>
+      <c r="AU35">
+        <v>7</v>
+      </c>
+      <c r="AV35">
+        <v>7</v>
+      </c>
+      <c r="AW35">
+        <v>2</v>
+      </c>
+      <c r="AX35">
+        <v>5</v>
+      </c>
+      <c r="AY35">
+        <v>11</v>
+      </c>
+      <c r="AZ35">
+        <v>15</v>
+      </c>
+      <c r="BA35">
+        <v>7</v>
+      </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>9</v>
+      </c>
+      <c r="BD35">
+        <v>1.75</v>
+      </c>
+      <c r="BE35">
+        <v>8.5</v>
+      </c>
+      <c r="BF35">
         <v>2.3</v>
       </c>
-      <c r="AI35">
-        <v>1.53</v>
-      </c>
-      <c r="AJ35">
-        <v>2.38</v>
-      </c>
-      <c r="AK35">
-        <v>1.28</v>
-      </c>
-      <c r="AL35">
-        <v>1.25</v>
-      </c>
-      <c r="AM35">
-        <v>1.91</v>
-      </c>
-      <c r="AN35">
-        <v>3</v>
-      </c>
-      <c r="AO35">
-        <v>2</v>
-      </c>
-      <c r="AP35">
-        <v>1.44</v>
-      </c>
-      <c r="AQ35">
-        <v>1.67</v>
-      </c>
-      <c r="AR35">
-        <v>2.41</v>
-      </c>
-      <c r="AS35">
-        <v>1.45</v>
-      </c>
-      <c r="AT35">
-        <v>3.86</v>
-      </c>
-      <c r="AU35">
-        <v>2</v>
-      </c>
-      <c r="AV35">
-        <v>6</v>
-      </c>
-      <c r="AW35">
-        <v>4</v>
-      </c>
-      <c r="AX35">
-        <v>4</v>
-      </c>
-      <c r="AY35">
-        <v>8</v>
-      </c>
-      <c r="AZ35">
-        <v>14</v>
-      </c>
-      <c r="BA35">
-        <v>3</v>
-      </c>
-      <c r="BB35">
-        <v>5</v>
-      </c>
-      <c r="BC35">
-        <v>8</v>
-      </c>
-      <c r="BD35">
-        <v>1.62</v>
-      </c>
-      <c r="BE35">
-        <v>8.1</v>
-      </c>
-      <c r="BF35">
-        <v>2.49</v>
-      </c>
       <c r="BG35">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH35">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="BI35">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BJ35">
         <v>3.1</v>
       </c>
       <c r="BK35">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="BL35">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="BM35">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="BN35">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BO35">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BP35">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8498,7 +8498,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7467094</v>
+        <v>7467095</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8513,28 +8513,28 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
         <v>3</v>
       </c>
-      <c r="L37">
-        <v>2</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
       <c r="N37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O37" t="s">
         <v>112</v>
@@ -8543,160 +8543,160 @@
         <v>189</v>
       </c>
       <c r="Q37">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="R37">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S37">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T37">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U37">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V37">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W37">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X37">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y37">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="Z37">
+        <v>1.87</v>
+      </c>
+      <c r="AA37">
+        <v>3.75</v>
+      </c>
+      <c r="AB37">
         <v>3.6</v>
-      </c>
-      <c r="AA37">
-        <v>3.5</v>
-      </c>
-      <c r="AB37">
-        <v>1.95</v>
       </c>
       <c r="AC37">
         <v>1.01</v>
       </c>
       <c r="AD37">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE37">
+        <v>1.12</v>
+      </c>
+      <c r="AF37">
+        <v>5.1</v>
+      </c>
+      <c r="AG37">
+        <v>1.55</v>
+      </c>
+      <c r="AH37">
+        <v>2.3</v>
+      </c>
+      <c r="AI37">
+        <v>1.44</v>
+      </c>
+      <c r="AJ37">
+        <v>2.63</v>
+      </c>
+      <c r="AK37">
         <v>1.22</v>
       </c>
-      <c r="AF37">
+      <c r="AL37">
+        <v>1.2</v>
+      </c>
+      <c r="AM37">
+        <v>1.87</v>
+      </c>
+      <c r="AN37">
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <v>1.67</v>
+      </c>
+      <c r="AP37">
+        <v>1.56</v>
+      </c>
+      <c r="AQ37">
+        <v>1.67</v>
+      </c>
+      <c r="AR37">
+        <v>1.76</v>
+      </c>
+      <c r="AS37">
+        <v>1.41</v>
+      </c>
+      <c r="AT37">
+        <v>3.17</v>
+      </c>
+      <c r="AU37">
         <v>4</v>
       </c>
-      <c r="AG37">
-        <v>1.7</v>
-      </c>
-      <c r="AH37">
-        <v>2.05</v>
-      </c>
-      <c r="AI37">
-        <v>1.67</v>
-      </c>
-      <c r="AJ37">
-        <v>2.1</v>
-      </c>
-      <c r="AK37">
-        <v>1.8</v>
-      </c>
-      <c r="AL37">
-        <v>1.22</v>
-      </c>
-      <c r="AM37">
-        <v>1.3</v>
-      </c>
-      <c r="AN37">
-        <v>1.33</v>
-      </c>
-      <c r="AO37">
-        <v>2</v>
-      </c>
-      <c r="AP37">
-        <v>0.89</v>
-      </c>
-      <c r="AQ37">
-        <v>1.22</v>
-      </c>
-      <c r="AR37">
-        <v>1.38</v>
-      </c>
-      <c r="AS37">
-        <v>1.52</v>
-      </c>
-      <c r="AT37">
-        <v>2.9</v>
-      </c>
-      <c r="AU37">
-        <v>9</v>
-      </c>
       <c r="AV37">
+        <v>8</v>
+      </c>
+      <c r="AW37">
         <v>6</v>
       </c>
-      <c r="AW37">
-        <v>7</v>
-      </c>
       <c r="AX37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY37">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ37">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB37">
         <v>4</v>
       </c>
       <c r="BC37">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD37">
-        <v>2.47</v>
+        <v>1.65</v>
       </c>
       <c r="BE37">
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="BF37">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="BG37">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="BH37">
-        <v>4.25</v>
+        <v>5.6</v>
       </c>
       <c r="BI37">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BJ37">
-        <v>2.92</v>
+        <v>3.7</v>
       </c>
       <c r="BK37">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="BL37">
-        <v>2.25</v>
+        <v>2.77</v>
       </c>
       <c r="BM37">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="BN37">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="BO37">
-        <v>2.51</v>
+        <v>2.13</v>
       </c>
       <c r="BP37">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8704,7 +8704,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7467095</v>
+        <v>7467094</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8719,28 +8719,28 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L38">
         <v>2</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O38" t="s">
         <v>113</v>
@@ -8749,160 +8749,160 @@
         <v>190</v>
       </c>
       <c r="Q38">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="R38">
+        <v>2.3</v>
+      </c>
+      <c r="S38">
         <v>2.5</v>
       </c>
-      <c r="S38">
-        <v>3.75</v>
-      </c>
       <c r="T38">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U38">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V38">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="W38">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="X38">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Y38">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="Z38">
-        <v>1.87</v>
+        <v>3.6</v>
       </c>
       <c r="AA38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AB38">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="AC38">
         <v>1.01</v>
       </c>
       <c r="AD38">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE38">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AF38">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="AG38">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AH38">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AI38">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AJ38">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="AK38">
+        <v>1.8</v>
+      </c>
+      <c r="AL38">
         <v>1.22</v>
       </c>
-      <c r="AL38">
-        <v>1.2</v>
-      </c>
       <c r="AM38">
-        <v>1.87</v>
+        <v>1.3</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO38">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.56</v>
+        <v>0.89</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="AR38">
-        <v>1.76</v>
+        <v>1.38</v>
       </c>
       <c r="AS38">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="AT38">
-        <v>3.17</v>
+        <v>2.9</v>
       </c>
       <c r="AU38">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW38">
+        <v>7</v>
+      </c>
+      <c r="AX38">
         <v>6</v>
       </c>
-      <c r="AX38">
-        <v>4</v>
-      </c>
       <c r="AY38">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ38">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA38">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB38">
         <v>4</v>
       </c>
       <c r="BC38">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD38">
-        <v>1.65</v>
+        <v>2.47</v>
       </c>
       <c r="BE38">
-        <v>9</v>
+        <v>6.75</v>
       </c>
       <c r="BF38">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="BG38">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="BH38">
-        <v>5.6</v>
+        <v>4.25</v>
       </c>
       <c r="BI38">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="BJ38">
-        <v>3.7</v>
+        <v>2.92</v>
       </c>
       <c r="BK38">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="BL38">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="BM38">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="BN38">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="BO38">
-        <v>2.13</v>
+        <v>2.51</v>
       </c>
       <c r="BP38">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -11176,7 +11176,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7467106</v>
+        <v>7467107</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11191,28 +11191,28 @@
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O50" t="s">
         <v>122</v>
@@ -11221,160 +11221,160 @@
         <v>197</v>
       </c>
       <c r="Q50">
-        <v>2.64</v>
+        <v>2.09</v>
       </c>
       <c r="R50">
-        <v>2.53</v>
+        <v>2.49</v>
       </c>
       <c r="S50">
-        <v>3.5</v>
+        <v>5.43</v>
       </c>
       <c r="T50">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U50">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="V50">
-        <v>2.23</v>
+        <v>2.51</v>
       </c>
       <c r="W50">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="X50">
-        <v>4.85</v>
+        <v>5.8</v>
       </c>
       <c r="Y50">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="Z50">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AA50">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AB50">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="AC50">
         <v>1.01</v>
       </c>
       <c r="AD50">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE50">
         <v>1.17</v>
       </c>
       <c r="AF50">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AG50">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="AH50">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="AI50">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AJ50">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="AK50">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AL50">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM50">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="AN50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO50">
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AR50">
-        <v>1.66</v>
+        <v>1.38</v>
       </c>
       <c r="AS50">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT50">
-        <v>2.99</v>
+        <v>2.61</v>
       </c>
       <c r="AU50">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV50">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW50">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AX50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY50">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AZ50">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="BA50">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BB50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC50">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BD50">
-        <v>1.82</v>
+        <v>1.34</v>
       </c>
       <c r="BE50">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="BF50">
-        <v>2.33</v>
+        <v>3.86</v>
       </c>
       <c r="BG50">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="BH50">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="BI50">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="BJ50">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="BK50">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="BL50">
-        <v>2.51</v>
+        <v>2</v>
       </c>
       <c r="BM50">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="BN50">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="BO50">
-        <v>2.27</v>
+        <v>2.75</v>
       </c>
       <c r="BP50">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11382,7 +11382,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7467107</v>
+        <v>7467106</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11397,28 +11397,28 @@
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O51" t="s">
         <v>123</v>
@@ -11427,160 +11427,160 @@
         <v>198</v>
       </c>
       <c r="Q51">
-        <v>2.09</v>
+        <v>2.64</v>
       </c>
       <c r="R51">
-        <v>2.49</v>
+        <v>2.53</v>
       </c>
       <c r="S51">
-        <v>5.43</v>
+        <v>3.5</v>
       </c>
       <c r="T51">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U51">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="V51">
-        <v>2.51</v>
+        <v>2.23</v>
       </c>
       <c r="W51">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="X51">
-        <v>5.8</v>
+        <v>4.85</v>
       </c>
       <c r="Y51">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="Z51">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AA51">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AB51">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="AC51">
         <v>1.01</v>
       </c>
       <c r="AD51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE51">
         <v>1.17</v>
       </c>
       <c r="AF51">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AG51">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AH51">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="AI51">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AJ51">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="AK51">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AL51">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM51">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="AN51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO51">
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="AQ51">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR51">
-        <v>1.38</v>
+        <v>1.66</v>
       </c>
       <c r="AS51">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>2.61</v>
+        <v>2.99</v>
       </c>
       <c r="AU51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV51">
+        <v>8</v>
+      </c>
+      <c r="AW51">
         <v>3</v>
       </c>
-      <c r="AW51">
-        <v>9</v>
-      </c>
       <c r="AX51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY51">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AZ51">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="BA51">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BB51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC51">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BD51">
-        <v>1.34</v>
+        <v>1.82</v>
       </c>
       <c r="BE51">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="BF51">
-        <v>3.86</v>
+        <v>2.33</v>
       </c>
       <c r="BG51">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="BH51">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="BI51">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="BJ51">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="BK51">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="BL51">
-        <v>2</v>
+        <v>2.51</v>
       </c>
       <c r="BM51">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="BN51">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="BO51">
-        <v>2.75</v>
+        <v>2.27</v>
       </c>
       <c r="BP51">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11836,7 +11836,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q53">
         <v>2.85</v>
@@ -18592,7 +18592,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7487110</v>
+        <v>7487113</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18604,22 +18604,22 @@
         <v>45619.58333333334</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -18631,25 +18631,25 @@
         <v>2</v>
       </c>
       <c r="O86" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="P86" t="s">
         <v>217</v>
       </c>
       <c r="Q86">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="R86">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S86">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="T86">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U86">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V86">
         <v>2.5</v>
@@ -18658,100 +18658,100 @@
         <v>1.5</v>
       </c>
       <c r="X86">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y86">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z86">
+        <v>6.31</v>
+      </c>
+      <c r="AA86">
+        <v>3.21</v>
+      </c>
+      <c r="AB86">
+        <v>1.56</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>11</v>
+      </c>
+      <c r="AE86">
+        <v>1.18</v>
+      </c>
+      <c r="AF86">
+        <v>4.5</v>
+      </c>
+      <c r="AG86">
+        <v>1.55</v>
+      </c>
+      <c r="AH86">
+        <v>2.3</v>
+      </c>
+      <c r="AI86">
         <v>1.53</v>
       </c>
-      <c r="AA86">
-        <v>3.92</v>
-      </c>
-      <c r="AB86">
-        <v>5</v>
-      </c>
-      <c r="AC86">
-        <v>1.04</v>
-      </c>
-      <c r="AD86">
-        <v>10</v>
-      </c>
-      <c r="AE86">
-        <v>1.2</v>
-      </c>
-      <c r="AF86">
-        <v>4.2</v>
-      </c>
-      <c r="AG86">
-        <v>1.65</v>
-      </c>
-      <c r="AH86">
-        <v>2.1</v>
-      </c>
-      <c r="AI86">
-        <v>1.73</v>
-      </c>
       <c r="AJ86">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AK86">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="AL86">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AM86">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="AN86">
-        <v>0.86</v>
+        <v>1.86</v>
       </c>
       <c r="AO86">
-        <v>0.14</v>
+        <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>0.89</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR86">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="AS86">
-        <v>1.1</v>
+        <v>1.68</v>
       </c>
       <c r="AT86">
-        <v>2.62</v>
+        <v>3.38</v>
       </c>
       <c r="AU86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW86">
+        <v>3</v>
+      </c>
+      <c r="AX86">
+        <v>3</v>
+      </c>
+      <c r="AY86">
         <v>7</v>
-      </c>
-      <c r="AX86">
-        <v>2</v>
-      </c>
-      <c r="AY86">
-        <v>13</v>
       </c>
       <c r="AZ86">
         <v>6</v>
       </c>
       <c r="BA86">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB86">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BC86">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BD86">
         <v>0</v>
@@ -18775,22 +18775,22 @@
         <v>0</v>
       </c>
       <c r="BK86">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="BL86">
-        <v>2.19</v>
+        <v>2.58</v>
       </c>
       <c r="BM86">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="BN86">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="BO86">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="BP86">
-        <v>0</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18798,7 +18798,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7487113</v>
+        <v>7487110</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18810,22 +18810,22 @@
         <v>45619.58333333334</v>
       </c>
       <c r="F87">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -18837,25 +18837,25 @@
         <v>2</v>
       </c>
       <c r="O87" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="P87" t="s">
         <v>218</v>
       </c>
       <c r="Q87">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R87">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S87">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="T87">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U87">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V87">
         <v>2.5</v>
@@ -18864,100 +18864,100 @@
         <v>1.5</v>
       </c>
       <c r="X87">
+        <v>6.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.11</v>
+      </c>
+      <c r="Z87">
+        <v>1.53</v>
+      </c>
+      <c r="AA87">
+        <v>3.92</v>
+      </c>
+      <c r="AB87">
+        <v>5</v>
+      </c>
+      <c r="AC87">
+        <v>1.04</v>
+      </c>
+      <c r="AD87">
+        <v>10</v>
+      </c>
+      <c r="AE87">
+        <v>1.2</v>
+      </c>
+      <c r="AF87">
+        <v>4.2</v>
+      </c>
+      <c r="AG87">
+        <v>1.65</v>
+      </c>
+      <c r="AH87">
+        <v>2.1</v>
+      </c>
+      <c r="AI87">
+        <v>1.73</v>
+      </c>
+      <c r="AJ87">
+        <v>2</v>
+      </c>
+      <c r="AK87">
+        <v>1.11</v>
+      </c>
+      <c r="AL87">
+        <v>1.18</v>
+      </c>
+      <c r="AM87">
+        <v>2.3</v>
+      </c>
+      <c r="AN87">
+        <v>0.86</v>
+      </c>
+      <c r="AO87">
+        <v>0.14</v>
+      </c>
+      <c r="AP87">
+        <v>0.89</v>
+      </c>
+      <c r="AQ87">
+        <v>0.33</v>
+      </c>
+      <c r="AR87">
+        <v>1.52</v>
+      </c>
+      <c r="AS87">
+        <v>1.1</v>
+      </c>
+      <c r="AT87">
+        <v>2.62</v>
+      </c>
+      <c r="AU87">
         <v>6</v>
       </c>
-      <c r="Y87">
-        <v>1.13</v>
-      </c>
-      <c r="Z87">
-        <v>6.31</v>
-      </c>
-      <c r="AA87">
-        <v>3.21</v>
-      </c>
-      <c r="AB87">
-        <v>1.56</v>
-      </c>
-      <c r="AC87">
-        <v>1.03</v>
-      </c>
-      <c r="AD87">
-        <v>11</v>
-      </c>
-      <c r="AE87">
-        <v>1.18</v>
-      </c>
-      <c r="AF87">
-        <v>4.5</v>
-      </c>
-      <c r="AG87">
-        <v>1.55</v>
-      </c>
-      <c r="AH87">
-        <v>2.3</v>
-      </c>
-      <c r="AI87">
-        <v>1.53</v>
-      </c>
-      <c r="AJ87">
-        <v>2.38</v>
-      </c>
-      <c r="AK87">
-        <v>1.47</v>
-      </c>
-      <c r="AL87">
-        <v>1.22</v>
-      </c>
-      <c r="AM87">
-        <v>1.55</v>
-      </c>
-      <c r="AN87">
-        <v>1.86</v>
-      </c>
-      <c r="AO87">
-        <v>0.71</v>
-      </c>
-      <c r="AP87">
-        <v>1.56</v>
-      </c>
-      <c r="AQ87">
-        <v>0.67</v>
-      </c>
-      <c r="AR87">
-        <v>1.7</v>
-      </c>
-      <c r="AS87">
-        <v>1.68</v>
-      </c>
-      <c r="AT87">
-        <v>3.38</v>
-      </c>
-      <c r="AU87">
+      <c r="AV87">
         <v>4</v>
       </c>
-      <c r="AV87">
-        <v>3</v>
-      </c>
       <c r="AW87">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY87">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ87">
         <v>6</v>
       </c>
       <c r="BA87">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB87">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BC87">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="BD87">
         <v>0</v>
@@ -18981,22 +18981,22 @@
         <v>0</v>
       </c>
       <c r="BK87">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="BL87">
-        <v>2.58</v>
+        <v>2.19</v>
       </c>
       <c r="BM87">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="BN87">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="BO87">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="BP87">
-        <v>1.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -19416,7 +19416,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7487109</v>
+        <v>7487114</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19431,190 +19431,190 @@
         <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="Q90">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="R90">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="S90">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="T90">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U90">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V90">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W90">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X90">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y90">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z90">
-        <v>1.97</v>
+        <v>1.44</v>
       </c>
       <c r="AA90">
-        <v>3.49</v>
+        <v>4.33</v>
       </c>
       <c r="AB90">
-        <v>2.99</v>
+        <v>5.6</v>
       </c>
       <c r="AC90">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE90">
+        <v>1.17</v>
+      </c>
+      <c r="AF90">
+        <v>5</v>
+      </c>
+      <c r="AG90">
+        <v>1.5</v>
+      </c>
+      <c r="AH90">
+        <v>2.48</v>
+      </c>
+      <c r="AI90">
+        <v>1.67</v>
+      </c>
+      <c r="AJ90">
+        <v>2.1</v>
+      </c>
+      <c r="AK90">
+        <v>1.08</v>
+      </c>
+      <c r="AL90">
+        <v>1.14</v>
+      </c>
+      <c r="AM90">
+        <v>2.7</v>
+      </c>
+      <c r="AN90">
+        <v>1.71</v>
+      </c>
+      <c r="AO90">
+        <v>0.71</v>
+      </c>
+      <c r="AP90">
+        <v>1.56</v>
+      </c>
+      <c r="AQ90">
+        <v>0.78</v>
+      </c>
+      <c r="AR90">
+        <v>1.67</v>
+      </c>
+      <c r="AS90">
         <v>1.18</v>
       </c>
-      <c r="AF90">
-        <v>4.5</v>
-      </c>
-      <c r="AG90">
-        <v>1.58</v>
-      </c>
-      <c r="AH90">
-        <v>2.28</v>
-      </c>
-      <c r="AI90">
-        <v>1.53</v>
-      </c>
-      <c r="AJ90">
-        <v>2.38</v>
-      </c>
-      <c r="AK90">
-        <v>1.36</v>
-      </c>
-      <c r="AL90">
-        <v>1.22</v>
-      </c>
-      <c r="AM90">
-        <v>1.7</v>
-      </c>
-      <c r="AN90">
-        <v>2</v>
-      </c>
-      <c r="AO90">
-        <v>1.57</v>
-      </c>
-      <c r="AP90">
-        <v>1.78</v>
-      </c>
-      <c r="AQ90">
-        <v>1.22</v>
-      </c>
-      <c r="AR90">
-        <v>1.8</v>
-      </c>
-      <c r="AS90">
-        <v>1.58</v>
-      </c>
       <c r="AT90">
-        <v>3.38</v>
+        <v>2.85</v>
       </c>
       <c r="AU90">
         <v>8</v>
       </c>
       <c r="AV90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW90">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AX90">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY90">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AZ90">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA90">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC90">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD90">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="BE90">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="BF90">
-        <v>2.62</v>
+        <v>10</v>
       </c>
       <c r="BG90">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="BH90">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="BI90">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="BJ90">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="BK90">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="BL90">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="BM90">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="BN90">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="BO90">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="BP90">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -19622,7 +19622,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7487114</v>
+        <v>7487109</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19637,190 +19637,190 @@
         <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O91" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="Q91">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="R91">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="S91">
+        <v>3.4</v>
+      </c>
+      <c r="T91">
+        <v>1.3</v>
+      </c>
+      <c r="U91">
+        <v>3.4</v>
+      </c>
+      <c r="V91">
+        <v>2.38</v>
+      </c>
+      <c r="W91">
+        <v>1.53</v>
+      </c>
+      <c r="X91">
         <v>6</v>
       </c>
-      <c r="T91">
-        <v>1.29</v>
-      </c>
-      <c r="U91">
-        <v>3.5</v>
-      </c>
-      <c r="V91">
-        <v>2.25</v>
-      </c>
-      <c r="W91">
+      <c r="Y91">
+        <v>1.13</v>
+      </c>
+      <c r="Z91">
+        <v>1.97</v>
+      </c>
+      <c r="AA91">
+        <v>3.49</v>
+      </c>
+      <c r="AB91">
+        <v>2.99</v>
+      </c>
+      <c r="AC91">
+        <v>1.04</v>
+      </c>
+      <c r="AD91">
+        <v>10</v>
+      </c>
+      <c r="AE91">
+        <v>1.18</v>
+      </c>
+      <c r="AF91">
+        <v>4.5</v>
+      </c>
+      <c r="AG91">
+        <v>1.58</v>
+      </c>
+      <c r="AH91">
+        <v>2.28</v>
+      </c>
+      <c r="AI91">
+        <v>1.53</v>
+      </c>
+      <c r="AJ91">
+        <v>2.38</v>
+      </c>
+      <c r="AK91">
+        <v>1.36</v>
+      </c>
+      <c r="AL91">
+        <v>1.22</v>
+      </c>
+      <c r="AM91">
+        <v>1.7</v>
+      </c>
+      <c r="AN91">
+        <v>2</v>
+      </c>
+      <c r="AO91">
         <v>1.57</v>
       </c>
-      <c r="X91">
-        <v>5.5</v>
-      </c>
-      <c r="Y91">
-        <v>1.14</v>
-      </c>
-      <c r="Z91">
-        <v>1.44</v>
-      </c>
-      <c r="AA91">
-        <v>4.33</v>
-      </c>
-      <c r="AB91">
-        <v>5.6</v>
-      </c>
-      <c r="AC91">
-        <v>1.03</v>
-      </c>
-      <c r="AD91">
-        <v>11</v>
-      </c>
-      <c r="AE91">
-        <v>1.17</v>
-      </c>
-      <c r="AF91">
-        <v>5</v>
-      </c>
-      <c r="AG91">
-        <v>1.5</v>
-      </c>
-      <c r="AH91">
-        <v>2.48</v>
-      </c>
-      <c r="AI91">
-        <v>1.67</v>
-      </c>
-      <c r="AJ91">
-        <v>2.1</v>
-      </c>
-      <c r="AK91">
-        <v>1.08</v>
-      </c>
-      <c r="AL91">
-        <v>1.14</v>
-      </c>
-      <c r="AM91">
-        <v>2.7</v>
-      </c>
-      <c r="AN91">
-        <v>1.71</v>
-      </c>
-      <c r="AO91">
-        <v>0.71</v>
-      </c>
       <c r="AP91">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="AQ91">
-        <v>0.78</v>
+        <v>1.22</v>
       </c>
       <c r="AR91">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AS91">
-        <v>1.18</v>
+        <v>1.58</v>
       </c>
       <c r="AT91">
-        <v>2.85</v>
+        <v>3.38</v>
       </c>
       <c r="AU91">
         <v>8</v>
       </c>
       <c r="AV91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW91">
+        <v>6</v>
+      </c>
+      <c r="AX91">
+        <v>5</v>
+      </c>
+      <c r="AY91">
         <v>17</v>
       </c>
-      <c r="AX91">
-        <v>7</v>
-      </c>
-      <c r="AY91">
-        <v>25</v>
-      </c>
       <c r="AZ91">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA91">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC91">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD91">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="BE91">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="BF91">
-        <v>10</v>
+        <v>2.62</v>
       </c>
       <c r="BG91">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="BH91">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="BI91">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="BJ91">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="BK91">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="BL91">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="BM91">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="BN91">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="BO91">
-        <v>2.21</v>
+        <v>2.31</v>
       </c>
       <c r="BP91">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -19828,7 +19828,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7487120</v>
+        <v>7487115</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19843,49 +19843,49 @@
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
         <v>1</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O92" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="P92" t="s">
         <v>219</v>
       </c>
       <c r="Q92">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="R92">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S92">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="T92">
         <v>1.3</v>
       </c>
       <c r="U92">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="V92">
         <v>2.35</v>
@@ -19894,19 +19894,19 @@
         <v>1.53</v>
       </c>
       <c r="X92">
-        <v>5.1</v>
+        <v>5.05</v>
       </c>
       <c r="Y92">
         <v>1.13</v>
       </c>
       <c r="Z92">
-        <v>4.12</v>
+        <v>1.95</v>
       </c>
       <c r="AA92">
-        <v>3.79</v>
+        <v>3.49</v>
       </c>
       <c r="AB92">
-        <v>1.68</v>
+        <v>3.32</v>
       </c>
       <c r="AC92">
         <v>1.04</v>
@@ -19927,106 +19927,106 @@
         <v>2.3</v>
       </c>
       <c r="AI92">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AJ92">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AK92">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="AL92">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM92">
-        <v>1.22</v>
+        <v>1.85</v>
       </c>
       <c r="AN92">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
       <c r="AO92">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AP92">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR92">
-        <v>0.95</v>
+        <v>1.84</v>
       </c>
       <c r="AS92">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AT92">
-        <v>2.41</v>
+        <v>3.44</v>
       </c>
       <c r="AU92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV92">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW92">
         <v>4</v>
       </c>
       <c r="AX92">
+        <v>3</v>
+      </c>
+      <c r="AY92">
+        <v>12</v>
+      </c>
+      <c r="AZ92">
+        <v>17</v>
+      </c>
+      <c r="BA92">
+        <v>7</v>
+      </c>
+      <c r="BB92">
+        <v>2</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>1.91</v>
+      </c>
+      <c r="BE92">
         <v>8</v>
       </c>
-      <c r="AY92">
-        <v>7</v>
-      </c>
-      <c r="AZ92">
-        <v>18</v>
-      </c>
-      <c r="BA92">
-        <v>3</v>
-      </c>
-      <c r="BB92">
-        <v>8</v>
-      </c>
-      <c r="BC92">
-        <v>11</v>
-      </c>
-      <c r="BD92">
-        <v>3.28</v>
-      </c>
-      <c r="BE92">
-        <v>9</v>
-      </c>
       <c r="BF92">
+        <v>2.1</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>1.36</v>
+      </c>
+      <c r="BJ92">
+        <v>2.88</v>
+      </c>
+      <c r="BK92">
+        <v>1.62</v>
+      </c>
+      <c r="BL92">
+        <v>2.16</v>
+      </c>
+      <c r="BM92">
+        <v>1.99</v>
+      </c>
+      <c r="BN92">
+        <v>1.72</v>
+      </c>
+      <c r="BO92">
+        <v>2.55</v>
+      </c>
+      <c r="BP92">
         <v>1.45</v>
-      </c>
-      <c r="BG92">
-        <v>0</v>
-      </c>
-      <c r="BH92">
-        <v>0</v>
-      </c>
-      <c r="BI92">
-        <v>0</v>
-      </c>
-      <c r="BJ92">
-        <v>0</v>
-      </c>
-      <c r="BK92">
-        <v>0</v>
-      </c>
-      <c r="BL92">
-        <v>0</v>
-      </c>
-      <c r="BM92">
-        <v>0</v>
-      </c>
-      <c r="BN92">
-        <v>0</v>
-      </c>
-      <c r="BO92">
-        <v>0</v>
-      </c>
-      <c r="BP92">
-        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -20034,7 +20034,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7487115</v>
+        <v>7487120</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20049,49 +20049,49 @@
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H93" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93">
         <v>1</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O93" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="P93" t="s">
         <v>219</v>
       </c>
       <c r="Q93">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="R93">
+        <v>2.3</v>
+      </c>
+      <c r="S93">
         <v>2.25</v>
-      </c>
-      <c r="S93">
-        <v>3.8</v>
       </c>
       <c r="T93">
         <v>1.3</v>
       </c>
       <c r="U93">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="V93">
         <v>2.35</v>
@@ -20100,19 +20100,19 @@
         <v>1.53</v>
       </c>
       <c r="X93">
-        <v>5.05</v>
+        <v>5.1</v>
       </c>
       <c r="Y93">
         <v>1.13</v>
       </c>
       <c r="Z93">
-        <v>1.95</v>
+        <v>4.12</v>
       </c>
       <c r="AA93">
-        <v>3.49</v>
+        <v>3.79</v>
       </c>
       <c r="AB93">
-        <v>3.32</v>
+        <v>1.68</v>
       </c>
       <c r="AC93">
         <v>1.04</v>
@@ -20133,76 +20133,76 @@
         <v>2.3</v>
       </c>
       <c r="AI93">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AJ93">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AK93">
-        <v>1.28</v>
+        <v>2</v>
       </c>
       <c r="AL93">
+        <v>1.2</v>
+      </c>
+      <c r="AM93">
         <v>1.22</v>
       </c>
-      <c r="AM93">
-        <v>1.85</v>
-      </c>
       <c r="AN93">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
       <c r="AO93">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AP93">
-        <v>1.78</v>
+        <v>1.11</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR93">
-        <v>1.84</v>
+        <v>0.95</v>
       </c>
       <c r="AS93">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="AT93">
-        <v>3.44</v>
+        <v>2.41</v>
       </c>
       <c r="AU93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV93">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW93">
         <v>4</v>
       </c>
       <c r="AX93">
+        <v>8</v>
+      </c>
+      <c r="AY93">
+        <v>7</v>
+      </c>
+      <c r="AZ93">
+        <v>18</v>
+      </c>
+      <c r="BA93">
         <v>3</v>
       </c>
-      <c r="AY93">
-        <v>12</v>
-      </c>
-      <c r="AZ93">
-        <v>17</v>
-      </c>
-      <c r="BA93">
-        <v>7</v>
-      </c>
       <c r="BB93">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC93">
+        <v>11</v>
+      </c>
+      <c r="BD93">
+        <v>3.28</v>
+      </c>
+      <c r="BE93">
         <v>9</v>
       </c>
-      <c r="BD93">
-        <v>1.91</v>
-      </c>
-      <c r="BE93">
-        <v>8</v>
-      </c>
       <c r="BF93">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="BG93">
         <v>0</v>
@@ -20211,28 +20211,28 @@
         <v>0</v>
       </c>
       <c r="BI93">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BJ93">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="BK93">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BL93">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="BM93">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="BN93">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="BO93">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BP93">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20652,7 +20652,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7487118</v>
+        <v>7487116</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20667,190 +20667,190 @@
         <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H96" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <v>3</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O96" t="s">
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="Q96">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S96">
+        <v>3.75</v>
+      </c>
+      <c r="T96">
+        <v>1.33</v>
+      </c>
+      <c r="U96">
+        <v>3.25</v>
+      </c>
+      <c r="V96">
+        <v>2.63</v>
+      </c>
+      <c r="W96">
+        <v>1.44</v>
+      </c>
+      <c r="X96">
+        <v>6.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.11</v>
+      </c>
+      <c r="Z96">
+        <v>2</v>
+      </c>
+      <c r="AA96">
+        <v>3.43</v>
+      </c>
+      <c r="AB96">
+        <v>3.21</v>
+      </c>
+      <c r="AC96">
+        <v>1.05</v>
+      </c>
+      <c r="AD96">
+        <v>9.5</v>
+      </c>
+      <c r="AE96">
+        <v>1.25</v>
+      </c>
+      <c r="AF96">
+        <v>3.95</v>
+      </c>
+      <c r="AG96">
+        <v>1.65</v>
+      </c>
+      <c r="AH96">
+        <v>2.1</v>
+      </c>
+      <c r="AI96">
+        <v>1.62</v>
+      </c>
+      <c r="AJ96">
+        <v>2.2</v>
+      </c>
+      <c r="AK96">
+        <v>1.3</v>
+      </c>
+      <c r="AL96">
+        <v>1.25</v>
+      </c>
+      <c r="AM96">
+        <v>1.75</v>
+      </c>
+      <c r="AN96">
+        <v>2</v>
+      </c>
+      <c r="AO96">
+        <v>1.29</v>
+      </c>
+      <c r="AP96">
+        <v>2</v>
+      </c>
+      <c r="AQ96">
+        <v>1.33</v>
+      </c>
+      <c r="AR96">
+        <v>1.88</v>
+      </c>
+      <c r="AS96">
+        <v>1.61</v>
+      </c>
+      <c r="AT96">
+        <v>3.49</v>
+      </c>
+      <c r="AU96">
+        <v>11</v>
+      </c>
+      <c r="AV96">
+        <v>5</v>
+      </c>
+      <c r="AW96">
         <v>4</v>
       </c>
-      <c r="T96">
-        <v>1.25</v>
-      </c>
-      <c r="U96">
-        <v>3.75</v>
-      </c>
-      <c r="V96">
-        <v>2.2</v>
-      </c>
-      <c r="W96">
-        <v>1.62</v>
-      </c>
-      <c r="X96">
-        <v>5</v>
-      </c>
-      <c r="Y96">
-        <v>1.17</v>
-      </c>
-      <c r="Z96">
-        <v>1.85</v>
-      </c>
-      <c r="AA96">
-        <v>3.71</v>
-      </c>
-      <c r="AB96">
-        <v>3.44</v>
-      </c>
-      <c r="AC96">
-        <v>1.01</v>
-      </c>
-      <c r="AD96">
-        <v>17</v>
-      </c>
-      <c r="AE96">
-        <v>1.14</v>
-      </c>
-      <c r="AF96">
-        <v>5.5</v>
-      </c>
-      <c r="AG96">
-        <v>1.44</v>
-      </c>
-      <c r="AH96">
-        <v>2.6</v>
-      </c>
-      <c r="AI96">
-        <v>1.44</v>
-      </c>
-      <c r="AJ96">
-        <v>2.63</v>
-      </c>
-      <c r="AK96">
-        <v>1.25</v>
-      </c>
-      <c r="AL96">
-        <v>1.2</v>
-      </c>
-      <c r="AM96">
-        <v>1.95</v>
-      </c>
-      <c r="AN96">
-        <v>1.57</v>
-      </c>
-      <c r="AO96">
-        <v>1.14</v>
-      </c>
-      <c r="AP96">
-        <v>1.89</v>
-      </c>
-      <c r="AQ96">
-        <v>1.22</v>
-      </c>
-      <c r="AR96">
-        <v>1.72</v>
-      </c>
-      <c r="AS96">
-        <v>1.53</v>
-      </c>
-      <c r="AT96">
-        <v>3.25</v>
-      </c>
-      <c r="AU96">
-        <v>13</v>
-      </c>
-      <c r="AV96">
+      <c r="AX96">
         <v>4</v>
       </c>
-      <c r="AW96">
+      <c r="AY96">
+        <v>18</v>
+      </c>
+      <c r="AZ96">
         <v>10</v>
       </c>
-      <c r="AX96">
-        <v>3</v>
-      </c>
-      <c r="AY96">
-        <v>27</v>
-      </c>
-      <c r="AZ96">
+      <c r="BA96">
+        <v>7</v>
+      </c>
+      <c r="BB96">
+        <v>4</v>
+      </c>
+      <c r="BC96">
         <v>11</v>
       </c>
-      <c r="BA96">
-        <v>5</v>
-      </c>
-      <c r="BB96">
-        <v>3</v>
-      </c>
-      <c r="BC96">
-        <v>8</v>
-      </c>
       <c r="BD96">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="BE96">
         <v>8.5</v>
       </c>
       <c r="BF96">
-        <v>2.66</v>
+        <v>3.07</v>
       </c>
       <c r="BG96">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="BH96">
-        <v>5</v>
+        <v>3.58</v>
       </c>
       <c r="BI96">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="BJ96">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="BK96">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="BL96">
-        <v>2.33</v>
+        <v>1.96</v>
       </c>
       <c r="BM96">
-        <v>1.87</v>
+        <v>2.21</v>
       </c>
       <c r="BN96">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="BO96">
-        <v>2.36</v>
+        <v>2.9</v>
       </c>
       <c r="BP96">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20858,7 +20858,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7487116</v>
+        <v>7487118</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20873,190 +20873,190 @@
         <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H97" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L97">
         <v>3</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O97" t="s">
         <v>159</v>
       </c>
       <c r="P97" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="Q97">
+        <v>2.38</v>
+      </c>
+      <c r="R97">
+        <v>2.5</v>
+      </c>
+      <c r="S97">
+        <v>4</v>
+      </c>
+      <c r="T97">
+        <v>1.25</v>
+      </c>
+      <c r="U97">
+        <v>3.75</v>
+      </c>
+      <c r="V97">
+        <v>2.2</v>
+      </c>
+      <c r="W97">
+        <v>1.62</v>
+      </c>
+      <c r="X97">
+        <v>5</v>
+      </c>
+      <c r="Y97">
+        <v>1.17</v>
+      </c>
+      <c r="Z97">
+        <v>1.85</v>
+      </c>
+      <c r="AA97">
+        <v>3.71</v>
+      </c>
+      <c r="AB97">
+        <v>3.44</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>17</v>
+      </c>
+      <c r="AE97">
+        <v>1.14</v>
+      </c>
+      <c r="AF97">
+        <v>5.5</v>
+      </c>
+      <c r="AG97">
+        <v>1.44</v>
+      </c>
+      <c r="AH97">
+        <v>2.6</v>
+      </c>
+      <c r="AI97">
+        <v>1.44</v>
+      </c>
+      <c r="AJ97">
         <v>2.63</v>
       </c>
-      <c r="R97">
-        <v>2.25</v>
-      </c>
-      <c r="S97">
-        <v>3.75</v>
-      </c>
-      <c r="T97">
-        <v>1.33</v>
-      </c>
-      <c r="U97">
+      <c r="AK97">
+        <v>1.25</v>
+      </c>
+      <c r="AL97">
+        <v>1.2</v>
+      </c>
+      <c r="AM97">
+        <v>1.95</v>
+      </c>
+      <c r="AN97">
+        <v>1.57</v>
+      </c>
+      <c r="AO97">
+        <v>1.14</v>
+      </c>
+      <c r="AP97">
+        <v>1.89</v>
+      </c>
+      <c r="AQ97">
+        <v>1.22</v>
+      </c>
+      <c r="AR97">
+        <v>1.72</v>
+      </c>
+      <c r="AS97">
+        <v>1.53</v>
+      </c>
+      <c r="AT97">
         <v>3.25</v>
       </c>
-      <c r="V97">
-        <v>2.63</v>
-      </c>
-      <c r="W97">
-        <v>1.44</v>
-      </c>
-      <c r="X97">
-        <v>6.5</v>
-      </c>
-      <c r="Y97">
-        <v>1.11</v>
-      </c>
-      <c r="Z97">
-        <v>2</v>
-      </c>
-      <c r="AA97">
-        <v>3.43</v>
-      </c>
-      <c r="AB97">
-        <v>3.21</v>
-      </c>
-      <c r="AC97">
-        <v>1.05</v>
-      </c>
-      <c r="AD97">
-        <v>9.5</v>
-      </c>
-      <c r="AE97">
-        <v>1.25</v>
-      </c>
-      <c r="AF97">
-        <v>3.95</v>
-      </c>
-      <c r="AG97">
-        <v>1.65</v>
-      </c>
-      <c r="AH97">
-        <v>2.1</v>
-      </c>
-      <c r="AI97">
-        <v>1.62</v>
-      </c>
-      <c r="AJ97">
-        <v>2.2</v>
-      </c>
-      <c r="AK97">
-        <v>1.3</v>
-      </c>
-      <c r="AL97">
-        <v>1.25</v>
-      </c>
-      <c r="AM97">
-        <v>1.75</v>
-      </c>
-      <c r="AN97">
-        <v>2</v>
-      </c>
-      <c r="AO97">
-        <v>1.29</v>
-      </c>
-      <c r="AP97">
-        <v>2</v>
-      </c>
-      <c r="AQ97">
-        <v>1.33</v>
-      </c>
-      <c r="AR97">
-        <v>1.88</v>
-      </c>
-      <c r="AS97">
-        <v>1.61</v>
-      </c>
-      <c r="AT97">
-        <v>3.49</v>
-      </c>
       <c r="AU97">
+        <v>13</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>10</v>
+      </c>
+      <c r="AX97">
+        <v>3</v>
+      </c>
+      <c r="AY97">
+        <v>27</v>
+      </c>
+      <c r="AZ97">
         <v>11</v>
       </c>
-      <c r="AV97">
+      <c r="BA97">
         <v>5</v>
       </c>
-      <c r="AW97">
-        <v>4</v>
-      </c>
-      <c r="AX97">
-        <v>4</v>
-      </c>
-      <c r="AY97">
-        <v>18</v>
-      </c>
-      <c r="AZ97">
-        <v>10</v>
-      </c>
-      <c r="BA97">
-        <v>7</v>
-      </c>
       <c r="BB97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC97">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD97">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="BE97">
         <v>8.5</v>
       </c>
       <c r="BF97">
-        <v>3.07</v>
+        <v>2.66</v>
       </c>
       <c r="BG97">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="BH97">
-        <v>3.58</v>
+        <v>5</v>
       </c>
       <c r="BI97">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="BJ97">
-        <v>2.55</v>
+        <v>3.15</v>
       </c>
       <c r="BK97">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="BL97">
-        <v>1.96</v>
+        <v>2.33</v>
       </c>
       <c r="BM97">
-        <v>2.21</v>
+        <v>1.87</v>
       </c>
       <c r="BN97">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="BO97">
-        <v>2.9</v>
+        <v>2.36</v>
       </c>
       <c r="BP97">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -22300,7 +22300,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7487132</v>
+        <v>7487129</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22312,193 +22312,193 @@
         <v>45640.58333333334</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O104" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="P104" t="s">
         <v>227</v>
       </c>
       <c r="Q104">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="R104">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S104">
         <v>2.5</v>
       </c>
       <c r="T104">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="U104">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="V104">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="W104">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="X104">
-        <v>6.95</v>
+        <v>5</v>
       </c>
       <c r="Y104">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="Z104">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AA104">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AB104">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AC104">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD104">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE104">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AF104">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="AG104">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="AH104">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="AI104">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AJ104">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="AK104">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="AL104">
         <v>1.22</v>
       </c>
       <c r="AM104">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AN104">
         <v>1.25</v>
       </c>
       <c r="AO104">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="AP104">
         <v>1.11</v>
       </c>
       <c r="AQ104">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="AR104">
-        <v>0.93</v>
+        <v>1.23</v>
       </c>
       <c r="AS104">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>2.31</v>
+        <v>2.73</v>
       </c>
       <c r="AU104">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV104">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AW104">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX104">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AY104">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ104">
+        <v>29</v>
+      </c>
+      <c r="BA104">
+        <v>7</v>
+      </c>
+      <c r="BB104">
+        <v>8</v>
+      </c>
+      <c r="BC104">
         <v>15</v>
       </c>
-      <c r="BA104">
-        <v>4</v>
-      </c>
-      <c r="BB104">
-        <v>5</v>
-      </c>
-      <c r="BC104">
-        <v>9</v>
-      </c>
       <c r="BD104">
-        <v>3.06</v>
+        <v>2.62</v>
       </c>
       <c r="BE104">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF104">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="BG104">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="BH104">
-        <v>4.2</v>
+        <v>3.92</v>
       </c>
       <c r="BI104">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BJ104">
-        <v>2.88</v>
+        <v>2.73</v>
       </c>
       <c r="BK104">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="BL104">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="BM104">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="BN104">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="BO104">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="BP104">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22506,7 +22506,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7487129</v>
+        <v>7487132</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22518,193 +22518,193 @@
         <v>45640.58333333334</v>
       </c>
       <c r="F105">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H105" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N105">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O105" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="P105" t="s">
         <v>228</v>
       </c>
       <c r="Q105">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="R105">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S105">
         <v>2.5</v>
       </c>
       <c r="T105">
+        <v>1.39</v>
+      </c>
+      <c r="U105">
+        <v>2.8</v>
+      </c>
+      <c r="V105">
+        <v>2.8</v>
+      </c>
+      <c r="W105">
+        <v>1.39</v>
+      </c>
+      <c r="X105">
+        <v>6.95</v>
+      </c>
+      <c r="Y105">
+        <v>1.07</v>
+      </c>
+      <c r="Z105">
+        <v>3.6</v>
+      </c>
+      <c r="AA105">
+        <v>3.55</v>
+      </c>
+      <c r="AB105">
+        <v>1.91</v>
+      </c>
+      <c r="AC105">
+        <v>1.05</v>
+      </c>
+      <c r="AD105">
+        <v>9</v>
+      </c>
+      <c r="AE105">
         <v>1.3</v>
       </c>
-      <c r="U105">
-        <v>3.2</v>
-      </c>
-      <c r="V105">
-        <v>2.35</v>
-      </c>
-      <c r="W105">
-        <v>1.53</v>
-      </c>
-      <c r="X105">
-        <v>5</v>
-      </c>
-      <c r="Y105">
-        <v>1.14</v>
-      </c>
-      <c r="Z105">
-        <v>3.25</v>
-      </c>
-      <c r="AA105">
-        <v>3.65</v>
-      </c>
-      <c r="AB105">
-        <v>2.02</v>
-      </c>
-      <c r="AC105">
-        <v>1.04</v>
-      </c>
-      <c r="AD105">
-        <v>10</v>
-      </c>
-      <c r="AE105">
-        <v>1.2</v>
-      </c>
       <c r="AF105">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="AG105">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="AH105">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="AI105">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AJ105">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="AK105">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="AL105">
         <v>1.22</v>
       </c>
       <c r="AM105">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AN105">
         <v>1.25</v>
       </c>
       <c r="AO105">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AP105">
         <v>1.11</v>
       </c>
       <c r="AQ105">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
-        <v>1.23</v>
+        <v>0.93</v>
       </c>
       <c r="AS105">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT105">
-        <v>2.73</v>
+        <v>2.31</v>
       </c>
       <c r="AU105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV105">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AW105">
+        <v>10</v>
+      </c>
+      <c r="AX105">
         <v>5</v>
       </c>
-      <c r="AX105">
-        <v>13</v>
-      </c>
       <c r="AY105">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ105">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="BA105">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB105">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC105">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BD105">
-        <v>2.62</v>
+        <v>3.06</v>
       </c>
       <c r="BE105">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF105">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="BG105">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="BH105">
-        <v>3.92</v>
+        <v>4.2</v>
       </c>
       <c r="BI105">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="BJ105">
-        <v>2.73</v>
+        <v>2.88</v>
       </c>
       <c r="BK105">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="BL105">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="BM105">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="BN105">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="BO105">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="BP105">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -23124,7 +23124,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7487131</v>
+        <v>7487128</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23136,154 +23136,154 @@
         <v>45641.52083333334</v>
       </c>
       <c r="F108">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H108" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O108" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="P108" t="s">
         <v>230</v>
       </c>
       <c r="Q108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R108">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S108">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T108">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U108">
+        <v>3.2</v>
+      </c>
+      <c r="V108">
+        <v>2.38</v>
+      </c>
+      <c r="W108">
+        <v>1.53</v>
+      </c>
+      <c r="X108">
+        <v>5</v>
+      </c>
+      <c r="Y108">
+        <v>1.14</v>
+      </c>
+      <c r="Z108">
+        <v>2.05</v>
+      </c>
+      <c r="AA108">
+        <v>3.4</v>
+      </c>
+      <c r="AB108">
+        <v>3.2</v>
+      </c>
+      <c r="AC108">
+        <v>1.04</v>
+      </c>
+      <c r="AD108">
+        <v>10</v>
+      </c>
+      <c r="AE108">
+        <v>1.2</v>
+      </c>
+      <c r="AF108">
+        <v>4.33</v>
+      </c>
+      <c r="AG108">
+        <v>1.61</v>
+      </c>
+      <c r="AH108">
+        <v>2.05</v>
+      </c>
+      <c r="AI108">
+        <v>1.53</v>
+      </c>
+      <c r="AJ108">
+        <v>2.3</v>
+      </c>
+      <c r="AK108">
+        <v>1.3</v>
+      </c>
+      <c r="AL108">
+        <v>1.22</v>
+      </c>
+      <c r="AM108">
+        <v>1.75</v>
+      </c>
+      <c r="AN108">
+        <v>2.38</v>
+      </c>
+      <c r="AO108">
+        <v>0.75</v>
+      </c>
+      <c r="AP108">
+        <v>2.11</v>
+      </c>
+      <c r="AQ108">
+        <v>1</v>
+      </c>
+      <c r="AR108">
+        <v>1.89</v>
+      </c>
+      <c r="AS108">
+        <v>1.6</v>
+      </c>
+      <c r="AT108">
+        <v>3.49</v>
+      </c>
+      <c r="AU108">
+        <v>6</v>
+      </c>
+      <c r="AV108">
+        <v>9</v>
+      </c>
+      <c r="AW108">
+        <v>8</v>
+      </c>
+      <c r="AX108">
         <v>3</v>
       </c>
-      <c r="V108">
-        <v>2.5</v>
-      </c>
-      <c r="W108">
-        <v>1.48</v>
-      </c>
-      <c r="X108">
-        <v>5.5</v>
-      </c>
-      <c r="Y108">
-        <v>1.12</v>
-      </c>
-      <c r="Z108">
-        <v>2.18</v>
-      </c>
-      <c r="AA108">
-        <v>3.3</v>
-      </c>
-      <c r="AB108">
-        <v>2.9</v>
-      </c>
-      <c r="AC108">
-        <v>1.05</v>
-      </c>
-      <c r="AD108">
-        <v>9.5</v>
-      </c>
-      <c r="AE108">
-        <v>1.22</v>
-      </c>
-      <c r="AF108">
+      <c r="AY108">
+        <v>20</v>
+      </c>
+      <c r="AZ108">
+        <v>15</v>
+      </c>
+      <c r="BA108">
+        <v>8</v>
+      </c>
+      <c r="BB108">
         <v>4</v>
       </c>
-      <c r="AG108">
-        <v>1.67</v>
-      </c>
-      <c r="AH108">
-        <v>2</v>
-      </c>
-      <c r="AI108">
-        <v>1.55</v>
-      </c>
-      <c r="AJ108">
-        <v>2.25</v>
-      </c>
-      <c r="AK108">
-        <v>1.36</v>
-      </c>
-      <c r="AL108">
-        <v>1.25</v>
-      </c>
-      <c r="AM108">
-        <v>1.62</v>
-      </c>
-      <c r="AN108">
-        <v>1.63</v>
-      </c>
-      <c r="AO108">
-        <v>1</v>
-      </c>
-      <c r="AP108">
-        <v>1.44</v>
-      </c>
-      <c r="AQ108">
-        <v>1.22</v>
-      </c>
-      <c r="AR108">
-        <v>1.41</v>
-      </c>
-      <c r="AS108">
-        <v>1.46</v>
-      </c>
-      <c r="AT108">
-        <v>2.87</v>
-      </c>
-      <c r="AU108">
-        <v>4</v>
-      </c>
-      <c r="AV108">
-        <v>4</v>
-      </c>
-      <c r="AW108">
-        <v>4</v>
-      </c>
-      <c r="AX108">
-        <v>2</v>
-      </c>
-      <c r="AY108">
-        <v>15</v>
-      </c>
-      <c r="AZ108">
-        <v>7</v>
-      </c>
-      <c r="BA108">
-        <v>6</v>
-      </c>
-      <c r="BB108">
-        <v>5</v>
-      </c>
       <c r="BC108">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD108">
         <v>1.91</v>
@@ -23292,37 +23292,37 @@
         <v>8</v>
       </c>
       <c r="BF108">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BG108">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="BH108">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="BI108">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="BJ108">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="BK108">
+        <v>1.74</v>
+      </c>
+      <c r="BL108">
+        <v>2.02</v>
+      </c>
+      <c r="BM108">
+        <v>2.19</v>
+      </c>
+      <c r="BN108">
         <v>1.63</v>
       </c>
-      <c r="BL108">
-        <v>2.18</v>
-      </c>
-      <c r="BM108">
-        <v>2.02</v>
-      </c>
-      <c r="BN108">
-        <v>1.74</v>
-      </c>
       <c r="BO108">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="BP108">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23330,7 +23330,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7487128</v>
+        <v>7487131</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23342,154 +23342,154 @@
         <v>45641.52083333334</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O109" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="P109" t="s">
         <v>231</v>
       </c>
       <c r="Q109">
+        <v>2.75</v>
+      </c>
+      <c r="R109">
+        <v>2.15</v>
+      </c>
+      <c r="S109">
+        <v>3.45</v>
+      </c>
+      <c r="T109">
+        <v>1.33</v>
+      </c>
+      <c r="U109">
+        <v>3</v>
+      </c>
+      <c r="V109">
         <v>2.5</v>
       </c>
-      <c r="R109">
-        <v>2.2</v>
-      </c>
-      <c r="S109">
-        <v>3.75</v>
-      </c>
-      <c r="T109">
-        <v>1.3</v>
-      </c>
-      <c r="U109">
-        <v>3.2</v>
-      </c>
-      <c r="V109">
-        <v>2.38</v>
-      </c>
       <c r="W109">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="X109">
+        <v>5.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.12</v>
+      </c>
+      <c r="Z109">
+        <v>2.18</v>
+      </c>
+      <c r="AA109">
+        <v>3.3</v>
+      </c>
+      <c r="AB109">
+        <v>2.9</v>
+      </c>
+      <c r="AC109">
+        <v>1.05</v>
+      </c>
+      <c r="AD109">
+        <v>9.5</v>
+      </c>
+      <c r="AE109">
+        <v>1.22</v>
+      </c>
+      <c r="AF109">
+        <v>4</v>
+      </c>
+      <c r="AG109">
+        <v>1.67</v>
+      </c>
+      <c r="AH109">
+        <v>2</v>
+      </c>
+      <c r="AI109">
+        <v>1.55</v>
+      </c>
+      <c r="AJ109">
+        <v>2.25</v>
+      </c>
+      <c r="AK109">
+        <v>1.36</v>
+      </c>
+      <c r="AL109">
+        <v>1.25</v>
+      </c>
+      <c r="AM109">
+        <v>1.62</v>
+      </c>
+      <c r="AN109">
+        <v>1.63</v>
+      </c>
+      <c r="AO109">
+        <v>1</v>
+      </c>
+      <c r="AP109">
+        <v>1.44</v>
+      </c>
+      <c r="AQ109">
+        <v>1.22</v>
+      </c>
+      <c r="AR109">
+        <v>1.41</v>
+      </c>
+      <c r="AS109">
+        <v>1.46</v>
+      </c>
+      <c r="AT109">
+        <v>2.87</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>4</v>
+      </c>
+      <c r="AW109">
+        <v>4</v>
+      </c>
+      <c r="AX109">
+        <v>2</v>
+      </c>
+      <c r="AY109">
+        <v>15</v>
+      </c>
+      <c r="AZ109">
+        <v>7</v>
+      </c>
+      <c r="BA109">
+        <v>6</v>
+      </c>
+      <c r="BB109">
         <v>5</v>
       </c>
-      <c r="Y109">
-        <v>1.14</v>
-      </c>
-      <c r="Z109">
-        <v>2.05</v>
-      </c>
-      <c r="AA109">
-        <v>3.4</v>
-      </c>
-      <c r="AB109">
-        <v>3.2</v>
-      </c>
-      <c r="AC109">
-        <v>1.04</v>
-      </c>
-      <c r="AD109">
-        <v>10</v>
-      </c>
-      <c r="AE109">
-        <v>1.2</v>
-      </c>
-      <c r="AF109">
-        <v>4.33</v>
-      </c>
-      <c r="AG109">
-        <v>1.61</v>
-      </c>
-      <c r="AH109">
-        <v>2.05</v>
-      </c>
-      <c r="AI109">
-        <v>1.53</v>
-      </c>
-      <c r="AJ109">
-        <v>2.3</v>
-      </c>
-      <c r="AK109">
-        <v>1.3</v>
-      </c>
-      <c r="AL109">
-        <v>1.22</v>
-      </c>
-      <c r="AM109">
-        <v>1.75</v>
-      </c>
-      <c r="AN109">
-        <v>2.38</v>
-      </c>
-      <c r="AO109">
-        <v>0.75</v>
-      </c>
-      <c r="AP109">
-        <v>2.11</v>
-      </c>
-      <c r="AQ109">
-        <v>1</v>
-      </c>
-      <c r="AR109">
-        <v>1.89</v>
-      </c>
-      <c r="AS109">
-        <v>1.6</v>
-      </c>
-      <c r="AT109">
-        <v>3.49</v>
-      </c>
-      <c r="AU109">
-        <v>6</v>
-      </c>
-      <c r="AV109">
-        <v>9</v>
-      </c>
-      <c r="AW109">
-        <v>8</v>
-      </c>
-      <c r="AX109">
-        <v>3</v>
-      </c>
-      <c r="AY109">
-        <v>20</v>
-      </c>
-      <c r="AZ109">
-        <v>15</v>
-      </c>
-      <c r="BA109">
-        <v>8</v>
-      </c>
-      <c r="BB109">
-        <v>4</v>
-      </c>
       <c r="BC109">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD109">
         <v>1.91</v>
@@ -23498,37 +23498,37 @@
         <v>8</v>
       </c>
       <c r="BF109">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BG109">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="BH109">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="BI109">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="BJ109">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="BK109">
+        <v>1.63</v>
+      </c>
+      <c r="BL109">
+        <v>2.18</v>
+      </c>
+      <c r="BM109">
+        <v>2.02</v>
+      </c>
+      <c r="BN109">
         <v>1.74</v>
       </c>
-      <c r="BL109">
-        <v>2.02</v>
-      </c>
-      <c r="BM109">
-        <v>2.19</v>
-      </c>
-      <c r="BN109">
-        <v>1.63</v>
-      </c>
       <c r="BO109">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="BP109">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
